--- a/21S2AccrSurvey_EEXXXX-Results (ready).xlsx
+++ b/21S2AccrSurvey_EEXXXX-Results (ready).xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="780" yWindow="780" windowWidth="21600" windowHeight="11295" tabRatio="600" firstSheet="0" activeTab="1" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="600" firstSheet="0" activeTab="2" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="EEXXXX-FTPT" sheetId="1" state="visible" r:id="rId1"/>
@@ -381,7 +381,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="73">
+  <cellXfs count="72">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
@@ -564,7 +564,6 @@
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="top" wrapText="1" readingOrder="1"/>
     </xf>
@@ -2946,15 +2945,15 @@
 <wsDr xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <twoCellAnchor>
     <from>
-      <col>2</col>
-      <colOff>0</colOff>
-      <row>21</row>
-      <rowOff>19052</rowOff>
+      <col>14</col>
+      <colOff>552450</colOff>
+      <row>7</row>
+      <rowOff>228602</rowOff>
     </from>
     <to>
-      <col>13</col>
-      <colOff>0</colOff>
-      <row>42</row>
+      <col>24</col>
+      <colOff>428625</colOff>
+      <row>18</row>
       <rowOff>76200</rowOff>
     </to>
     <graphicFrame>
@@ -3467,7 +3466,7 @@
   </sheetPr>
   <dimension ref="A1:N156"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
+    <sheetView topLeftCell="A7" workbookViewId="0">
       <selection activeCell="C56" sqref="C56"/>
     </sheetView>
   </sheetViews>
@@ -3480,7 +3479,7 @@
     <col width="6.140625" customWidth="1" style="7" min="8" max="8"/>
     <col width="6.140625" customWidth="1" style="7" min="10" max="10"/>
     <col width="6.140625" customWidth="1" style="7" min="12" max="12"/>
-    <col width="13.140625" customWidth="1" style="72" min="13" max="13"/>
+    <col width="13.140625" customWidth="1" style="71" min="13" max="13"/>
   </cols>
   <sheetData>
     <row r="1" ht="17.25" customFormat="1" customHeight="1" s="2">
@@ -3500,7 +3499,7 @@
       <c r="K1" s="15" t="n"/>
       <c r="L1" s="14" t="n"/>
     </row>
-    <row r="2" ht="15.75" customHeight="1" s="72">
+    <row r="2" ht="15.75" customHeight="1" s="71">
       <c r="A2" s="16" t="inlineStr">
         <is>
           <t>EEXXXX XXXX</t>
@@ -3518,7 +3517,7 @@
       <c r="K2" s="2" t="n"/>
       <c r="L2" s="8" t="n"/>
     </row>
-    <row r="3" ht="15" customHeight="1" s="72">
+    <row r="3" ht="15" customHeight="1" s="71">
       <c r="A3" s="16" t="inlineStr">
         <is>
           <t>Cohort Size:</t>
@@ -3540,7 +3539,7 @@
       <c r="K3" s="2" t="n"/>
       <c r="L3" s="8" t="n"/>
     </row>
-    <row r="4" ht="15" customHeight="1" s="72">
+    <row r="4" ht="15" customHeight="1" s="71">
       <c r="A4" s="16" t="inlineStr">
         <is>
           <t>No. of Survey Responses:</t>
@@ -3560,13 +3559,13 @@
       <c r="K4" s="2" t="n"/>
       <c r="L4" s="8" t="n"/>
     </row>
-    <row r="5" ht="15" customHeight="1" s="72">
+    <row r="5" ht="15" customHeight="1" s="71">
       <c r="A5" s="16" t="inlineStr">
         <is>
           <t>Response Percentage:</t>
         </is>
       </c>
-      <c r="B5" s="71">
+      <c r="B5" s="70">
         <f>B4/B3</f>
         <v/>
       </c>
@@ -3580,14 +3579,14 @@
       <c r="K5" s="2" t="n"/>
       <c r="L5" s="8" t="n"/>
     </row>
-    <row r="6" ht="15" customHeight="1" s="72">
+    <row r="6" ht="15" customHeight="1" s="71">
       <c r="A6" s="30" t="inlineStr">
         <is>
           <t>(please scroll to the bottom for input of comments)</t>
         </is>
       </c>
-      <c r="B6" s="71" t="n"/>
-      <c r="C6" s="71" t="n"/>
+      <c r="B6" s="70" t="n"/>
+      <c r="C6" s="70" t="n"/>
       <c r="D6" s="8" t="n"/>
       <c r="E6" s="2" t="n"/>
       <c r="F6" s="8" t="n"/>
@@ -3612,42 +3611,42 @@
       <c r="K7" s="2" t="n"/>
       <c r="L7" s="8" t="n"/>
     </row>
-    <row r="8" ht="45" customHeight="1" s="72">
+    <row r="8" ht="45" customHeight="1" s="71">
       <c r="A8" s="19" t="inlineStr">
         <is>
           <t>Questions and Summary of Survey Results</t>
         </is>
       </c>
-      <c r="B8" s="69" t="inlineStr">
-        <is>
-          <t>Strongly Agree</t>
-        </is>
-      </c>
-      <c r="C8" s="70" t="n"/>
-      <c r="D8" s="69" t="inlineStr">
-        <is>
-          <t>Agree</t>
-        </is>
-      </c>
-      <c r="E8" s="70" t="n"/>
-      <c r="F8" s="69" t="inlineStr">
+      <c r="B8" s="68" t="inlineStr">
+        <is>
+          <t>Strongly Agree</t>
+        </is>
+      </c>
+      <c r="C8" s="69" t="n"/>
+      <c r="D8" s="68" t="inlineStr">
+        <is>
+          <t>Agree</t>
+        </is>
+      </c>
+      <c r="E8" s="69" t="n"/>
+      <c r="F8" s="68" t="inlineStr">
         <is>
           <t>Neutral</t>
         </is>
       </c>
-      <c r="G8" s="70" t="n"/>
-      <c r="H8" s="69" t="inlineStr">
+      <c r="G8" s="69" t="n"/>
+      <c r="H8" s="68" t="inlineStr">
         <is>
           <t>Disagree</t>
         </is>
       </c>
-      <c r="I8" s="70" t="n"/>
-      <c r="J8" s="69" t="inlineStr">
+      <c r="I8" s="69" t="n"/>
+      <c r="J8" s="68" t="inlineStr">
         <is>
           <t>Strongly Disagree</t>
         </is>
       </c>
-      <c r="K8" s="70" t="n"/>
+      <c r="K8" s="69" t="n"/>
       <c r="L8" s="44" t="inlineStr">
         <is>
           <t>Total</t>
@@ -3659,7 +3658,7 @@
         </is>
       </c>
     </row>
-    <row r="9" ht="30" customHeight="1" s="72">
+    <row r="9" ht="30" customHeight="1" s="71">
       <c r="A9" s="20" t="inlineStr">
         <is>
           <t>Q1 - Apply suitable load management techniques to achieve a reliable and sustainable power delivery system.</t>
@@ -3704,12 +3703,12 @@
         <f>(D9+H9+F9+B9+J9)</f>
         <v/>
       </c>
-      <c r="M9" s="67">
+      <c r="M9" s="66">
         <f>C9+E9</f>
         <v/>
       </c>
     </row>
-    <row r="10" ht="15" customHeight="1" s="72">
+    <row r="10" ht="15" customHeight="1" s="71">
       <c r="A10" s="20" t="inlineStr">
         <is>
           <t>Q2 - Able to construct a fair and effective electricity tariff structure.</t>
@@ -3754,12 +3753,12 @@
         <f>(D10+H10+F10+B10+J10)</f>
         <v/>
       </c>
-      <c r="M10" s="67">
+      <c r="M10" s="66">
         <f>C10+E10</f>
         <v/>
       </c>
     </row>
-    <row r="11" ht="30" customHeight="1" s="72">
+    <row r="11" ht="30" customHeight="1" s="71">
       <c r="A11" s="20" t="inlineStr">
         <is>
           <t>Q3 - Analyse the various causes of poor power quality in distribution systems due to switching events.</t>
@@ -3804,12 +3803,12 @@
         <f>(D11+H11+F11+B11+J11)</f>
         <v/>
       </c>
-      <c r="M11" s="67">
+      <c r="M11" s="66">
         <f>C11+E11</f>
         <v/>
       </c>
     </row>
-    <row r="12" ht="30" customHeight="1" s="72">
+    <row r="12" ht="30" customHeight="1" s="71">
       <c r="A12" s="20" t="inlineStr">
         <is>
           <t>Q4 - Able to apply appropriate mitigation techniques to improve power quality in distribution systems (voltage sags/swells).</t>
@@ -3854,12 +3853,12 @@
         <f>(D12+H12+F12+B12+J12)</f>
         <v/>
       </c>
-      <c r="M12" s="67">
+      <c r="M12" s="66">
         <f>C12+E12</f>
         <v/>
       </c>
     </row>
-    <row r="13" ht="30.75" customHeight="1" s="72">
+    <row r="13" ht="30.75" customHeight="1" s="71">
       <c r="A13" s="20" t="inlineStr">
         <is>
           <t>Q5 - Able to apply mitigation techniques to reduce the harmonic distortions in distribution networks.</t>
@@ -3904,12 +3903,12 @@
         <f>(D13+H13+F13+B13+J13)</f>
         <v/>
       </c>
-      <c r="M13" s="67">
+      <c r="M13" s="66">
         <f>C13+E13</f>
         <v/>
       </c>
     </row>
-    <row r="14" ht="30" customHeight="1" s="72">
+    <row r="14" ht="30" customHeight="1" s="71">
       <c r="A14" s="20" t="inlineStr">
         <is>
           <t>Q6 - Able to predict the position of the sun for the purpose of designing renewable solar energy systems.</t>
@@ -3954,12 +3953,12 @@
         <f>(D14+H14+F14+B14+J14)</f>
         <v/>
       </c>
-      <c r="M14" s="67">
+      <c r="M14" s="66">
         <f>C14+E14</f>
         <v/>
       </c>
     </row>
-    <row r="15" ht="30.75" customHeight="1" s="72">
+    <row r="15" ht="30.75" customHeight="1" s="71">
       <c r="A15" s="20" t="inlineStr">
         <is>
           <t>Q7 - Able to estimate the amount of solar insolation and understand how the solar panel can be best aligned for maximum energy collection.</t>
@@ -4004,12 +4003,12 @@
         <f>(D15+H15+F15+B15+J15)</f>
         <v/>
       </c>
-      <c r="M15" s="67">
+      <c r="M15" s="66">
         <f>C15+E15</f>
         <v/>
       </c>
     </row>
-    <row r="16" ht="30" customHeight="1" s="72">
+    <row r="16" ht="30" customHeight="1" s="71">
       <c r="A16" s="20" t="inlineStr">
         <is>
           <t>Q8 - Able to compute the current-voltage characteristics of solar cells, modules and arrays and apply mitigation techniques to shading problems.</t>
@@ -4054,12 +4053,12 @@
         <f>(D16+H16+F16+B16+J16)</f>
         <v/>
       </c>
-      <c r="M16" s="67">
+      <c r="M16" s="66">
         <f>C16+E16</f>
         <v/>
       </c>
     </row>
-    <row r="17" ht="30" customHeight="1" s="72">
+    <row r="17" ht="30" customHeight="1" s="71">
       <c r="A17" s="20" t="inlineStr">
         <is>
           <t>Q9 - Able to predict the power and energy of renewable wind resource at various wind speeds, temperatures and altitudes.</t>
@@ -4104,12 +4103,12 @@
         <f>(D17+H17+F17+B17+J17)</f>
         <v/>
       </c>
-      <c r="M17" s="67">
+      <c r="M17" s="66">
         <f>C17+E17</f>
         <v/>
       </c>
     </row>
-    <row r="18" ht="30" customHeight="1" s="72">
+    <row r="18" ht="30" customHeight="1" s="71">
       <c r="A18" s="20" t="inlineStr">
         <is>
           <t>Q10 - Able to understand the basic design of wind turbines and to predict the generated wind power injected into the grid.</t>
@@ -4154,12 +4153,12 @@
         <f>(D18+H18+F18+B18+J18)</f>
         <v/>
       </c>
-      <c r="M18" s="67">
+      <c r="M18" s="66">
         <f>C18+E18</f>
         <v/>
       </c>
     </row>
-    <row r="19" ht="30" customHeight="1" s="72">
+    <row r="19" ht="30" customHeight="1" s="71">
       <c r="A19" s="20" t="inlineStr">
         <is>
           <t>Q11 - Appreciate the need for lifelong learning and self-education in the design and operation of distribution systems with renewable energy generations.</t>
@@ -4204,7 +4203,7 @@
         <f>(D19+H19+F19+B19+J19)</f>
         <v/>
       </c>
-      <c r="M19" s="67">
+      <c r="M19" s="66">
         <f>C19+E19</f>
         <v/>
       </c>
@@ -4213,161 +4212,161 @@
         <v/>
       </c>
     </row>
-    <row r="21" ht="15" customHeight="1" s="72">
+    <row r="21" ht="15" customHeight="1" s="71">
       <c r="A21" s="23" t="inlineStr">
         <is>
           <t>COMMENTS ON THE COURSE:</t>
         </is>
       </c>
     </row>
-    <row r="22" ht="15" customHeight="1" s="72">
-      <c r="A22" s="62" t="inlineStr">
+    <row r="22" ht="15" customHeight="1" s="71">
+      <c r="A22" s="61" t="inlineStr">
         <is>
           <t>(a) Strengths</t>
         </is>
       </c>
     </row>
-    <row r="23" ht="15" customHeight="1" s="72">
-      <c r="A23" s="62" t="n"/>
-    </row>
-    <row r="24" ht="15" customHeight="1" s="72">
-      <c r="A24" s="62" t="n"/>
-    </row>
-    <row r="25" ht="15" customHeight="1" s="72">
-      <c r="A25" s="62" t="n"/>
-    </row>
-    <row r="26" ht="15" customHeight="1" s="72">
-      <c r="A26" s="62" t="n"/>
-    </row>
-    <row r="27" ht="15" customHeight="1" s="72">
-      <c r="A27" s="62" t="n"/>
-    </row>
-    <row r="28" ht="15" customHeight="1" s="72">
-      <c r="A28" s="62" t="n"/>
-    </row>
-    <row r="29" ht="15" customHeight="1" s="72">
-      <c r="A29" s="62" t="n"/>
-    </row>
-    <row r="30" ht="15" customHeight="1" s="72">
-      <c r="A30" s="62" t="n"/>
-    </row>
-    <row r="31" ht="15" customHeight="1" s="72">
-      <c r="A31" s="62" t="n"/>
-    </row>
-    <row r="32" ht="15" customHeight="1" s="72">
-      <c r="A32" s="62" t="n"/>
-    </row>
-    <row r="33" ht="15" customHeight="1" s="72">
-      <c r="A33" s="62" t="n"/>
-    </row>
-    <row r="34" ht="15" customHeight="1" s="72">
-      <c r="A34" s="62" t="inlineStr">
+    <row r="23" ht="15" customHeight="1" s="71">
+      <c r="A23" s="61" t="n"/>
+    </row>
+    <row r="24" ht="15" customHeight="1" s="71">
+      <c r="A24" s="61" t="n"/>
+    </row>
+    <row r="25" ht="15" customHeight="1" s="71">
+      <c r="A25" s="61" t="n"/>
+    </row>
+    <row r="26" ht="15" customHeight="1" s="71">
+      <c r="A26" s="61" t="n"/>
+    </row>
+    <row r="27" ht="15" customHeight="1" s="71">
+      <c r="A27" s="61" t="n"/>
+    </row>
+    <row r="28" ht="15" customHeight="1" s="71">
+      <c r="A28" s="61" t="n"/>
+    </row>
+    <row r="29" ht="15" customHeight="1" s="71">
+      <c r="A29" s="61" t="n"/>
+    </row>
+    <row r="30" ht="15" customHeight="1" s="71">
+      <c r="A30" s="61" t="n"/>
+    </row>
+    <row r="31" ht="15" customHeight="1" s="71">
+      <c r="A31" s="61" t="n"/>
+    </row>
+    <row r="32" ht="15" customHeight="1" s="71">
+      <c r="A32" s="61" t="n"/>
+    </row>
+    <row r="33" ht="15" customHeight="1" s="71">
+      <c r="A33" s="61" t="n"/>
+    </row>
+    <row r="34" ht="15" customHeight="1" s="71">
+      <c r="A34" s="61" t="inlineStr">
         <is>
           <t>(b) Weaknesses</t>
         </is>
       </c>
     </row>
-    <row r="35" ht="15" customHeight="1" s="72">
-      <c r="A35" s="62" t="n"/>
-    </row>
-    <row r="36" ht="15" customHeight="1" s="72">
-      <c r="A36" s="62" t="n"/>
-    </row>
-    <row r="37" ht="15" customHeight="1" s="72">
-      <c r="A37" s="62" t="n"/>
-    </row>
-    <row r="38" ht="15" customHeight="1" s="72">
-      <c r="A38" s="62" t="n"/>
-    </row>
-    <row r="39" ht="15" customHeight="1" s="72">
-      <c r="A39" s="62" t="n"/>
-    </row>
-    <row r="40" ht="15" customHeight="1" s="72">
-      <c r="A40" s="62" t="n"/>
-    </row>
-    <row r="41" ht="15" customHeight="1" s="72">
-      <c r="A41" s="62" t="n"/>
-    </row>
-    <row r="42" ht="15" customHeight="1" s="72">
-      <c r="A42" s="62" t="n"/>
-    </row>
-    <row r="43" ht="15" customHeight="1" s="72">
-      <c r="A43" s="62" t="n"/>
-    </row>
-    <row r="44" ht="15" customHeight="1" s="72">
-      <c r="A44" s="62" t="n"/>
-    </row>
-    <row r="45" ht="15" customHeight="1" s="72">
-      <c r="A45" s="62" t="n"/>
-    </row>
-    <row r="46" ht="15" customHeight="1" s="72">
-      <c r="A46" s="62" t="n"/>
-    </row>
-    <row r="47" ht="15" customHeight="1" s="72">
-      <c r="A47" s="62" t="n"/>
-    </row>
-    <row r="48" ht="15" customHeight="1" s="72">
-      <c r="A48" s="62" t="n"/>
-    </row>
-    <row r="49" ht="15" customHeight="1" s="72">
-      <c r="A49" s="62" t="n"/>
-    </row>
-    <row r="50" ht="15" customHeight="1" s="72">
-      <c r="A50" s="62" t="n"/>
-    </row>
-    <row r="51" ht="15" customHeight="1" s="72">
-      <c r="A51" s="62" t="n"/>
-    </row>
-    <row r="52" ht="15" customHeight="1" s="72">
-      <c r="A52" s="62" t="n"/>
-    </row>
-    <row r="53" ht="15" customHeight="1" s="72">
-      <c r="A53" s="62" t="n"/>
-    </row>
-    <row r="54" ht="15" customHeight="1" s="72">
-      <c r="A54" s="62" t="n"/>
-    </row>
-    <row r="55" ht="15" customHeight="1" s="72">
-      <c r="A55" s="62" t="inlineStr">
+    <row r="35" ht="15" customHeight="1" s="71">
+      <c r="A35" s="61" t="n"/>
+    </row>
+    <row r="36" ht="15" customHeight="1" s="71">
+      <c r="A36" s="61" t="n"/>
+    </row>
+    <row r="37" ht="15" customHeight="1" s="71">
+      <c r="A37" s="61" t="n"/>
+    </row>
+    <row r="38" ht="15" customHeight="1" s="71">
+      <c r="A38" s="61" t="n"/>
+    </row>
+    <row r="39" ht="15" customHeight="1" s="71">
+      <c r="A39" s="61" t="n"/>
+    </row>
+    <row r="40" ht="15" customHeight="1" s="71">
+      <c r="A40" s="61" t="n"/>
+    </row>
+    <row r="41" ht="15" customHeight="1" s="71">
+      <c r="A41" s="61" t="n"/>
+    </row>
+    <row r="42" ht="15" customHeight="1" s="71">
+      <c r="A42" s="61" t="n"/>
+    </row>
+    <row r="43" ht="15" customHeight="1" s="71">
+      <c r="A43" s="61" t="n"/>
+    </row>
+    <row r="44" ht="15" customHeight="1" s="71">
+      <c r="A44" s="61" t="n"/>
+    </row>
+    <row r="45" ht="15" customHeight="1" s="71">
+      <c r="A45" s="61" t="n"/>
+    </row>
+    <row r="46" ht="15" customHeight="1" s="71">
+      <c r="A46" s="61" t="n"/>
+    </row>
+    <row r="47" ht="15" customHeight="1" s="71">
+      <c r="A47" s="61" t="n"/>
+    </row>
+    <row r="48" ht="15" customHeight="1" s="71">
+      <c r="A48" s="61" t="n"/>
+    </row>
+    <row r="49" ht="15" customHeight="1" s="71">
+      <c r="A49" s="61" t="n"/>
+    </row>
+    <row r="50" ht="15" customHeight="1" s="71">
+      <c r="A50" s="61" t="n"/>
+    </row>
+    <row r="51" ht="15" customHeight="1" s="71">
+      <c r="A51" s="61" t="n"/>
+    </row>
+    <row r="52" ht="15" customHeight="1" s="71">
+      <c r="A52" s="61" t="n"/>
+    </row>
+    <row r="53" ht="15" customHeight="1" s="71">
+      <c r="A53" s="61" t="n"/>
+    </row>
+    <row r="54" ht="15" customHeight="1" s="71">
+      <c r="A54" s="61" t="n"/>
+    </row>
+    <row r="55" ht="15" customHeight="1" s="71">
+      <c r="A55" s="61" t="inlineStr">
         <is>
           <t>(c) Other Comments</t>
         </is>
       </c>
     </row>
-    <row r="56" ht="15" customHeight="1" s="72">
-      <c r="A56" s="63" t="n"/>
-    </row>
-    <row r="57" ht="15" customHeight="1" s="72">
-      <c r="A57" s="63" t="n"/>
-    </row>
-    <row r="58" ht="15" customHeight="1" s="72">
-      <c r="A58" s="63" t="n"/>
-    </row>
-    <row r="59" ht="15" customHeight="1" s="72">
-      <c r="A59" s="63" t="n"/>
-    </row>
-    <row r="60" ht="15" customHeight="1" s="72">
-      <c r="A60" s="63" t="n"/>
-    </row>
-    <row r="61" ht="15" customHeight="1" s="72">
-      <c r="A61" s="63" t="n"/>
-    </row>
-    <row r="62" ht="14.45" customHeight="1" s="72">
-      <c r="A62" s="63" t="n"/>
+    <row r="56" ht="15" customHeight="1" s="71">
+      <c r="A56" s="62" t="n"/>
+    </row>
+    <row r="57" ht="15" customHeight="1" s="71">
+      <c r="A57" s="62" t="n"/>
+    </row>
+    <row r="58" ht="15" customHeight="1" s="71">
+      <c r="A58" s="62" t="n"/>
+    </row>
+    <row r="59" ht="15" customHeight="1" s="71">
+      <c r="A59" s="62" t="n"/>
+    </row>
+    <row r="60" ht="15" customHeight="1" s="71">
+      <c r="A60" s="62" t="n"/>
+    </row>
+    <row r="61" ht="15" customHeight="1" s="71">
+      <c r="A61" s="62" t="n"/>
+    </row>
+    <row r="62" ht="14.45" customHeight="1" s="71">
+      <c r="A62" s="62" t="n"/>
       <c r="C62" s="1" t="n"/>
       <c r="D62" s="9" t="n"/>
     </row>
-    <row r="63" ht="15" customHeight="1" s="72">
-      <c r="A63" s="63" t="n"/>
+    <row r="63" ht="15" customHeight="1" s="71">
+      <c r="A63" s="62" t="n"/>
       <c r="C63" s="1" t="n"/>
       <c r="D63" s="9" t="n"/>
     </row>
-    <row r="64" ht="15" customHeight="1" s="72">
+    <row r="64" ht="15" customHeight="1" s="71">
       <c r="A64" s="24" t="n"/>
       <c r="C64" s="1" t="n"/>
       <c r="D64" s="9" t="n"/>
     </row>
-    <row r="65" ht="15" customHeight="1" s="72">
+    <row r="65" ht="15" customHeight="1" s="71">
       <c r="A65" s="33" t="inlineStr">
         <is>
           <t>[Area Lead (AL) to complete below]</t>
@@ -4376,7 +4375,7 @@
       <c r="C65" s="1" t="n"/>
       <c r="D65" s="9" t="n"/>
     </row>
-    <row r="66" ht="15" customHeight="1" s="72">
+    <row r="66" ht="15" customHeight="1" s="71">
       <c r="A66" s="32" t="inlineStr">
         <is>
           <t>Below (pink shaded) for Course Coordinator (CC) to complete. 
@@ -4386,22 +4385,22 @@
       <c r="C66" s="1" t="n"/>
       <c r="D66" s="9" t="n"/>
     </row>
-    <row r="67" ht="15" customHeight="1" s="72">
+    <row r="67" ht="15" customHeight="1" s="71">
       <c r="A67" s="34" t="n"/>
       <c r="C67" s="1" t="n"/>
       <c r="D67" s="9" t="n"/>
     </row>
-    <row r="68" ht="15" customHeight="1" s="72">
-      <c r="A68" s="66" t="n"/>
+    <row r="68" ht="15" customHeight="1" s="71">
+      <c r="A68" s="65" t="n"/>
       <c r="C68" s="1" t="n"/>
       <c r="D68" s="9" t="n"/>
     </row>
-    <row r="69" ht="15" customHeight="1" s="72">
+    <row r="69" ht="15" customHeight="1" s="71">
       <c r="A69" s="25" t="n"/>
       <c r="C69" s="1" t="n"/>
       <c r="D69" s="9" t="n"/>
     </row>
-    <row r="70" ht="15" customHeight="1" s="72">
+    <row r="70" ht="15" customHeight="1" s="71">
       <c r="A70" s="26" t="inlineStr">
         <is>
           <t>Analysis of Results</t>
@@ -4410,17 +4409,17 @@
       <c r="C70" s="1" t="n"/>
       <c r="D70" s="9" t="n"/>
     </row>
-    <row r="71" ht="15" customHeight="1" s="72">
+    <row r="71" ht="15" customHeight="1" s="71">
       <c r="A71" s="35" t="n"/>
       <c r="C71" s="1" t="n"/>
       <c r="D71" s="9" t="n"/>
     </row>
-    <row r="72" ht="15" customHeight="1" s="72">
+    <row r="72" ht="15" customHeight="1" s="71">
       <c r="A72" s="27" t="n"/>
       <c r="C72" s="1" t="n"/>
       <c r="D72" s="9" t="n"/>
     </row>
-    <row r="73" ht="15" customHeight="1" s="72">
+    <row r="73" ht="15" customHeight="1" s="71">
       <c r="A73" s="26" t="inlineStr">
         <is>
           <t>Suggestions for Change/Improvement</t>
@@ -4429,17 +4428,17 @@
       <c r="C73" s="1" t="n"/>
       <c r="D73" s="9" t="n"/>
     </row>
-    <row r="74" ht="15" customHeight="1" s="72">
+    <row r="74" ht="15" customHeight="1" s="71">
       <c r="A74" s="36" t="n"/>
       <c r="C74" s="1" t="n"/>
       <c r="D74" s="9" t="n"/>
     </row>
-    <row r="75" ht="15" customHeight="1" s="72">
+    <row r="75" ht="15" customHeight="1" s="71">
       <c r="A75" s="27" t="n"/>
       <c r="C75" s="1" t="n"/>
       <c r="D75" s="9" t="n"/>
     </row>
-    <row r="76" ht="14.45" customHeight="1" s="72">
+    <row r="76" ht="14.45" customHeight="1" s="71">
       <c r="A76" s="26" t="inlineStr">
         <is>
           <t>Action Plans - Implementation Date: dd mm 2022</t>
@@ -4448,17 +4447,17 @@
       <c r="C76" s="1" t="n"/>
       <c r="D76" s="9" t="n"/>
     </row>
-    <row r="77" ht="15" customHeight="1" s="72">
+    <row r="77" ht="15" customHeight="1" s="71">
       <c r="A77" s="36" t="n"/>
       <c r="C77" s="1" t="n"/>
       <c r="D77" s="9" t="n"/>
     </row>
-    <row r="78" ht="15" customHeight="1" s="72">
+    <row r="78" ht="15" customHeight="1" s="71">
       <c r="A78" s="27" t="n"/>
       <c r="C78" s="1" t="n"/>
       <c r="D78" s="9" t="n"/>
     </row>
-    <row r="79" ht="15" customHeight="1" s="72">
+    <row r="79" ht="15" customHeight="1" s="71">
       <c r="A79" s="26" t="inlineStr">
         <is>
           <t>Conclusion</t>
@@ -4467,17 +4466,17 @@
       <c r="C79" s="1" t="n"/>
       <c r="D79" s="9" t="n"/>
     </row>
-    <row r="80" ht="15" customHeight="1" s="72">
+    <row r="80" ht="15" customHeight="1" s="71">
       <c r="A80" s="37" t="n"/>
       <c r="C80" s="1" t="n"/>
       <c r="D80" s="9" t="n"/>
     </row>
-    <row r="81" ht="15" customHeight="1" s="72">
+    <row r="81" ht="15" customHeight="1" s="71">
       <c r="A81" s="28" t="n"/>
       <c r="C81" s="1" t="n"/>
       <c r="D81" s="9" t="n"/>
     </row>
-    <row r="82" ht="15" customHeight="1" s="72">
+    <row r="82" ht="15" customHeight="1" s="71">
       <c r="A82" s="38" t="inlineStr">
         <is>
           <t>AL's comments on CC's input - Date: dd mm 2022</t>
@@ -4486,17 +4485,17 @@
       <c r="C82" s="1" t="n"/>
       <c r="D82" s="9" t="n"/>
     </row>
-    <row r="83" ht="15" customHeight="1" s="72">
+    <row r="83" ht="15" customHeight="1" s="71">
       <c r="A83" s="54" t="n"/>
       <c r="C83" s="1" t="n"/>
       <c r="D83" s="9" t="n"/>
     </row>
-    <row r="84" ht="15" customHeight="1" s="72">
+    <row r="84" ht="15" customHeight="1" s="71">
       <c r="A84" s="28" t="n"/>
       <c r="C84" s="1" t="n"/>
       <c r="D84" s="9" t="n"/>
     </row>
-    <row r="85" ht="15" customHeight="1" s="72">
+    <row r="85" ht="15" customHeight="1" s="71">
       <c r="A85" s="38" t="inlineStr">
         <is>
           <t>Accreditation Chairman's comments - Date: dd mm 2022</t>
@@ -4505,17 +4504,17 @@
       <c r="C85" s="1" t="n"/>
       <c r="D85" s="9" t="n"/>
     </row>
-    <row r="86" ht="15" customHeight="1" s="72">
+    <row r="86" ht="15" customHeight="1" s="71">
       <c r="A86" s="31" t="n"/>
       <c r="C86" s="1" t="n"/>
       <c r="D86" s="9" t="n"/>
     </row>
-    <row r="87" ht="15" customHeight="1" s="72">
+    <row r="87" ht="15" customHeight="1" s="71">
       <c r="A87" s="28" t="n"/>
       <c r="C87" s="1" t="n"/>
       <c r="D87" s="9" t="n"/>
     </row>
-    <row r="88" ht="30" customHeight="1" s="72">
+    <row r="88" ht="30" customHeight="1" s="71">
       <c r="A88" s="38" t="inlineStr">
         <is>
           <t>Accreditation Committee's Review - Date: dd mm 2022</t>
@@ -4524,17 +4523,17 @@
       <c r="C88" s="1" t="n"/>
       <c r="D88" s="9" t="n"/>
     </row>
-    <row r="89" ht="15" customHeight="1" s="72">
+    <row r="89" ht="15" customHeight="1" s="71">
       <c r="A89" s="31" t="n"/>
       <c r="C89" s="1" t="n"/>
       <c r="D89" s="9" t="n"/>
     </row>
-    <row r="90" ht="15" customHeight="1" s="72">
+    <row r="90" ht="15" customHeight="1" s="71">
       <c r="A90" s="29" t="n"/>
       <c r="C90" s="1" t="n"/>
       <c r="D90" s="9" t="n"/>
     </row>
-    <row r="91" ht="15" customHeight="1" s="72">
+    <row r="91" ht="15" customHeight="1" s="71">
       <c r="A91" s="39" t="inlineStr">
         <is>
           <t>ACA's Approval</t>
@@ -4543,7 +4542,7 @@
       <c r="C91" s="1" t="n"/>
       <c r="D91" s="9" t="n"/>
     </row>
-    <row r="92" ht="15" customHeight="1" s="72">
+    <row r="92" ht="15" customHeight="1" s="71">
       <c r="A92" s="40" t="inlineStr">
         <is>
           <t>Approved o  Approved with changes o  Disapproved o</t>
@@ -4552,12 +4551,12 @@
       <c r="C92" s="1" t="n"/>
       <c r="D92" s="9" t="n"/>
     </row>
-    <row r="93" ht="15" customHeight="1" s="72">
+    <row r="93" ht="15" customHeight="1" s="71">
       <c r="A93" s="41" t="n"/>
       <c r="C93" s="1" t="n"/>
       <c r="D93" s="9" t="n"/>
     </row>
-    <row r="94" ht="15" customHeight="1" s="72">
+    <row r="94" ht="15" customHeight="1" s="71">
       <c r="A94" s="42" t="inlineStr">
         <is>
           <t>Comments, if any:</t>
@@ -4566,17 +4565,17 @@
       <c r="C94" s="1" t="n"/>
       <c r="D94" s="9" t="n"/>
     </row>
-    <row r="95" ht="15" customHeight="1" s="72">
+    <row r="95" ht="15" customHeight="1" s="71">
       <c r="A95" s="42" t="n"/>
       <c r="C95" s="1" t="n"/>
       <c r="D95" s="9" t="n"/>
     </row>
-    <row r="96" ht="15" customHeight="1" s="72">
+    <row r="96" ht="15" customHeight="1" s="71">
       <c r="A96" s="42" t="n"/>
       <c r="C96" s="1" t="n"/>
       <c r="D96" s="9" t="n"/>
     </row>
-    <row r="97" ht="15" customHeight="1" s="72">
+    <row r="97" ht="15" customHeight="1" s="71">
       <c r="A97" s="42" t="inlineStr">
         <is>
           <t>Date:</t>
@@ -4585,61 +4584,61 @@
       <c r="C97" s="1" t="n"/>
       <c r="D97" s="9" t="n"/>
     </row>
-    <row r="98" ht="15" customHeight="1" s="72">
+    <row r="98" ht="15" customHeight="1" s="71">
       <c r="A98" s="43" t="n"/>
       <c r="C98" s="1" t="n"/>
       <c r="D98" s="9" t="n"/>
     </row>
-    <row r="99" ht="15" customHeight="1" s="72">
+    <row r="99" ht="15" customHeight="1" s="71">
       <c r="A99" s="3" t="n"/>
       <c r="C99" s="1" t="n"/>
       <c r="D99" s="9" t="n"/>
     </row>
-    <row r="100" ht="15" customHeight="1" s="72">
+    <row r="100" ht="15" customHeight="1" s="71">
       <c r="C100" s="1" t="n"/>
       <c r="D100" s="9" t="n"/>
     </row>
-    <row r="101" ht="15" customHeight="1" s="72">
+    <row r="101" ht="15" customHeight="1" s="71">
       <c r="C101" s="1" t="n"/>
       <c r="D101" s="9" t="n"/>
     </row>
-    <row r="102" ht="15" customHeight="1" s="72">
+    <row r="102" ht="15" customHeight="1" s="71">
       <c r="C102" s="1" t="n"/>
       <c r="D102" s="9" t="n"/>
     </row>
-    <row r="103" ht="15" customHeight="1" s="72">
+    <row r="103" ht="15" customHeight="1" s="71">
       <c r="C103" s="1" t="n"/>
       <c r="D103" s="9" t="n"/>
     </row>
-    <row r="104" ht="15" customHeight="1" s="72">
+    <row r="104" ht="15" customHeight="1" s="71">
       <c r="C104" s="1" t="n"/>
       <c r="D104" s="9" t="n"/>
     </row>
-    <row r="105" ht="15" customHeight="1" s="72">
+    <row r="105" ht="15" customHeight="1" s="71">
       <c r="C105" s="1" t="n"/>
       <c r="D105" s="9" t="n"/>
     </row>
-    <row r="106" ht="15" customHeight="1" s="72">
+    <row r="106" ht="15" customHeight="1" s="71">
       <c r="C106" s="1" t="n"/>
       <c r="D106" s="9" t="n"/>
     </row>
-    <row r="107" ht="15" customHeight="1" s="72">
+    <row r="107" ht="15" customHeight="1" s="71">
       <c r="C107" s="1" t="n"/>
       <c r="D107" s="9" t="n"/>
     </row>
-    <row r="108" ht="15" customHeight="1" s="72">
+    <row r="108" ht="15" customHeight="1" s="71">
       <c r="C108" s="1" t="n"/>
       <c r="D108" s="9" t="n"/>
     </row>
-    <row r="109" ht="15" customHeight="1" s="72">
+    <row r="109" ht="15" customHeight="1" s="71">
       <c r="C109" s="1" t="n"/>
       <c r="D109" s="9" t="n"/>
     </row>
-    <row r="110" ht="15" customHeight="1" s="72">
+    <row r="110" ht="15" customHeight="1" s="71">
       <c r="C110" s="1" t="n"/>
       <c r="D110" s="9" t="n"/>
     </row>
-    <row r="111" ht="15" customHeight="1" s="72">
+    <row r="111" ht="15" customHeight="1" s="71">
       <c r="C111" s="1" t="n"/>
       <c r="D111" s="9" t="n"/>
     </row>
@@ -4647,35 +4646,35 @@
       <c r="C112" s="1" t="n"/>
       <c r="D112" s="9" t="n"/>
     </row>
-    <row r="113" ht="15" customHeight="1" s="72">
+    <row r="113" ht="15" customHeight="1" s="71">
       <c r="C113" s="1" t="n"/>
       <c r="D113" s="9" t="n"/>
     </row>
-    <row r="114" ht="15.75" customHeight="1" s="72">
+    <row r="114" ht="15.75" customHeight="1" s="71">
       <c r="C114" s="1" t="n"/>
       <c r="D114" s="9" t="n"/>
     </row>
-    <row r="115" ht="18" customHeight="1" s="72">
+    <row r="115" ht="18" customHeight="1" s="71">
       <c r="C115" s="1" t="n"/>
       <c r="D115" s="9" t="n"/>
     </row>
-    <row r="116" ht="15" customHeight="1" s="72">
+    <row r="116" ht="15" customHeight="1" s="71">
       <c r="C116" s="1" t="n"/>
       <c r="D116" s="9" t="n"/>
     </row>
-    <row r="117" ht="15" customHeight="1" s="72">
+    <row r="117" ht="15" customHeight="1" s="71">
       <c r="C117" s="1" t="n"/>
       <c r="D117" s="9" t="n"/>
     </row>
-    <row r="118" ht="15" customHeight="1" s="72">
+    <row r="118" ht="15" customHeight="1" s="71">
       <c r="C118" s="1" t="n"/>
       <c r="D118" s="9" t="n"/>
     </row>
-    <row r="119" ht="15" customHeight="1" s="72">
+    <row r="119" ht="15" customHeight="1" s="71">
       <c r="C119" s="1" t="n"/>
       <c r="D119" s="9" t="n"/>
     </row>
-    <row r="120" ht="15" customHeight="1" s="72">
+    <row r="120" ht="15" customHeight="1" s="71">
       <c r="C120" s="1" t="n"/>
       <c r="D120" s="9" t="n"/>
     </row>
@@ -4849,22 +4848,23 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N271"/>
+  <dimension ref="A1:N161"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="A16" sqref="A16"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="N19" sqref="N19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="12.75"/>
   <cols>
     <col width="73.42578125" customWidth="1" style="5" min="1" max="1"/>
     <col width="6.140625" customWidth="1" style="7" min="2" max="2"/>
+    <col width="9.140625" customWidth="1" style="71" min="3" max="3"/>
     <col width="6.140625" customWidth="1" style="7" min="4" max="4"/>
     <col width="6.140625" customWidth="1" style="7" min="6" max="6"/>
     <col width="6.140625" customWidth="1" style="7" min="8" max="8"/>
     <col width="6.140625" customWidth="1" style="7" min="10" max="10"/>
     <col width="6.140625" customWidth="1" style="7" min="12" max="12"/>
-    <col width="13.140625" customWidth="1" style="72" min="13" max="13"/>
+    <col width="13.140625" customWidth="1" style="71" min="13" max="13"/>
   </cols>
   <sheetData>
     <row r="1" ht="17.25" customFormat="1" customHeight="1" s="2">
@@ -4884,7 +4884,7 @@
       <c r="K1" s="15" t="n"/>
       <c r="L1" s="14" t="n"/>
     </row>
-    <row r="2" ht="15.75" customHeight="1" s="72">
+    <row r="2" ht="15.75" customHeight="1" s="71">
       <c r="A2" s="16" t="inlineStr">
         <is>
           <t>EEXXXX XXXX</t>
@@ -4902,7 +4902,7 @@
       <c r="K2" s="2" t="n"/>
       <c r="L2" s="8" t="n"/>
     </row>
-    <row r="3" ht="15" customHeight="1" s="72">
+    <row r="3" ht="15" customHeight="1" s="71">
       <c r="A3" s="16" t="inlineStr">
         <is>
           <t>Cohort Size:</t>
@@ -4924,7 +4924,7 @@
       <c r="K3" s="2" t="n"/>
       <c r="L3" s="8" t="n"/>
     </row>
-    <row r="4" ht="15" customHeight="1" s="72">
+    <row r="4" ht="15" customHeight="1" s="71">
       <c r="A4" s="16" t="inlineStr">
         <is>
           <t>No. of Survey Responses:</t>
@@ -4944,13 +4944,13 @@
       <c r="K4" s="2" t="n"/>
       <c r="L4" s="8" t="n"/>
     </row>
-    <row r="5" ht="15" customHeight="1" s="72">
+    <row r="5" ht="15" customHeight="1" s="71">
       <c r="A5" s="16" t="inlineStr">
         <is>
           <t>Response Percentage:</t>
         </is>
       </c>
-      <c r="B5" s="71">
+      <c r="B5" s="70">
         <f>B4/B3</f>
         <v/>
       </c>
@@ -4964,14 +4964,14 @@
       <c r="K5" s="2" t="n"/>
       <c r="L5" s="8" t="n"/>
     </row>
-    <row r="6" ht="15" customHeight="1" s="72">
+    <row r="6" ht="15" customHeight="1" s="71">
       <c r="A6" s="30" t="inlineStr">
         <is>
           <t>(please scroll to the bottom for input of comments)</t>
         </is>
       </c>
-      <c r="B6" s="71" t="n"/>
-      <c r="C6" s="71" t="n"/>
+      <c r="B6" s="70" t="n"/>
+      <c r="C6" s="70" t="n"/>
       <c r="D6" s="8" t="n"/>
       <c r="E6" s="2" t="n"/>
       <c r="F6" s="8" t="n"/>
@@ -4996,42 +4996,42 @@
       <c r="K7" s="2" t="n"/>
       <c r="L7" s="8" t="n"/>
     </row>
-    <row r="8" ht="45" customHeight="1" s="72">
+    <row r="8" ht="45" customHeight="1" s="71">
       <c r="A8" s="19" t="inlineStr">
         <is>
           <t>Questions and Summary of Survey Results</t>
         </is>
       </c>
-      <c r="B8" s="69" t="inlineStr">
-        <is>
-          <t>Strongly Agree</t>
-        </is>
-      </c>
-      <c r="C8" s="70" t="n"/>
-      <c r="D8" s="69" t="inlineStr">
-        <is>
-          <t>Agree</t>
-        </is>
-      </c>
-      <c r="E8" s="70" t="n"/>
-      <c r="F8" s="69" t="inlineStr">
+      <c r="B8" s="68" t="inlineStr">
+        <is>
+          <t>Strongly Agree</t>
+        </is>
+      </c>
+      <c r="C8" s="69" t="n"/>
+      <c r="D8" s="68" t="inlineStr">
+        <is>
+          <t>Agree</t>
+        </is>
+      </c>
+      <c r="E8" s="69" t="n"/>
+      <c r="F8" s="68" t="inlineStr">
         <is>
           <t>Neutral</t>
         </is>
       </c>
-      <c r="G8" s="70" t="n"/>
-      <c r="H8" s="69" t="inlineStr">
+      <c r="G8" s="69" t="n"/>
+      <c r="H8" s="68" t="inlineStr">
         <is>
           <t>Disagree</t>
         </is>
       </c>
-      <c r="I8" s="70" t="n"/>
-      <c r="J8" s="69" t="inlineStr">
+      <c r="I8" s="69" t="n"/>
+      <c r="J8" s="68" t="inlineStr">
         <is>
           <t>Strongly Disagree</t>
         </is>
       </c>
-      <c r="K8" s="70" t="n"/>
+      <c r="K8" s="69" t="n"/>
       <c r="L8" s="44" t="inlineStr">
         <is>
           <t>Total</t>
@@ -5043,7 +5043,7 @@
         </is>
       </c>
     </row>
-    <row r="9" ht="30" customHeight="1" s="72">
+    <row r="9" ht="30" customHeight="1" s="71">
       <c r="A9" s="20" t="inlineStr">
         <is>
           <t>Q1 - Apply suitable load management techniques to achieve a reliable and sustainable power delivery system.</t>
@@ -5088,12 +5088,12 @@
         <f>(D9+H9+F9+B9+J9)</f>
         <v/>
       </c>
-      <c r="M9" s="67">
+      <c r="M9" s="66">
         <f>C9+E9</f>
         <v/>
       </c>
     </row>
-    <row r="10" ht="15" customHeight="1" s="72">
+    <row r="10" ht="15" customHeight="1" s="71">
       <c r="A10" s="20" t="inlineStr">
         <is>
           <t>Q2 - Able to construct a fair and effective electricity tariff structure.</t>
@@ -5138,12 +5138,12 @@
         <f>(D10+H10+F10+B10+J10)</f>
         <v/>
       </c>
-      <c r="M10" s="67">
+      <c r="M10" s="66">
         <f>C10+E10</f>
         <v/>
       </c>
     </row>
-    <row r="11" ht="30" customHeight="1" s="72">
+    <row r="11" ht="30" customHeight="1" s="71">
       <c r="A11" s="20" t="inlineStr">
         <is>
           <t>Q3 - Analyse the various causes of poor power quality in distribution systems due to switching events.</t>
@@ -5188,12 +5188,12 @@
         <f>(D11+H11+F11+B11+J11)</f>
         <v/>
       </c>
-      <c r="M11" s="67">
+      <c r="M11" s="66">
         <f>C11+E11</f>
         <v/>
       </c>
     </row>
-    <row r="12" ht="30" customHeight="1" s="72">
+    <row r="12" ht="30" customHeight="1" s="71">
       <c r="A12" s="20" t="inlineStr">
         <is>
           <t>Q4 - Able to apply appropriate mitigation techniques to improve power quality in distribution systems (voltage sags/swells).</t>
@@ -5238,12 +5238,12 @@
         <f>(D12+H12+F12+B12+J12)</f>
         <v/>
       </c>
-      <c r="M12" s="67">
+      <c r="M12" s="66">
         <f>C12+E12</f>
         <v/>
       </c>
     </row>
-    <row r="13" ht="30.75" customHeight="1" s="72">
+    <row r="13" ht="30.75" customHeight="1" s="71">
       <c r="A13" s="20" t="inlineStr">
         <is>
           <t>Q5 - Able to apply mitigation techniques to reduce the harmonic distortions in distribution networks.</t>
@@ -5288,12 +5288,12 @@
         <f>(D13+H13+F13+B13+J13)</f>
         <v/>
       </c>
-      <c r="M13" s="67">
+      <c r="M13" s="66">
         <f>C13+E13</f>
         <v/>
       </c>
     </row>
-    <row r="14" ht="30" customHeight="1" s="72">
+    <row r="14" ht="30" customHeight="1" s="71">
       <c r="A14" s="20" t="inlineStr">
         <is>
           <t>Q6 - Able to predict the position of the sun for the purpose of designing renewable solar energy systems.</t>
@@ -5338,12 +5338,12 @@
         <f>(D14+H14+F14+B14+J14)</f>
         <v/>
       </c>
-      <c r="M14" s="67">
+      <c r="M14" s="66">
         <f>C14+E14</f>
         <v/>
       </c>
     </row>
-    <row r="15" ht="30.75" customHeight="1" s="72">
+    <row r="15" ht="30.75" customHeight="1" s="71">
       <c r="A15" s="20" t="inlineStr">
         <is>
           <t>Q7 - Able to estimate the amount of solar insolation and understand how the solar panel can be best aligned for maximum energy collection.</t>
@@ -5388,12 +5388,12 @@
         <f>(D15+H15+F15+B15+J15)</f>
         <v/>
       </c>
-      <c r="M15" s="67">
+      <c r="M15" s="66">
         <f>C15+E15</f>
         <v/>
       </c>
     </row>
-    <row r="16" ht="30" customHeight="1" s="72">
+    <row r="16" ht="30" customHeight="1" s="71">
       <c r="A16" s="20" t="inlineStr">
         <is>
           <t>Q8 - Able to compute the current-voltage characteristics of solar cells, modules and arrays and apply mitigation techniques to shading problems.</t>
@@ -5438,12 +5438,12 @@
         <f>(D16+H16+F16+B16+J16)</f>
         <v/>
       </c>
-      <c r="M16" s="67">
+      <c r="M16" s="66">
         <f>C16+E16</f>
         <v/>
       </c>
     </row>
-    <row r="17" ht="30" customHeight="1" s="72">
+    <row r="17" ht="30" customHeight="1" s="71">
       <c r="A17" s="20" t="inlineStr">
         <is>
           <t>Q9 - Able to predict the power and energy of renewable wind resource at various wind speeds, temperatures and altitudes.</t>
@@ -5488,12 +5488,12 @@
         <f>(D17+H17+F17+B17+J17)</f>
         <v/>
       </c>
-      <c r="M17" s="67">
+      <c r="M17" s="66">
         <f>C17+E17</f>
         <v/>
       </c>
     </row>
-    <row r="18" ht="30" customHeight="1" s="72">
+    <row r="18" ht="30" customHeight="1" s="71">
       <c r="A18" s="20" t="inlineStr">
         <is>
           <t>Q10 - Able to understand the basic design of wind turbines and to predict the generated wind power injected into the grid.</t>
@@ -5538,12 +5538,12 @@
         <f>(D18+H18+F18+B18+J18)</f>
         <v/>
       </c>
-      <c r="M18" s="67">
+      <c r="M18" s="66">
         <f>C18+E18</f>
         <v/>
       </c>
     </row>
-    <row r="19" ht="30" customHeight="1" s="72">
+    <row r="19" ht="30" customHeight="1" s="71">
       <c r="A19" s="20" t="inlineStr">
         <is>
           <t>Q11 - Appreciate the need for lifelong learning and self-education in the design and operation of distribution systems with renewable energy generations.</t>
@@ -5588,7 +5588,7 @@
         <f>(D19+H19+F19+B19+J19)</f>
         <v/>
       </c>
-      <c r="M19" s="67">
+      <c r="M19" s="66">
         <f>C19+E19</f>
         <v/>
       </c>
@@ -5597,218 +5597,218 @@
         <v/>
       </c>
     </row>
-    <row r="21" ht="15" customHeight="1" s="72">
+    <row r="21" ht="15" customHeight="1" s="71">
       <c r="A21" s="23" t="inlineStr">
         <is>
           <t>COMMENTS ON THE COURSE:</t>
         </is>
       </c>
     </row>
-    <row r="22" ht="15" customHeight="1" s="72">
-      <c r="A22" s="62" t="inlineStr">
+    <row r="22" ht="15" customHeight="1" s="71">
+      <c r="A22" s="61" t="inlineStr">
         <is>
           <t>(a) Strengths</t>
         </is>
       </c>
     </row>
-    <row r="23" ht="15" customHeight="1" s="72">
-      <c r="A23" s="63" t="inlineStr">
+    <row r="23" ht="15" customHeight="1" s="71">
+      <c r="A23" s="62" t="inlineStr">
         <is>
           <t>.</t>
         </is>
       </c>
     </row>
-    <row r="24" ht="15" customHeight="1" s="72">
-      <c r="A24" s="63" t="inlineStr">
+    <row r="24" ht="15" customHeight="1" s="71">
+      <c r="A24" s="62" t="inlineStr">
         <is>
           <t>.</t>
         </is>
       </c>
     </row>
-    <row r="25" ht="15" customHeight="1" s="72">
-      <c r="A25" s="63" t="inlineStr">
+    <row r="25" ht="15" customHeight="1" s="71">
+      <c r="A25" s="62" t="inlineStr">
         <is>
           <t xml:space="preserve">comments </t>
         </is>
       </c>
     </row>
-    <row r="26" ht="15" customHeight="1" s="72">
-      <c r="A26" s="63" t="inlineStr">
+    <row r="26" ht="15" customHeight="1" s="71">
+      <c r="A26" s="62" t="inlineStr">
         <is>
           <t>.</t>
         </is>
       </c>
     </row>
-    <row r="27" ht="15" customHeight="1" s="72">
-      <c r="A27" s="63" t="inlineStr">
+    <row r="27" ht="15" customHeight="1" s="71">
+      <c r="A27" s="62" t="inlineStr">
         <is>
           <t>testing</t>
         </is>
       </c>
     </row>
-    <row r="28" ht="15" customHeight="1" s="72">
-      <c r="A28" s="63" t="inlineStr">
+    <row r="28" ht="15" customHeight="1" s="71">
+      <c r="A28" s="62" t="inlineStr">
         <is>
           <t>testing 2:07pm</t>
         </is>
       </c>
     </row>
-    <row r="29" ht="15" customHeight="1" s="72">
-      <c r="A29" s="63" t="inlineStr">
+    <row r="29" ht="15" customHeight="1" s="71">
+      <c r="A29" s="62" t="inlineStr">
         <is>
           <t>.</t>
         </is>
       </c>
     </row>
-    <row r="30" ht="15" customHeight="1" s="72">
-      <c r="A30" s="63" t="inlineStr">
+    <row r="30" ht="15" customHeight="1" s="71">
+      <c r="A30" s="62" t="inlineStr">
         <is>
           <t>.</t>
         </is>
       </c>
     </row>
-    <row r="31" ht="15" customHeight="1" s="72">
-      <c r="A31" s="63" t="inlineStr">
+    <row r="31" ht="15" customHeight="1" s="71">
+      <c r="A31" s="62" t="inlineStr">
         <is>
           <t xml:space="preserve">comments </t>
         </is>
       </c>
     </row>
-    <row r="32" ht="15" customHeight="1" s="72">
-      <c r="A32" s="63" t="inlineStr">
+    <row r="32" ht="15" customHeight="1" s="71">
+      <c r="A32" s="62" t="inlineStr">
         <is>
           <t>.</t>
         </is>
       </c>
     </row>
-    <row r="33" ht="15" customHeight="1" s="72">
-      <c r="A33" s="63" t="inlineStr">
+    <row r="33" ht="15" customHeight="1" s="71">
+      <c r="A33" s="62" t="inlineStr">
         <is>
           <t>testing</t>
         </is>
       </c>
     </row>
-    <row r="34" ht="15" customHeight="1" s="72">
-      <c r="A34" s="63" t="inlineStr">
+    <row r="34" ht="15" customHeight="1" s="71">
+      <c r="A34" s="62" t="inlineStr">
         <is>
           <t>testing 2:07pm</t>
         </is>
       </c>
     </row>
-    <row r="35" ht="15" customHeight="1" s="72">
-      <c r="A35" s="63" t="inlineStr">
+    <row r="35" ht="15" customHeight="1" s="71">
+      <c r="A35" s="62" t="inlineStr">
         <is>
           <t>.</t>
         </is>
       </c>
     </row>
-    <row r="36" ht="15" customHeight="1" s="72">
-      <c r="A36" s="63" t="inlineStr">
+    <row r="36" ht="15" customHeight="1" s="71">
+      <c r="A36" s="62" t="inlineStr">
         <is>
           <t>.</t>
         </is>
       </c>
     </row>
-    <row r="37" ht="15" customHeight="1" s="72">
-      <c r="A37" s="63" t="inlineStr">
+    <row r="37" ht="15" customHeight="1" s="71">
+      <c r="A37" s="62" t="inlineStr">
         <is>
           <t xml:space="preserve">comments </t>
         </is>
       </c>
     </row>
-    <row r="38" ht="15" customHeight="1" s="72">
-      <c r="A38" s="63" t="inlineStr">
+    <row r="38" ht="15" customHeight="1" s="71">
+      <c r="A38" s="62" t="inlineStr">
         <is>
           <t>testing</t>
         </is>
       </c>
     </row>
-    <row r="39" ht="15" customHeight="1" s="72">
-      <c r="A39" s="63" t="inlineStr">
+    <row r="39" ht="15" customHeight="1" s="71">
+      <c r="A39" s="62" t="inlineStr">
         <is>
           <t xml:space="preserve">testing </t>
         </is>
       </c>
     </row>
-    <row r="40" ht="15" customHeight="1" s="72">
-      <c r="A40" s="63" t="inlineStr">
+    <row r="40" ht="15" customHeight="1" s="71">
+      <c r="A40" s="62" t="inlineStr">
         <is>
           <t xml:space="preserve">testing </t>
         </is>
       </c>
     </row>
-    <row r="41" ht="15" customHeight="1" s="72">
-      <c r="A41" s="63" t="inlineStr">
+    <row r="41" ht="15" customHeight="1" s="71">
+      <c r="A41" s="62" t="inlineStr">
         <is>
           <t>.</t>
         </is>
       </c>
     </row>
-    <row r="42" ht="15" customHeight="1" s="72">
-      <c r="A42" s="63" t="inlineStr">
+    <row r="42" ht="15" customHeight="1" s="71">
+      <c r="A42" s="62" t="inlineStr">
         <is>
           <t>.</t>
         </is>
       </c>
     </row>
-    <row r="43" ht="15" customHeight="1" s="72">
-      <c r="A43" s="63" t="inlineStr">
+    <row r="43" ht="15" customHeight="1" s="71">
+      <c r="A43" s="62" t="inlineStr">
         <is>
           <t xml:space="preserve">comments </t>
         </is>
       </c>
     </row>
-    <row r="44" ht="15" customHeight="1" s="72">
-      <c r="A44" s="63" t="inlineStr">
+    <row r="44" ht="15" customHeight="1" s="71">
+      <c r="A44" s="62" t="inlineStr">
         <is>
           <t>testing</t>
         </is>
       </c>
     </row>
-    <row r="45" ht="15" customHeight="1" s="72">
-      <c r="A45" s="63" t="inlineStr">
+    <row r="45" ht="15" customHeight="1" s="71">
+      <c r="A45" s="62" t="inlineStr">
         <is>
           <t xml:space="preserve">testing </t>
         </is>
       </c>
     </row>
-    <row r="46" ht="15" customHeight="1" s="72">
-      <c r="A46" s="63" t="inlineStr">
+    <row r="46" ht="15" customHeight="1" s="71">
+      <c r="A46" s="62" t="inlineStr">
         <is>
           <t xml:space="preserve">testing </t>
         </is>
       </c>
     </row>
-    <row r="47" ht="15" customHeight="1" s="72">
-      <c r="A47" s="63" t="inlineStr">
+    <row r="47" ht="15" customHeight="1" s="71">
+      <c r="A47" s="62" t="inlineStr">
         <is>
           <t>.</t>
         </is>
       </c>
     </row>
-    <row r="48" ht="15" customHeight="1" s="72">
-      <c r="A48" s="63" t="inlineStr">
+    <row r="48" ht="15" customHeight="1" s="71">
+      <c r="A48" s="62" t="inlineStr">
         <is>
           <t>.</t>
         </is>
       </c>
     </row>
-    <row r="49" ht="15" customHeight="1" s="72">
-      <c r="A49" s="63" t="inlineStr">
+    <row r="49" ht="15" customHeight="1" s="71">
+      <c r="A49" s="62" t="inlineStr">
         <is>
           <t>.</t>
         </is>
       </c>
     </row>
-    <row r="50" ht="15" customHeight="1" s="72">
-      <c r="A50" s="63" t="inlineStr">
+    <row r="50" ht="15" customHeight="1" s="71">
+      <c r="A50" s="62" t="inlineStr">
         <is>
           <t>.</t>
         </is>
       </c>
     </row>
-    <row r="51" ht="15" customHeight="1" s="72">
-      <c r="A51" s="63" t="inlineStr">
+    <row r="51" ht="15" customHeight="1" s="71">
+      <c r="A51" s="62" t="inlineStr">
         <is>
           <t xml:space="preserve">comments </t>
         </is>
@@ -5823,8 +5823,8 @@
       <c r="C52" s="1" t="n"/>
       <c r="D52" s="9" t="n"/>
     </row>
-    <row r="53" ht="15" customHeight="1" s="72">
-      <c r="A53" s="62" t="inlineStr">
+    <row r="53" ht="15" customHeight="1" s="71">
+      <c r="A53" s="61" t="inlineStr">
         <is>
           <t>(b) Weaknesses</t>
         </is>
@@ -5832,8 +5832,8 @@
       <c r="C53" s="1" t="n"/>
       <c r="D53" s="9" t="n"/>
     </row>
-    <row r="54" ht="15" customHeight="1" s="72">
-      <c r="A54" s="62" t="inlineStr">
+    <row r="54" ht="15" customHeight="1" s="71">
+      <c r="A54" s="61" t="inlineStr">
         <is>
           <t>.</t>
         </is>
@@ -5841,8 +5841,8 @@
       <c r="C54" s="1" t="n"/>
       <c r="D54" s="9" t="n"/>
     </row>
-    <row r="55" ht="15" customHeight="1" s="72">
-      <c r="A55" s="62" t="inlineStr">
+    <row r="55" ht="15" customHeight="1" s="71">
+      <c r="A55" s="61" t="inlineStr">
         <is>
           <t>testing</t>
         </is>
@@ -5850,8 +5850,8 @@
       <c r="C55" s="1" t="n"/>
       <c r="D55" s="9" t="n"/>
     </row>
-    <row r="56" ht="15" customHeight="1" s="72">
-      <c r="A56" s="62" t="inlineStr">
+    <row r="56" ht="15" customHeight="1" s="71">
+      <c r="A56" s="61" t="inlineStr">
         <is>
           <t>.</t>
         </is>
@@ -5859,8 +5859,8 @@
       <c r="C56" s="1" t="n"/>
       <c r="D56" s="9" t="n"/>
     </row>
-    <row r="57" ht="15" customHeight="1" s="72">
-      <c r="A57" s="62" t="inlineStr">
+    <row r="57" ht="15" customHeight="1" s="71">
+      <c r="A57" s="61" t="inlineStr">
         <is>
           <t>.</t>
         </is>
@@ -5868,8 +5868,8 @@
       <c r="C57" s="1" t="n"/>
       <c r="D57" s="9" t="n"/>
     </row>
-    <row r="58" ht="15" customHeight="1" s="72">
-      <c r="A58" s="62" t="inlineStr">
+    <row r="58" ht="15" customHeight="1" s="71">
+      <c r="A58" s="61" t="inlineStr">
         <is>
           <t xml:space="preserve">comments </t>
         </is>
@@ -5877,8 +5877,8 @@
       <c r="C58" s="1" t="n"/>
       <c r="D58" s="9" t="n"/>
     </row>
-    <row r="59" ht="15" customHeight="1" s="72">
-      <c r="A59" s="62" t="inlineStr">
+    <row r="59" ht="15" customHeight="1" s="71">
+      <c r="A59" s="61" t="inlineStr">
         <is>
           <t>testing</t>
         </is>
@@ -5886,8 +5886,8 @@
       <c r="C59" s="1" t="n"/>
       <c r="D59" s="9" t="n"/>
     </row>
-    <row r="60" ht="15" customHeight="1" s="72">
-      <c r="A60" s="62" t="inlineStr">
+    <row r="60" ht="15" customHeight="1" s="71">
+      <c r="A60" s="61" t="inlineStr">
         <is>
           <t>testing</t>
         </is>
@@ -5895,8 +5895,8 @@
       <c r="C60" s="1" t="n"/>
       <c r="D60" s="9" t="n"/>
     </row>
-    <row r="61" ht="15" customHeight="1" s="72">
-      <c r="A61" s="62" t="inlineStr">
+    <row r="61" ht="15" customHeight="1" s="71">
+      <c r="A61" s="61" t="inlineStr">
         <is>
           <t xml:space="preserve">test </t>
         </is>
@@ -5904,8 +5904,8 @@
       <c r="C61" s="1" t="n"/>
       <c r="D61" s="9" t="n"/>
     </row>
-    <row r="62" ht="15" customHeight="1" s="72">
-      <c r="A62" s="62" t="inlineStr">
+    <row r="62" ht="15" customHeight="1" s="71">
+      <c r="A62" s="61" t="inlineStr">
         <is>
           <t>.</t>
         </is>
@@ -5913,8 +5913,8 @@
       <c r="C62" s="1" t="n"/>
       <c r="D62" s="9" t="n"/>
     </row>
-    <row r="63" ht="15" customHeight="1" s="72">
-      <c r="A63" s="62" t="inlineStr">
+    <row r="63" ht="15" customHeight="1" s="71">
+      <c r="A63" s="61" t="inlineStr">
         <is>
           <t>.</t>
         </is>
@@ -5922,8 +5922,8 @@
       <c r="C63" s="1" t="n"/>
       <c r="D63" s="9" t="n"/>
     </row>
-    <row r="64" ht="15" customHeight="1" s="72">
-      <c r="A64" s="62" t="inlineStr">
+    <row r="64" ht="15" customHeight="1" s="71">
+      <c r="A64" s="61" t="inlineStr">
         <is>
           <t xml:space="preserve">comments </t>
         </is>
@@ -5940,8 +5940,8 @@
       <c r="C65" s="1" t="n"/>
       <c r="D65" s="9" t="n"/>
     </row>
-    <row r="66" ht="15" customHeight="1" s="72">
-      <c r="A66" s="62" t="inlineStr">
+    <row r="66" ht="15" customHeight="1" s="71">
+      <c r="A66" s="61" t="inlineStr">
         <is>
           <t>(c) Other Comments</t>
         </is>
@@ -5949,8 +5949,8 @@
       <c r="C66" s="1" t="n"/>
       <c r="D66" s="9" t="n"/>
     </row>
-    <row r="67" ht="15" customHeight="1" s="72">
-      <c r="A67" s="63" t="inlineStr">
+    <row r="67" ht="15" customHeight="1" s="71">
+      <c r="A67" s="62" t="inlineStr">
         <is>
           <t>testing</t>
         </is>
@@ -5958,8 +5958,8 @@
       <c r="C67" s="1" t="n"/>
       <c r="D67" s="9" t="n"/>
     </row>
-    <row r="68" ht="15" customHeight="1" s="72">
-      <c r="A68" s="63" t="inlineStr">
+    <row r="68" ht="15" customHeight="1" s="71">
+      <c r="A68" s="62" t="inlineStr">
         <is>
           <t xml:space="preserve">test </t>
         </is>
@@ -5967,8 +5967,8 @@
       <c r="C68" s="1" t="n"/>
       <c r="D68" s="9" t="n"/>
     </row>
-    <row r="69" ht="15" customHeight="1" s="72">
-      <c r="A69" s="63" t="inlineStr">
+    <row r="69" ht="15" customHeight="1" s="71">
+      <c r="A69" s="62" t="inlineStr">
         <is>
           <t>.</t>
         </is>
@@ -5976,8 +5976,8 @@
       <c r="C69" s="1" t="n"/>
       <c r="D69" s="9" t="n"/>
     </row>
-    <row r="70" ht="15" customHeight="1" s="72">
-      <c r="A70" s="63" t="inlineStr">
+    <row r="70" ht="15" customHeight="1" s="71">
+      <c r="A70" s="62" t="inlineStr">
         <is>
           <t>.</t>
         </is>
@@ -5985,8 +5985,8 @@
       <c r="C70" s="1" t="n"/>
       <c r="D70" s="9" t="n"/>
     </row>
-    <row r="71" ht="15" customHeight="1" s="72">
-      <c r="A71" s="63" t="inlineStr">
+    <row r="71" ht="15" customHeight="1" s="71">
+      <c r="A71" s="62" t="inlineStr">
         <is>
           <t xml:space="preserve">comments </t>
         </is>
@@ -5994,348 +5994,271 @@
       <c r="C71" s="1" t="n"/>
       <c r="D71" s="9" t="n"/>
     </row>
-    <row r="72" ht="15" customHeight="1" s="72">
-      <c r="A72" s="24" t="inlineStr">
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t xml:space="preserve">comments </t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t xml:space="preserve">comments </t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t xml:space="preserve">comments </t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
         <is>
           <t>testing</t>
         </is>
       </c>
-      <c r="C72" s="1" t="n"/>
-      <c r="D72" s="9" t="n"/>
-    </row>
-    <row r="73" ht="15" customHeight="1" s="72">
-      <c r="A73" s="33" t="inlineStr">
-        <is>
-          <t>[Area Lead (AL) to complete below]</t>
-        </is>
-      </c>
-      <c r="C73" s="1" t="n"/>
-      <c r="D73" s="9" t="n"/>
-    </row>
-    <row r="74" ht="30" customHeight="1" s="72">
-      <c r="A74" s="32" t="inlineStr">
-        <is>
-          <t>Below (pink shaded) for Course Coordinator (CC) to complete. 
-Please also read your students’ comments above.</t>
-        </is>
-      </c>
-      <c r="C74" s="1" t="n"/>
-      <c r="D74" s="9" t="n"/>
-    </row>
-    <row r="75" ht="15" customHeight="1" s="72">
-      <c r="A75" s="34" t="inlineStr">
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
         <is>
           <t>testing</t>
         </is>
       </c>
-      <c r="C75" s="1" t="n"/>
-      <c r="D75" s="9" t="n"/>
-    </row>
-    <row r="76" ht="15" customHeight="1" s="72">
-      <c r="A76" s="25" t="inlineStr">
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>testing</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
         <is>
           <t xml:space="preserve">testing </t>
         </is>
       </c>
-      <c r="C76" s="1" t="n"/>
-      <c r="D76" s="9" t="n"/>
-    </row>
-    <row r="77" ht="15" customHeight="1" s="72">
-      <c r="A77" s="26" t="inlineStr">
-        <is>
-          <t>Analysis of Results</t>
-        </is>
-      </c>
-      <c r="C77" s="1" t="n"/>
-      <c r="D77" s="9" t="n"/>
-    </row>
-    <row r="78" ht="15" customHeight="1" s="72">
-      <c r="A78" s="35" t="inlineStr">
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
         <is>
           <t>testing</t>
         </is>
       </c>
-      <c r="C78" s="1" t="n"/>
-      <c r="D78" s="9" t="n"/>
-    </row>
-    <row r="79" ht="15" customHeight="1" s="72">
-      <c r="A79" s="27" t="inlineStr">
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
         <is>
           <t>testing 2:07pm</t>
         </is>
       </c>
-      <c r="C79" s="1" t="n"/>
-      <c r="D79" s="9" t="n"/>
-    </row>
-    <row r="80" ht="15" customHeight="1" s="72">
-      <c r="A80" s="26" t="inlineStr">
-        <is>
-          <t>Suggestions for Change/Improvement</t>
-        </is>
-      </c>
-      <c r="C80" s="1" t="n"/>
-      <c r="D80" s="9" t="n"/>
-    </row>
-    <row r="81" ht="15" customHeight="1" s="72">
-      <c r="A81" s="36" t="inlineStr">
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
         <is>
           <t xml:space="preserve">testing </t>
         </is>
       </c>
-      <c r="C81" s="1" t="n"/>
-      <c r="D81" s="9" t="n"/>
-    </row>
-    <row r="82" ht="15" customHeight="1" s="72">
-      <c r="A82" s="27" t="inlineStr">
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
         <is>
           <t xml:space="preserve">test </t>
         </is>
       </c>
-      <c r="C82" s="1" t="n"/>
-      <c r="D82" s="9" t="n"/>
-    </row>
-    <row r="83" ht="15" customHeight="1" s="72">
-      <c r="A83" s="26" t="inlineStr">
-        <is>
-          <t>Action Plans - Implementation Date: dd mm 2022</t>
-        </is>
-      </c>
-      <c r="C83" s="1" t="n"/>
-      <c r="D83" s="9" t="n"/>
-    </row>
-    <row r="84" ht="15" customHeight="1" s="72">
-      <c r="A84" s="36" t="inlineStr">
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
         <is>
           <t>.</t>
         </is>
       </c>
-      <c r="C84" s="1" t="n"/>
-      <c r="D84" s="9" t="n"/>
-    </row>
-    <row r="85" ht="15" customHeight="1" s="72">
-      <c r="A85" s="27" t="inlineStr">
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
         <is>
           <t>.</t>
         </is>
       </c>
-      <c r="C85" s="1" t="n"/>
-      <c r="D85" s="9" t="n"/>
-    </row>
-    <row r="86" ht="15" customHeight="1" s="72">
-      <c r="A86" s="26" t="inlineStr">
-        <is>
-          <t>Conclusion</t>
-        </is>
-      </c>
-      <c r="C86" s="1" t="n"/>
-      <c r="D86" s="9" t="n"/>
-    </row>
-    <row r="87" ht="15" customHeight="1" s="72">
-      <c r="A87" s="37" t="inlineStr">
+    </row>
+    <row r="92">
+      <c r="A92" t="inlineStr">
         <is>
           <t>.</t>
         </is>
       </c>
-      <c r="C87" s="1" t="n"/>
-      <c r="D87" s="9" t="n"/>
-    </row>
-    <row r="88" ht="15" customHeight="1" s="72">
-      <c r="A88" s="28" t="inlineStr">
+    </row>
+    <row r="93">
+      <c r="A93" t="inlineStr">
         <is>
           <t>.</t>
         </is>
       </c>
-      <c r="C88" s="1" t="n"/>
-      <c r="D88" s="9" t="n"/>
-    </row>
-    <row r="89" ht="15" customHeight="1" s="72">
-      <c r="A89" s="38" t="inlineStr">
-        <is>
-          <t>AL's comments on CC's input - Date: dd mm 2022</t>
-        </is>
-      </c>
-      <c r="C89" s="1" t="n"/>
-      <c r="D89" s="9" t="n"/>
-    </row>
-    <row r="90" ht="15" customHeight="1" s="72">
-      <c r="A90" s="61" t="inlineStr">
+    </row>
+    <row r="94">
+      <c r="A94" t="inlineStr">
         <is>
           <t>.</t>
         </is>
       </c>
-      <c r="C90" s="1" t="n"/>
-      <c r="D90" s="9" t="n"/>
-    </row>
-    <row r="91" ht="15" customHeight="1" s="72">
-      <c r="A91" s="28" t="inlineStr">
+    </row>
+    <row r="95">
+      <c r="A95" t="inlineStr">
         <is>
           <t>.</t>
         </is>
       </c>
-      <c r="C91" s="1" t="n"/>
-      <c r="D91" s="9" t="n"/>
-    </row>
-    <row r="92" ht="15" customHeight="1" s="72">
-      <c r="A92" s="38" t="inlineStr">
-        <is>
-          <t>Accreditation Chairman's comments - Date: dd mm 2022</t>
-        </is>
-      </c>
-      <c r="C92" s="1" t="n"/>
-      <c r="D92" s="9" t="n"/>
-    </row>
-    <row r="93" ht="15" customHeight="1" s="72">
-      <c r="A93" s="31" t="inlineStr">
+    </row>
+    <row r="96">
+      <c r="A96" t="inlineStr">
         <is>
           <t xml:space="preserve">comments </t>
         </is>
       </c>
-      <c r="C93" s="1" t="n"/>
-      <c r="D93" s="9" t="n"/>
-    </row>
-    <row r="94" ht="15" customHeight="1" s="72">
-      <c r="A94" s="28" t="inlineStr">
+    </row>
+    <row r="97">
+      <c r="A97" t="inlineStr">
         <is>
           <t xml:space="preserve">comments </t>
         </is>
       </c>
-      <c r="C94" s="1" t="n"/>
-      <c r="D94" s="9" t="n"/>
-    </row>
-    <row r="95" ht="15" customHeight="1" s="72">
-      <c r="A95" s="38" t="inlineStr">
-        <is>
-          <t>Accreditation Committee's Review - Date: dd mm 2022</t>
-        </is>
-      </c>
-      <c r="C95" s="1" t="n"/>
-      <c r="D95" s="9" t="n"/>
-    </row>
-    <row r="96" ht="15" customHeight="1" s="72">
-      <c r="A96" s="31" t="inlineStr">
+    </row>
+    <row r="98">
+      <c r="A98" t="inlineStr">
         <is>
           <t xml:space="preserve">comments </t>
         </is>
       </c>
-      <c r="C96" s="1" t="n"/>
-      <c r="D96" s="9" t="n"/>
-    </row>
-    <row r="97">
-      <c r="A97" s="29" t="inlineStr">
+    </row>
+    <row r="99">
+      <c r="A99" t="inlineStr">
         <is>
           <t>.</t>
         </is>
       </c>
-      <c r="C97" s="1" t="n"/>
-      <c r="D97" s="9" t="n"/>
-    </row>
-    <row r="98" ht="15" customHeight="1" s="72">
-      <c r="A98" s="39" t="inlineStr">
-        <is>
-          <t>ACA's Approval</t>
-        </is>
-      </c>
-      <c r="C98" s="1" t="n"/>
-      <c r="D98" s="9" t="n"/>
-    </row>
-    <row r="99" ht="15.75" customHeight="1" s="72">
-      <c r="A99" s="40" t="inlineStr">
-        <is>
-          <t>Approved o  Approved with changes o  Disapproved o</t>
-        </is>
-      </c>
-      <c r="C99" s="1" t="n"/>
-      <c r="D99" s="9" t="n"/>
-    </row>
-    <row r="100" ht="18" customHeight="1" s="72">
-      <c r="A100" s="41" t="inlineStr">
+    </row>
+    <row r="100">
+      <c r="A100" t="inlineStr">
         <is>
           <t>testing</t>
         </is>
       </c>
-      <c r="C100" s="1" t="n"/>
-      <c r="D100" s="9" t="n"/>
-    </row>
-    <row r="101" ht="15" customHeight="1" s="72">
-      <c r="A101" s="42" t="inlineStr">
-        <is>
-          <t>Comments, if any:</t>
-        </is>
-      </c>
-      <c r="C101" s="1" t="n"/>
-      <c r="D101" s="9" t="n"/>
-    </row>
-    <row r="102" ht="15" customHeight="1" s="72">
-      <c r="A102" s="42" t="inlineStr">
+    </row>
+    <row r="101">
+      <c r="A101" t="inlineStr">
         <is>
           <t>testing</t>
         </is>
       </c>
-      <c r="C102" s="1" t="n"/>
-      <c r="D102" s="9" t="n"/>
-    </row>
-    <row r="103" ht="15" customHeight="1" s="72">
-      <c r="A103" s="42" t="inlineStr">
+    </row>
+    <row r="102">
+      <c r="A102" t="inlineStr">
         <is>
           <t>testing</t>
         </is>
       </c>
-      <c r="C103" s="1" t="n"/>
-      <c r="D103" s="9" t="n"/>
-    </row>
-    <row r="104" ht="15" customHeight="1" s="72">
-      <c r="A104" s="42" t="inlineStr">
-        <is>
-          <t>Date:</t>
-        </is>
-      </c>
-      <c r="C104" s="1" t="n"/>
-      <c r="D104" s="9" t="n"/>
-    </row>
-    <row r="105" ht="15" customHeight="1" s="72">
-      <c r="A105" s="43" t="inlineStr">
+    </row>
+    <row r="103">
+      <c r="A103" t="inlineStr">
         <is>
           <t xml:space="preserve">testing </t>
         </is>
       </c>
-      <c r="C105" s="1" t="n"/>
-      <c r="D105" s="9" t="n"/>
+    </row>
+    <row r="104">
+      <c r="A104" t="inlineStr">
+        <is>
+          <t>testing</t>
+        </is>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="inlineStr">
+        <is>
+          <t>testing 2:07pm</t>
+        </is>
+      </c>
     </row>
     <row r="106">
-      <c r="A106" s="3" t="inlineStr">
-        <is>
-          <t>testing</t>
-        </is>
-      </c>
-      <c r="C106" s="1" t="n"/>
-      <c r="D106" s="9" t="n"/>
+      <c r="A106" t="inlineStr">
+        <is>
+          <t xml:space="preserve">testing </t>
+        </is>
+      </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>testing 2:07pm</t>
-        </is>
-      </c>
-      <c r="C107" s="1" t="n"/>
-      <c r="D107" s="9" t="n"/>
+          <t xml:space="preserve">test </t>
+        </is>
+      </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t xml:space="preserve">testing </t>
-        </is>
-      </c>
-      <c r="C108" s="1" t="n"/>
-      <c r="D108" s="9" t="n"/>
+          <t>.</t>
+        </is>
+      </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t xml:space="preserve">test </t>
-        </is>
-      </c>
-      <c r="C109" s="1" t="n"/>
-      <c r="D109" s="9" t="n"/>
+          <t>.</t>
+        </is>
+      </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
@@ -6343,8 +6266,6 @@
           <t>.</t>
         </is>
       </c>
-      <c r="C110" s="1" t="n"/>
-      <c r="D110" s="9" t="n"/>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
@@ -6352,8 +6273,6 @@
           <t>.</t>
         </is>
       </c>
-      <c r="C111" s="1" t="n"/>
-      <c r="D111" s="9" t="n"/>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
@@ -6361,8 +6280,6 @@
           <t>.</t>
         </is>
       </c>
-      <c r="C112" s="1" t="n"/>
-      <c r="D112" s="9" t="n"/>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
@@ -6370,26 +6287,20 @@
           <t>.</t>
         </is>
       </c>
-      <c r="C113" s="1" t="n"/>
-      <c r="D113" s="9" t="n"/>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>.</t>
-        </is>
-      </c>
-      <c r="C114" s="1" t="n"/>
-      <c r="D114" s="9" t="n"/>
+          <t xml:space="preserve">comments </t>
+        </is>
+      </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>.</t>
-        </is>
-      </c>
-      <c r="C115" s="1" t="n"/>
-      <c r="D115" s="9" t="n"/>
+          <t xml:space="preserve">comments </t>
+        </is>
+      </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
@@ -6397,35 +6308,27 @@
           <t xml:space="preserve">comments </t>
         </is>
       </c>
-      <c r="C116" s="1" t="n"/>
-      <c r="D116" s="9" t="n"/>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t xml:space="preserve">comments </t>
-        </is>
-      </c>
-      <c r="C117" s="1" t="n"/>
-      <c r="D117" s="9" t="n"/>
+          <t>.</t>
+        </is>
+      </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t xml:space="preserve">comments </t>
-        </is>
-      </c>
-      <c r="C118" s="1" t="n"/>
-      <c r="D118" s="9" t="n"/>
+          <t>testing</t>
+        </is>
+      </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>.</t>
-        </is>
-      </c>
-      <c r="C119" s="1" t="n"/>
-      <c r="D119" s="9" t="n"/>
+          <t>testing</t>
+        </is>
+      </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
@@ -6433,17 +6336,13 @@
           <t>testing</t>
         </is>
       </c>
-      <c r="C120" s="1" t="n"/>
-      <c r="D120" s="9" t="n"/>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>testing</t>
-        </is>
-      </c>
-      <c r="C121" s="1" t="n"/>
-      <c r="D121" s="9" t="n"/>
+          <t xml:space="preserve">testing </t>
+        </is>
+      </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
@@ -6451,53 +6350,41 @@
           <t>testing</t>
         </is>
       </c>
-      <c r="C122" s="1" t="n"/>
-      <c r="D122" s="9" t="n"/>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t xml:space="preserve">testing </t>
-        </is>
-      </c>
-      <c r="C123" s="1" t="n"/>
-      <c r="D123" s="9" t="n"/>
+          <t>testing 2:07pm</t>
+        </is>
+      </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>testing</t>
-        </is>
-      </c>
-      <c r="C124" s="1" t="n"/>
-      <c r="D124" s="9" t="n"/>
+          <t xml:space="preserve">testing </t>
+        </is>
+      </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>testing 2:07pm</t>
-        </is>
-      </c>
-      <c r="C125" s="1" t="n"/>
-      <c r="D125" s="9" t="n"/>
+          <t xml:space="preserve">test </t>
+        </is>
+      </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t xml:space="preserve">testing </t>
-        </is>
-      </c>
-      <c r="C126" s="1" t="n"/>
-      <c r="D126" s="9" t="n"/>
+          <t>.</t>
+        </is>
+      </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t xml:space="preserve">test </t>
-        </is>
-      </c>
-      <c r="C127" s="1" t="n"/>
-      <c r="D127" s="9" t="n"/>
+          <t>.</t>
+        </is>
+      </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
@@ -6505,8 +6392,6 @@
           <t>.</t>
         </is>
       </c>
-      <c r="C128" s="1" t="n"/>
-      <c r="D128" s="9" t="n"/>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
@@ -6514,8 +6399,6 @@
           <t>.</t>
         </is>
       </c>
-      <c r="C129" s="1" t="n"/>
-      <c r="D129" s="9" t="n"/>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
@@ -6523,8 +6406,6 @@
           <t>.</t>
         </is>
       </c>
-      <c r="C130" s="1" t="n"/>
-      <c r="D130" s="9" t="n"/>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
@@ -6532,26 +6413,20 @@
           <t>.</t>
         </is>
       </c>
-      <c r="C131" s="1" t="n"/>
-      <c r="D131" s="9" t="n"/>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>.</t>
-        </is>
-      </c>
-      <c r="C132" s="1" t="n"/>
-      <c r="D132" s="9" t="n"/>
+          <t xml:space="preserve">comments </t>
+        </is>
+      </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>.</t>
-        </is>
-      </c>
-      <c r="C133" s="1" t="n"/>
-      <c r="D133" s="9" t="n"/>
+          <t xml:space="preserve">comments </t>
+        </is>
+      </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
@@ -6559,35 +6434,27 @@
           <t xml:space="preserve">comments </t>
         </is>
       </c>
-      <c r="C134" s="1" t="n"/>
-      <c r="D134" s="9" t="n"/>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t xml:space="preserve">comments </t>
-        </is>
-      </c>
-      <c r="C135" s="1" t="n"/>
-      <c r="D135" s="9" t="n"/>
+          <t>.</t>
+        </is>
+      </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t xml:space="preserve">comments </t>
-        </is>
-      </c>
-      <c r="C136" s="1" t="n"/>
-      <c r="D136" s="9" t="n"/>
+          <t>testing</t>
+        </is>
+      </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>.</t>
-        </is>
-      </c>
-      <c r="C137" s="1" t="n"/>
-      <c r="D137" s="9" t="n"/>
+          <t>testing</t>
+        </is>
+      </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
@@ -6595,13 +6462,11 @@
           <t>testing</t>
         </is>
       </c>
-      <c r="C138" s="1" t="n"/>
-      <c r="D138" s="9" t="n"/>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>testing</t>
+          <t xml:space="preserve">testing </t>
         </is>
       </c>
     </row>
@@ -6615,35 +6480,35 @@
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t xml:space="preserve">testing </t>
+          <t>testing 2:07pm</t>
         </is>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>testing</t>
+          <t xml:space="preserve">testing </t>
         </is>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>testing 2:07pm</t>
+          <t xml:space="preserve">test </t>
         </is>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t xml:space="preserve">testing </t>
+          <t>.</t>
         </is>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t xml:space="preserve">test </t>
+          <t>.</t>
         </is>
       </c>
     </row>
@@ -6678,14 +6543,14 @@
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>.</t>
+          <t xml:space="preserve">comments </t>
         </is>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>.</t>
+          <t xml:space="preserve">comments </t>
         </is>
       </c>
     </row>
@@ -6699,831 +6564,61 @@
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t xml:space="preserve">comments </t>
-        </is>
-      </c>
-    </row>
-    <row r="154" customFormat="1" s="7">
-      <c r="A154" s="5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">comments </t>
-        </is>
-      </c>
-    </row>
-    <row r="155" customFormat="1" s="7">
-      <c r="A155" s="5" t="inlineStr">
-        <is>
           <t>.</t>
         </is>
       </c>
     </row>
-    <row r="156" customFormat="1" s="7">
-      <c r="A156" s="5" t="inlineStr">
+    <row r="154">
+      <c r="A154" t="inlineStr">
         <is>
           <t>testing</t>
         </is>
       </c>
     </row>
-    <row r="157" customFormat="1" s="7">
-      <c r="A157" s="5" t="inlineStr">
+    <row r="155">
+      <c r="A155" t="inlineStr">
         <is>
           <t>testing</t>
         </is>
       </c>
     </row>
-    <row r="158" customFormat="1" s="7">
-      <c r="A158" s="5" t="inlineStr">
+    <row r="156">
+      <c r="A156" t="inlineStr">
         <is>
           <t>testing</t>
         </is>
       </c>
     </row>
-    <row r="159" customFormat="1" s="7">
-      <c r="A159" s="5" t="inlineStr">
+    <row r="157">
+      <c r="A157" t="inlineStr">
         <is>
           <t xml:space="preserve">testing </t>
         </is>
       </c>
     </row>
-    <row r="160" customFormat="1" s="7">
-      <c r="A160" s="5" t="inlineStr">
+    <row r="158">
+      <c r="A158" t="inlineStr">
         <is>
           <t>testing</t>
         </is>
       </c>
     </row>
-    <row r="161" customFormat="1" s="7">
-      <c r="A161" s="5" t="inlineStr">
+    <row r="159">
+      <c r="A159" t="inlineStr">
         <is>
           <t>testing 2:07pm</t>
         </is>
       </c>
     </row>
-    <row r="162" customFormat="1" s="7">
-      <c r="A162" s="5" t="inlineStr">
+    <row r="160">
+      <c r="A160" t="inlineStr">
         <is>
           <t xml:space="preserve">testing </t>
         </is>
       </c>
     </row>
-    <row r="163" customFormat="1" s="7">
-      <c r="A163" s="5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">test </t>
-        </is>
-      </c>
-    </row>
-    <row r="164" customFormat="1" s="7">
-      <c r="A164" s="5" t="inlineStr">
-        <is>
-          <t>.</t>
-        </is>
-      </c>
-    </row>
-    <row r="165" customFormat="1" s="7">
-      <c r="A165" s="5" t="inlineStr">
-        <is>
-          <t>.</t>
-        </is>
-      </c>
-    </row>
-    <row r="166" customFormat="1" s="7">
-      <c r="A166" s="5" t="inlineStr">
-        <is>
-          <t>.</t>
-        </is>
-      </c>
-    </row>
-    <row r="167" customFormat="1" s="7">
-      <c r="A167" s="5" t="inlineStr">
-        <is>
-          <t>.</t>
-        </is>
-      </c>
-    </row>
-    <row r="168" customFormat="1" s="7">
-      <c r="A168" s="5" t="inlineStr">
-        <is>
-          <t>.</t>
-        </is>
-      </c>
-    </row>
-    <row r="169" customFormat="1" s="7">
-      <c r="A169" s="5" t="inlineStr">
-        <is>
-          <t>.</t>
-        </is>
-      </c>
-    </row>
-    <row r="170" customFormat="1" s="7">
-      <c r="A170" s="5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">comments </t>
-        </is>
-      </c>
-    </row>
-    <row r="171" customFormat="1" s="7">
-      <c r="A171" s="5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">comments </t>
-        </is>
-      </c>
-    </row>
-    <row r="172" customFormat="1" s="7">
-      <c r="A172" s="5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">comments </t>
-        </is>
-      </c>
-    </row>
-    <row r="173" customFormat="1" s="7">
-      <c r="A173" s="5" t="inlineStr">
-        <is>
-          <t>.</t>
-        </is>
-      </c>
-    </row>
-    <row r="174" customFormat="1" s="7">
-      <c r="A174" s="5" t="inlineStr">
-        <is>
-          <t>testing</t>
-        </is>
-      </c>
-    </row>
-    <row r="175" customFormat="1" s="7">
-      <c r="A175" s="5" t="inlineStr">
-        <is>
-          <t>testing</t>
-        </is>
-      </c>
-    </row>
-    <row r="176" customFormat="1" s="7">
-      <c r="A176" s="5" t="inlineStr">
-        <is>
-          <t>testing</t>
-        </is>
-      </c>
-    </row>
-    <row r="177" customFormat="1" s="7">
-      <c r="A177" s="5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">testing </t>
-        </is>
-      </c>
-    </row>
-    <row r="178" customFormat="1" s="7">
-      <c r="A178" s="5" t="inlineStr">
-        <is>
-          <t>testing</t>
-        </is>
-      </c>
-    </row>
-    <row r="179" customFormat="1" s="7">
-      <c r="A179" s="5" t="inlineStr">
-        <is>
-          <t>testing 2:07pm</t>
-        </is>
-      </c>
-    </row>
-    <row r="180" customFormat="1" s="7">
-      <c r="A180" s="5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">testing </t>
-        </is>
-      </c>
-    </row>
-    <row r="181" customFormat="1" s="7">
-      <c r="A181" s="5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">test </t>
-        </is>
-      </c>
-    </row>
-    <row r="182" customFormat="1" s="7">
-      <c r="A182" s="5" t="inlineStr">
-        <is>
-          <t>.</t>
-        </is>
-      </c>
-    </row>
-    <row r="183" customFormat="1" s="7">
-      <c r="A183" s="5" t="inlineStr">
-        <is>
-          <t>.</t>
-        </is>
-      </c>
-    </row>
-    <row r="184" customFormat="1" s="7">
-      <c r="A184" s="5" t="inlineStr">
-        <is>
-          <t>.</t>
-        </is>
-      </c>
-    </row>
-    <row r="185" customFormat="1" s="7">
-      <c r="A185" s="5" t="inlineStr">
-        <is>
-          <t>.</t>
-        </is>
-      </c>
-    </row>
-    <row r="186" customFormat="1" s="7">
-      <c r="A186" s="5" t="inlineStr">
-        <is>
-          <t>.</t>
-        </is>
-      </c>
-    </row>
-    <row r="187" customFormat="1" s="7">
-      <c r="A187" s="5" t="inlineStr">
-        <is>
-          <t>.</t>
-        </is>
-      </c>
-    </row>
-    <row r="188" customFormat="1" s="7">
-      <c r="A188" s="5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">comments </t>
-        </is>
-      </c>
-    </row>
-    <row r="189" customFormat="1" s="7">
-      <c r="A189" s="5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">comments </t>
-        </is>
-      </c>
-    </row>
-    <row r="190" customFormat="1" s="7">
-      <c r="A190" s="5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">comments </t>
-        </is>
-      </c>
-    </row>
-    <row r="191">
-      <c r="A191" t="inlineStr">
-        <is>
-          <t>.</t>
-        </is>
-      </c>
-    </row>
-    <row r="192">
-      <c r="A192" t="inlineStr">
-        <is>
-          <t>testing</t>
-        </is>
-      </c>
-    </row>
-    <row r="193">
-      <c r="A193" t="inlineStr">
-        <is>
-          <t>testing</t>
-        </is>
-      </c>
-    </row>
-    <row r="194">
-      <c r="A194" t="inlineStr">
-        <is>
-          <t>testing</t>
-        </is>
-      </c>
-    </row>
-    <row r="195">
-      <c r="A195" t="inlineStr">
-        <is>
-          <t xml:space="preserve">testing </t>
-        </is>
-      </c>
-    </row>
-    <row r="196">
-      <c r="A196" t="inlineStr">
-        <is>
-          <t>testing</t>
-        </is>
-      </c>
-    </row>
-    <row r="197">
-      <c r="A197" t="inlineStr">
-        <is>
-          <t>testing 2:07pm</t>
-        </is>
-      </c>
-    </row>
-    <row r="198">
-      <c r="A198" t="inlineStr">
-        <is>
-          <t xml:space="preserve">testing </t>
-        </is>
-      </c>
-    </row>
-    <row r="199">
-      <c r="A199" t="inlineStr">
-        <is>
-          <t xml:space="preserve">test </t>
-        </is>
-      </c>
-    </row>
-    <row r="200">
-      <c r="A200" t="inlineStr">
-        <is>
-          <t>.</t>
-        </is>
-      </c>
-    </row>
-    <row r="201">
-      <c r="A201" t="inlineStr">
-        <is>
-          <t>.</t>
-        </is>
-      </c>
-    </row>
-    <row r="202">
-      <c r="A202" t="inlineStr">
-        <is>
-          <t>.</t>
-        </is>
-      </c>
-    </row>
-    <row r="203">
-      <c r="A203" t="inlineStr">
-        <is>
-          <t>.</t>
-        </is>
-      </c>
-    </row>
-    <row r="204">
-      <c r="A204" t="inlineStr">
-        <is>
-          <t>.</t>
-        </is>
-      </c>
-    </row>
-    <row r="205">
-      <c r="A205" t="inlineStr">
-        <is>
-          <t>.</t>
-        </is>
-      </c>
-    </row>
-    <row r="206">
-      <c r="A206" t="inlineStr">
-        <is>
-          <t xml:space="preserve">comments </t>
-        </is>
-      </c>
-    </row>
-    <row r="207">
-      <c r="A207" t="inlineStr">
-        <is>
-          <t xml:space="preserve">comments </t>
-        </is>
-      </c>
-    </row>
-    <row r="208">
-      <c r="A208" t="inlineStr">
-        <is>
-          <t xml:space="preserve">comments </t>
-        </is>
-      </c>
-    </row>
-    <row r="209">
-      <c r="A209" t="inlineStr">
-        <is>
-          <t>.</t>
-        </is>
-      </c>
-    </row>
-    <row r="210">
-      <c r="A210" t="inlineStr">
-        <is>
-          <t>testing</t>
-        </is>
-      </c>
-    </row>
-    <row r="211">
-      <c r="A211" t="inlineStr">
-        <is>
-          <t>testing</t>
-        </is>
-      </c>
-    </row>
-    <row r="212">
-      <c r="A212" t="inlineStr">
-        <is>
-          <t>testing</t>
-        </is>
-      </c>
-    </row>
-    <row r="213">
-      <c r="A213" t="inlineStr">
-        <is>
-          <t xml:space="preserve">testing </t>
-        </is>
-      </c>
-    </row>
-    <row r="214">
-      <c r="A214" t="inlineStr">
-        <is>
-          <t>testing</t>
-        </is>
-      </c>
-    </row>
-    <row r="215">
-      <c r="A215" t="inlineStr">
-        <is>
-          <t>testing 2:07pm</t>
-        </is>
-      </c>
-    </row>
-    <row r="216">
-      <c r="A216" t="inlineStr">
-        <is>
-          <t xml:space="preserve">testing </t>
-        </is>
-      </c>
-    </row>
-    <row r="217">
-      <c r="A217" t="inlineStr">
-        <is>
-          <t xml:space="preserve">test </t>
-        </is>
-      </c>
-    </row>
-    <row r="218">
-      <c r="A218" t="inlineStr">
-        <is>
-          <t>.</t>
-        </is>
-      </c>
-    </row>
-    <row r="219">
-      <c r="A219" t="inlineStr">
-        <is>
-          <t>.</t>
-        </is>
-      </c>
-    </row>
-    <row r="220">
-      <c r="A220" t="inlineStr">
-        <is>
-          <t>.</t>
-        </is>
-      </c>
-    </row>
-    <row r="221">
-      <c r="A221" t="inlineStr">
-        <is>
-          <t>.</t>
-        </is>
-      </c>
-    </row>
-    <row r="222">
-      <c r="A222" t="inlineStr">
-        <is>
-          <t>.</t>
-        </is>
-      </c>
-    </row>
-    <row r="223">
-      <c r="A223" t="inlineStr">
-        <is>
-          <t>.</t>
-        </is>
-      </c>
-    </row>
-    <row r="224">
-      <c r="A224" t="inlineStr">
-        <is>
-          <t xml:space="preserve">comments </t>
-        </is>
-      </c>
-    </row>
-    <row r="225">
-      <c r="A225" t="inlineStr">
-        <is>
-          <t xml:space="preserve">comments </t>
-        </is>
-      </c>
-    </row>
-    <row r="226">
-      <c r="A226" t="inlineStr">
-        <is>
-          <t xml:space="preserve">comments </t>
-        </is>
-      </c>
-    </row>
-    <row r="227">
-      <c r="A227" t="inlineStr">
-        <is>
-          <t>.</t>
-        </is>
-      </c>
-    </row>
-    <row r="228">
-      <c r="A228" t="inlineStr">
-        <is>
-          <t>testing</t>
-        </is>
-      </c>
-    </row>
-    <row r="229">
-      <c r="A229" t="inlineStr">
-        <is>
-          <t>testing</t>
-        </is>
-      </c>
-    </row>
-    <row r="230">
-      <c r="A230" t="inlineStr">
-        <is>
-          <t>testing</t>
-        </is>
-      </c>
-    </row>
-    <row r="231">
-      <c r="A231" t="inlineStr">
-        <is>
-          <t xml:space="preserve">testing </t>
-        </is>
-      </c>
-    </row>
-    <row r="232">
-      <c r="A232" t="inlineStr">
-        <is>
-          <t>testing</t>
-        </is>
-      </c>
-    </row>
-    <row r="233">
-      <c r="A233" t="inlineStr">
-        <is>
-          <t>testing 2:07pm</t>
-        </is>
-      </c>
-    </row>
-    <row r="234">
-      <c r="A234" t="inlineStr">
-        <is>
-          <t xml:space="preserve">testing </t>
-        </is>
-      </c>
-    </row>
-    <row r="235">
-      <c r="A235" t="inlineStr">
-        <is>
-          <t xml:space="preserve">test </t>
-        </is>
-      </c>
-    </row>
-    <row r="236">
-      <c r="A236" t="inlineStr">
-        <is>
-          <t>.</t>
-        </is>
-      </c>
-    </row>
-    <row r="237">
-      <c r="A237" t="inlineStr">
-        <is>
-          <t>.</t>
-        </is>
-      </c>
-    </row>
-    <row r="238">
-      <c r="A238" t="inlineStr">
-        <is>
-          <t>.</t>
-        </is>
-      </c>
-    </row>
-    <row r="239">
-      <c r="A239" t="inlineStr">
-        <is>
-          <t>.</t>
-        </is>
-      </c>
-    </row>
-    <row r="240">
-      <c r="A240" t="inlineStr">
-        <is>
-          <t>.</t>
-        </is>
-      </c>
-    </row>
-    <row r="241">
-      <c r="A241" t="inlineStr">
-        <is>
-          <t>.</t>
-        </is>
-      </c>
-    </row>
-    <row r="242">
-      <c r="A242" t="inlineStr">
-        <is>
-          <t xml:space="preserve">comments </t>
-        </is>
-      </c>
-    </row>
-    <row r="243">
-      <c r="A243" t="inlineStr">
-        <is>
-          <t xml:space="preserve">comments </t>
-        </is>
-      </c>
-    </row>
-    <row r="244">
-      <c r="A244" t="inlineStr">
-        <is>
-          <t xml:space="preserve">comments </t>
-        </is>
-      </c>
-    </row>
-    <row r="245">
-      <c r="A245" t="inlineStr">
-        <is>
-          <t>.</t>
-        </is>
-      </c>
-    </row>
-    <row r="246">
-      <c r="A246" t="inlineStr">
-        <is>
-          <t>testing</t>
-        </is>
-      </c>
-    </row>
-    <row r="247">
-      <c r="A247" t="inlineStr">
-        <is>
-          <t>testing</t>
-        </is>
-      </c>
-    </row>
-    <row r="248">
-      <c r="A248" t="inlineStr">
-        <is>
-          <t>testing</t>
-        </is>
-      </c>
-    </row>
-    <row r="249">
-      <c r="A249" t="inlineStr">
-        <is>
-          <t xml:space="preserve">testing </t>
-        </is>
-      </c>
-    </row>
-    <row r="250">
-      <c r="A250" t="inlineStr">
-        <is>
-          <t>testing</t>
-        </is>
-      </c>
-    </row>
-    <row r="251">
-      <c r="A251" t="inlineStr">
-        <is>
-          <t>testing 2:07pm</t>
-        </is>
-      </c>
-    </row>
-    <row r="252">
-      <c r="A252" t="inlineStr">
-        <is>
-          <t xml:space="preserve">testing </t>
-        </is>
-      </c>
-    </row>
-    <row r="253">
-      <c r="A253" t="inlineStr">
-        <is>
-          <t xml:space="preserve">test </t>
-        </is>
-      </c>
-    </row>
-    <row r="254">
-      <c r="A254" t="inlineStr">
-        <is>
-          <t>.</t>
-        </is>
-      </c>
-    </row>
-    <row r="255">
-      <c r="A255" t="inlineStr">
-        <is>
-          <t>.</t>
-        </is>
-      </c>
-    </row>
-    <row r="256">
-      <c r="A256" t="inlineStr">
-        <is>
-          <t>.</t>
-        </is>
-      </c>
-    </row>
-    <row r="257">
-      <c r="A257" t="inlineStr">
-        <is>
-          <t>.</t>
-        </is>
-      </c>
-    </row>
-    <row r="258">
-      <c r="A258" t="inlineStr">
-        <is>
-          <t>.</t>
-        </is>
-      </c>
-    </row>
-    <row r="259">
-      <c r="A259" t="inlineStr">
-        <is>
-          <t>.</t>
-        </is>
-      </c>
-    </row>
-    <row r="260">
-      <c r="A260" t="inlineStr">
-        <is>
-          <t xml:space="preserve">comments </t>
-        </is>
-      </c>
-    </row>
-    <row r="261">
-      <c r="A261" t="inlineStr">
-        <is>
-          <t xml:space="preserve">comments </t>
-        </is>
-      </c>
-    </row>
-    <row r="262">
-      <c r="A262" t="inlineStr">
-        <is>
-          <t xml:space="preserve">comments </t>
-        </is>
-      </c>
-    </row>
-    <row r="263">
-      <c r="A263" t="inlineStr">
-        <is>
-          <t>.</t>
-        </is>
-      </c>
-    </row>
-    <row r="264">
-      <c r="A264" t="inlineStr">
-        <is>
-          <t>testing</t>
-        </is>
-      </c>
-    </row>
-    <row r="265">
-      <c r="A265" t="inlineStr">
-        <is>
-          <t>testing</t>
-        </is>
-      </c>
-    </row>
-    <row r="266">
-      <c r="A266" t="inlineStr">
-        <is>
-          <t>testing</t>
-        </is>
-      </c>
-    </row>
-    <row r="267">
-      <c r="A267" t="inlineStr">
-        <is>
-          <t xml:space="preserve">testing </t>
-        </is>
-      </c>
-    </row>
-    <row r="268">
-      <c r="A268" t="inlineStr">
-        <is>
-          <t>testing</t>
-        </is>
-      </c>
-    </row>
-    <row r="269">
-      <c r="A269" t="inlineStr">
-        <is>
-          <t>testing 2:07pm</t>
-        </is>
-      </c>
-    </row>
-    <row r="270">
-      <c r="A270" t="inlineStr">
-        <is>
-          <t xml:space="preserve">testing </t>
-        </is>
-      </c>
-    </row>
-    <row r="271">
-      <c r="A271" t="inlineStr">
+    <row r="161">
+      <c r="A161" t="inlineStr">
         <is>
           <t xml:space="preserve">test </t>
         </is>
@@ -7555,10 +6650,10 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N292"/>
+  <dimension ref="A1:N151"/>
   <sheetViews>
-    <sheetView topLeftCell="A21" zoomScale="99" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="99" workbookViewId="0">
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="12.75"/>
@@ -7570,7 +6665,7 @@
     <col width="6.140625" customWidth="1" style="7" min="8" max="8"/>
     <col width="6.140625" customWidth="1" style="7" min="10" max="10"/>
     <col width="6.140625" customWidth="1" style="7" min="12" max="12"/>
-    <col width="13.140625" customWidth="1" style="72" min="13" max="13"/>
+    <col width="13.140625" customWidth="1" style="71" min="13" max="13"/>
   </cols>
   <sheetData>
     <row r="1" ht="17.25" customFormat="1" customHeight="1" s="2">
@@ -7590,7 +6685,7 @@
       <c r="K1" s="15" t="n"/>
       <c r="L1" s="14" t="n"/>
     </row>
-    <row r="2" ht="15.75" customHeight="1" s="72">
+    <row r="2" ht="15.75" customHeight="1" s="71">
       <c r="A2" s="16" t="inlineStr">
         <is>
           <t>EEXXXX XXXX</t>
@@ -7608,7 +6703,7 @@
       <c r="K2" s="2" t="n"/>
       <c r="L2" s="8" t="n"/>
     </row>
-    <row r="3" ht="15" customHeight="1" s="72">
+    <row r="3" ht="15" customHeight="1" s="71">
       <c r="A3" s="16" t="inlineStr">
         <is>
           <t>Cohort Size:</t>
@@ -7630,7 +6725,7 @@
       <c r="K3" s="2" t="n"/>
       <c r="L3" s="8" t="n"/>
     </row>
-    <row r="4" ht="15" customHeight="1" s="72">
+    <row r="4" ht="15" customHeight="1" s="71">
       <c r="A4" s="16" t="inlineStr">
         <is>
           <t>No. of Survey Responses:</t>
@@ -7650,13 +6745,13 @@
       <c r="K4" s="2" t="n"/>
       <c r="L4" s="8" t="n"/>
     </row>
-    <row r="5" ht="15" customHeight="1" s="72">
+    <row r="5" ht="15" customHeight="1" s="71">
       <c r="A5" s="16" t="inlineStr">
         <is>
           <t>Response Percentage:</t>
         </is>
       </c>
-      <c r="B5" s="71">
+      <c r="B5" s="70">
         <f>B4/B3</f>
         <v/>
       </c>
@@ -7670,14 +6765,14 @@
       <c r="K5" s="2" t="n"/>
       <c r="L5" s="8" t="n"/>
     </row>
-    <row r="6" ht="15" customHeight="1" s="72">
+    <row r="6" ht="15" customHeight="1" s="71">
       <c r="A6" s="30" t="inlineStr">
         <is>
           <t>(please scroll to the bottom for input of comments)</t>
         </is>
       </c>
-      <c r="B6" s="71" t="n"/>
-      <c r="C6" s="71" t="n"/>
+      <c r="B6" s="70" t="n"/>
+      <c r="C6" s="70" t="n"/>
       <c r="D6" s="8" t="n"/>
       <c r="E6" s="2" t="n"/>
       <c r="F6" s="8" t="n"/>
@@ -7702,42 +6797,42 @@
       <c r="K7" s="2" t="n"/>
       <c r="L7" s="8" t="n"/>
     </row>
-    <row r="8" ht="45" customHeight="1" s="72">
+    <row r="8" ht="45" customHeight="1" s="71">
       <c r="A8" s="19" t="inlineStr">
         <is>
           <t>Questions and Summary of Survey Results</t>
         </is>
       </c>
-      <c r="B8" s="69" t="inlineStr">
-        <is>
-          <t>Strongly Agree</t>
-        </is>
-      </c>
-      <c r="C8" s="70" t="n"/>
-      <c r="D8" s="69" t="inlineStr">
-        <is>
-          <t>Agree</t>
-        </is>
-      </c>
-      <c r="E8" s="70" t="n"/>
-      <c r="F8" s="69" t="inlineStr">
+      <c r="B8" s="68" t="inlineStr">
+        <is>
+          <t>Strongly Agree</t>
+        </is>
+      </c>
+      <c r="C8" s="69" t="n"/>
+      <c r="D8" s="68" t="inlineStr">
+        <is>
+          <t>Agree</t>
+        </is>
+      </c>
+      <c r="E8" s="69" t="n"/>
+      <c r="F8" s="68" t="inlineStr">
         <is>
           <t>Neutral</t>
         </is>
       </c>
-      <c r="G8" s="70" t="n"/>
-      <c r="H8" s="69" t="inlineStr">
+      <c r="G8" s="69" t="n"/>
+      <c r="H8" s="68" t="inlineStr">
         <is>
           <t>Disagree</t>
         </is>
       </c>
-      <c r="I8" s="70" t="n"/>
-      <c r="J8" s="69" t="inlineStr">
+      <c r="I8" s="69" t="n"/>
+      <c r="J8" s="68" t="inlineStr">
         <is>
           <t>Strongly Disagree</t>
         </is>
       </c>
-      <c r="K8" s="70" t="n"/>
+      <c r="K8" s="69" t="n"/>
       <c r="L8" s="44" t="inlineStr">
         <is>
           <t>Total</t>
@@ -7749,7 +6844,7 @@
         </is>
       </c>
     </row>
-    <row r="9" ht="30" customHeight="1" s="72">
+    <row r="9" ht="30" customHeight="1" s="71">
       <c r="A9" s="20" t="inlineStr">
         <is>
           <t>Q1 - Apply suitable load management techniques to achieve a reliable and sustainable power delivery system.</t>
@@ -7794,12 +6889,12 @@
         <f>(D9+H9+F9+B9+J9)</f>
         <v/>
       </c>
-      <c r="M9" s="67">
+      <c r="M9" s="66">
         <f>C9+E9</f>
         <v/>
       </c>
     </row>
-    <row r="10" ht="15" customHeight="1" s="72">
+    <row r="10" ht="15" customHeight="1" s="71">
       <c r="A10" s="20" t="inlineStr">
         <is>
           <t>Q2 - Able to construct a fair and effective electricity tariff structure.</t>
@@ -7844,12 +6939,12 @@
         <f>(D10+H10+F10+B10+J10)</f>
         <v/>
       </c>
-      <c r="M10" s="67">
+      <c r="M10" s="66">
         <f>C10+E10</f>
         <v/>
       </c>
     </row>
-    <row r="11" ht="30" customHeight="1" s="72">
+    <row r="11" ht="30" customHeight="1" s="71">
       <c r="A11" s="20" t="inlineStr">
         <is>
           <t>Q3 - Analyse the various causes of poor power quality in distribution systems due to switching events.</t>
@@ -7894,12 +6989,12 @@
         <f>(D11+H11+F11+B11+J11)</f>
         <v/>
       </c>
-      <c r="M11" s="67">
+      <c r="M11" s="66">
         <f>C11+E11</f>
         <v/>
       </c>
     </row>
-    <row r="12" ht="30" customHeight="1" s="72">
+    <row r="12" ht="30" customHeight="1" s="71">
       <c r="A12" s="20" t="inlineStr">
         <is>
           <t>Q4 - Able to apply appropriate mitigation techniques to improve power quality in distribution systems (voltage sags/swells).</t>
@@ -7944,12 +7039,12 @@
         <f>(D12+H12+F12+B12+J12)</f>
         <v/>
       </c>
-      <c r="M12" s="67">
+      <c r="M12" s="66">
         <f>C12+E12</f>
         <v/>
       </c>
     </row>
-    <row r="13" ht="30.75" customHeight="1" s="72">
+    <row r="13" ht="30.75" customHeight="1" s="71">
       <c r="A13" s="20" t="inlineStr">
         <is>
           <t>Q5 - Able to apply mitigation techniques to reduce the harmonic distortions in distribution networks.</t>
@@ -7994,12 +7089,12 @@
         <f>(D13+H13+F13+B13+J13)</f>
         <v/>
       </c>
-      <c r="M13" s="67">
+      <c r="M13" s="66">
         <f>C13+E13</f>
         <v/>
       </c>
     </row>
-    <row r="14" ht="30" customHeight="1" s="72">
+    <row r="14" ht="30" customHeight="1" s="71">
       <c r="A14" s="20" t="inlineStr">
         <is>
           <t>Q6 - Able to predict the position of the sun for the purpose of designing renewable solar energy systems.</t>
@@ -8044,12 +7139,12 @@
         <f>(D14+H14+F14+B14+J14)</f>
         <v/>
       </c>
-      <c r="M14" s="67">
+      <c r="M14" s="66">
         <f>C14+E14</f>
         <v/>
       </c>
     </row>
-    <row r="15" ht="30.75" customHeight="1" s="72">
+    <row r="15" ht="30.75" customHeight="1" s="71">
       <c r="A15" s="20" t="inlineStr">
         <is>
           <t>Q7 - Able to estimate the amount of solar insolation and understand how the solar panel can be best aligned for maximum energy collection.</t>
@@ -8094,12 +7189,12 @@
         <f>(D15+H15+F15+B15+J15)</f>
         <v/>
       </c>
-      <c r="M15" s="67">
+      <c r="M15" s="66">
         <f>C15+E15</f>
         <v/>
       </c>
     </row>
-    <row r="16" ht="30" customHeight="1" s="72">
+    <row r="16" ht="30" customHeight="1" s="71">
       <c r="A16" s="20" t="inlineStr">
         <is>
           <t>Q8 - Able to compute the current-voltage characteristics of solar cells, modules and arrays and apply mitigation techniques to shading problems.</t>
@@ -8144,12 +7239,12 @@
         <f>(D16+H16+F16+B16+J16)</f>
         <v/>
       </c>
-      <c r="M16" s="67">
+      <c r="M16" s="66">
         <f>C16+E16</f>
         <v/>
       </c>
     </row>
-    <row r="17" ht="30" customHeight="1" s="72">
+    <row r="17" ht="30" customHeight="1" s="71">
       <c r="A17" s="20" t="inlineStr">
         <is>
           <t>Q9 - Able to predict the power and energy of renewable wind resource at various wind speeds, temperatures and altitudes.</t>
@@ -8194,12 +7289,12 @@
         <f>(D17+H17+F17+B17+J17)</f>
         <v/>
       </c>
-      <c r="M17" s="67">
+      <c r="M17" s="66">
         <f>C17+E17</f>
         <v/>
       </c>
     </row>
-    <row r="18" ht="30" customHeight="1" s="72">
+    <row r="18" ht="30" customHeight="1" s="71">
       <c r="A18" s="20" t="inlineStr">
         <is>
           <t>Q10 - Able to understand the basic design of wind turbines and to predict the generated wind power injected into the grid.</t>
@@ -8244,12 +7339,12 @@
         <f>(D18+H18+F18+B18+J18)</f>
         <v/>
       </c>
-      <c r="M18" s="67">
+      <c r="M18" s="66">
         <f>C18+E18</f>
         <v/>
       </c>
     </row>
-    <row r="19" ht="30" customHeight="1" s="72">
+    <row r="19" ht="30" customHeight="1" s="71">
       <c r="A19" s="20" t="inlineStr">
         <is>
           <t>Q11 - Appreciate the need for lifelong learning and self-education in the design and operation of distribution systems with renewable energy generations.</t>
@@ -8294,7 +7389,7 @@
         <f>(D19+H19+F19+B19+J19)</f>
         <v/>
       </c>
-      <c r="M19" s="67">
+      <c r="M19" s="66">
         <f>C19+E19</f>
         <v/>
       </c>
@@ -8303,85 +7398,85 @@
         <v/>
       </c>
     </row>
-    <row r="21" ht="15" customHeight="1" s="72">
+    <row r="21" ht="15" customHeight="1" s="71">
       <c r="A21" s="23" t="inlineStr">
         <is>
           <t>COMMENTS ON THE COURSE:</t>
         </is>
       </c>
     </row>
-    <row r="22" ht="15" customHeight="1" s="72">
-      <c r="A22" s="62" t="inlineStr">
+    <row r="22" ht="15" customHeight="1" s="71">
+      <c r="A22" s="61" t="inlineStr">
         <is>
           <t>(a) Strengths</t>
         </is>
       </c>
     </row>
-    <row r="23" ht="15" customHeight="1" s="72">
-      <c r="A23" s="63" t="inlineStr">
+    <row r="23" ht="15" customHeight="1" s="71">
+      <c r="A23" s="62" t="inlineStr">
         <is>
           <t>.</t>
         </is>
       </c>
     </row>
-    <row r="24" ht="15" customHeight="1" s="72">
-      <c r="A24" s="63" t="inlineStr">
+    <row r="24" ht="15" customHeight="1" s="71">
+      <c r="A24" s="62" t="inlineStr">
         <is>
           <t>.</t>
         </is>
       </c>
     </row>
-    <row r="25" ht="15" customHeight="1" s="72">
-      <c r="A25" s="63" t="inlineStr">
+    <row r="25" ht="15" customHeight="1" s="71">
+      <c r="A25" s="62" t="inlineStr">
         <is>
           <t>nil</t>
         </is>
       </c>
     </row>
-    <row r="26" ht="15" customHeight="1" s="72">
-      <c r="A26" s="63" t="inlineStr">
+    <row r="26" ht="15" customHeight="1" s="71">
+      <c r="A26" s="62" t="inlineStr">
         <is>
           <t xml:space="preserve">testing </t>
         </is>
       </c>
     </row>
-    <row r="27" ht="15" customHeight="1" s="72">
-      <c r="A27" s="63" t="inlineStr">
+    <row r="27" ht="15" customHeight="1" s="71">
+      <c r="A27" s="62" t="inlineStr">
         <is>
           <t>test 1</t>
         </is>
       </c>
     </row>
-    <row r="28" ht="15" customHeight="1" s="72">
-      <c r="A28" s="63" t="inlineStr">
+    <row r="28" ht="15" customHeight="1" s="71">
+      <c r="A28" s="62" t="inlineStr">
         <is>
           <t xml:space="preserve">comments </t>
         </is>
       </c>
     </row>
-    <row r="29" ht="15" customHeight="1" s="72">
-      <c r="A29" s="63" t="inlineStr">
+    <row r="29" ht="15" customHeight="1" s="71">
+      <c r="A29" s="62" t="inlineStr">
         <is>
           <t>.</t>
         </is>
       </c>
     </row>
-    <row r="30" ht="15" customHeight="1" s="72">
-      <c r="A30" s="63" t="inlineStr">
+    <row r="30" ht="15" customHeight="1" s="71">
+      <c r="A30" s="62" t="inlineStr">
         <is>
           <t>.</t>
         </is>
       </c>
     </row>
-    <row r="31" ht="15" customHeight="1" s="72">
-      <c r="A31" s="63" t="inlineStr">
+    <row r="31" ht="15" customHeight="1" s="71">
+      <c r="A31" s="62" t="inlineStr">
         <is>
           <t>nil</t>
         </is>
       </c>
     </row>
-    <row r="32" ht="15" customHeight="1" s="72">
-      <c r="A32" s="63" t="inlineStr">
+    <row r="32" ht="15" customHeight="1" s="71">
+      <c r="A32" s="62" t="inlineStr">
         <is>
           <t xml:space="preserve">testing </t>
         </is>
@@ -8396,8 +7491,8 @@
       <c r="C33" s="1" t="n"/>
       <c r="D33" s="9" t="n"/>
     </row>
-    <row r="34" ht="15" customHeight="1" s="72">
-      <c r="A34" s="62" t="inlineStr">
+    <row r="34" ht="15" customHeight="1" s="71">
+      <c r="A34" s="61" t="inlineStr">
         <is>
           <t>(b) Weaknesses</t>
         </is>
@@ -8405,7 +7500,7 @@
       <c r="C34" s="1" t="n"/>
       <c r="D34" s="9" t="n"/>
     </row>
-    <row r="35" ht="15" customHeight="1" s="72">
+    <row r="35" ht="15" customHeight="1" s="71">
       <c r="A35" t="inlineStr">
         <is>
           <t>.</t>
@@ -8414,14 +7509,14 @@
       <c r="C35" s="1" t="n"/>
       <c r="D35" s="9" t="n"/>
     </row>
-    <row r="36" ht="14.45" customHeight="1" s="72">
+    <row r="36" ht="14.45" customHeight="1" s="71">
       <c r="A36" s="24" t="inlineStr">
         <is>
           <t>.</t>
         </is>
       </c>
     </row>
-    <row r="37" ht="15" customHeight="1" s="72">
+    <row r="37" ht="15" customHeight="1" s="71">
       <c r="A37" s="24" t="inlineStr">
         <is>
           <t>nil</t>
@@ -8548,297 +7643,296 @@
       </c>
     </row>
     <row r="55" ht="15" customFormat="1" customHeight="1" s="7">
-      <c r="A55" s="68" t="inlineStr">
+      <c r="A55" s="67" t="inlineStr">
         <is>
           <t>(c) Other Comments</t>
         </is>
       </c>
     </row>
     <row r="56" ht="15" customFormat="1" customHeight="1" s="7">
-      <c r="A56" s="63" t="inlineStr">
+      <c r="A56" s="62" t="inlineStr">
         <is>
           <t>.</t>
         </is>
       </c>
     </row>
     <row r="57" ht="15" customFormat="1" customHeight="1" s="7">
-      <c r="A57" s="63" t="inlineStr">
+      <c r="A57" s="62" t="inlineStr">
         <is>
           <t>.</t>
         </is>
       </c>
     </row>
     <row r="58" ht="15" customFormat="1" customHeight="1" s="7">
-      <c r="A58" s="63" t="inlineStr">
+      <c r="A58" s="62" t="inlineStr">
         <is>
           <t>nil</t>
         </is>
       </c>
     </row>
     <row r="59" ht="15" customFormat="1" customHeight="1" s="7">
-      <c r="A59" s="63" t="inlineStr">
+      <c r="A59" s="62" t="inlineStr">
         <is>
           <t xml:space="preserve">testing </t>
         </is>
       </c>
     </row>
     <row r="60" ht="15" customFormat="1" customHeight="1" s="7">
-      <c r="A60" s="63" t="inlineStr">
+      <c r="A60" s="62" t="inlineStr">
         <is>
           <t>.</t>
         </is>
       </c>
     </row>
     <row r="61" ht="15" customFormat="1" customHeight="1" s="7">
-      <c r="A61" s="63" t="inlineStr">
+      <c r="A61" s="62" t="inlineStr">
         <is>
           <t xml:space="preserve">comments </t>
         </is>
       </c>
     </row>
-    <row r="62" ht="15" customFormat="1" customHeight="1" s="7">
-      <c r="A62" s="33" t="inlineStr">
-        <is>
-          <t>[Area Lead (AL) to complete below]</t>
-        </is>
-      </c>
-    </row>
-    <row r="63" ht="15" customFormat="1" customHeight="1" s="7">
-      <c r="A63" s="32" t="inlineStr">
-        <is>
-          <t>Below (pink shaded) for Course Coordinator (CC) to complete. 
-Please also read your students’ comments above.</t>
-        </is>
-      </c>
-    </row>
-    <row r="64" ht="15" customFormat="1" customHeight="1" s="7">
-      <c r="A64" s="34" t="inlineStr">
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>nil</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>nil</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>nil</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t xml:space="preserve">testing </t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t xml:space="preserve">cljx laptop </t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t xml:space="preserve">testing </t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>test 1</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t xml:space="preserve">testing </t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
         <is>
           <t>.</t>
         </is>
       </c>
     </row>
-    <row r="65" ht="15" customFormat="1" customHeight="1" s="7">
-      <c r="A65" s="25" t="inlineStr">
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>nil</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>nil</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>nil</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t xml:space="preserve">testing </t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t xml:space="preserve">cljx laptop </t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t xml:space="preserve">testing </t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>test 1</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t xml:space="preserve">testing </t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
         <is>
           <t>.</t>
         </is>
       </c>
     </row>
-    <row r="66" ht="14.45" customFormat="1" customHeight="1" s="7">
-      <c r="A66" s="26" t="inlineStr">
-        <is>
-          <t>Analysis of Results</t>
-        </is>
-      </c>
-    </row>
-    <row r="67" ht="15" customFormat="1" customHeight="1" s="7">
-      <c r="A67" s="35" t="inlineStr">
+    <row r="80">
+      <c r="A80" t="inlineStr">
         <is>
           <t>nil</t>
         </is>
       </c>
     </row>
-    <row r="68" ht="15.75" customFormat="1" customHeight="1" s="7">
-      <c r="A68" s="27" t="inlineStr">
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>nil</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>nil</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t xml:space="preserve">testing </t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
         <is>
           <t xml:space="preserve">cljx laptop </t>
         </is>
       </c>
     </row>
-    <row r="69" ht="18" customFormat="1" customHeight="1" s="7">
-      <c r="A69" s="26" t="inlineStr">
-        <is>
-          <t>Suggestions for Change/Improvement</t>
-        </is>
-      </c>
-    </row>
-    <row r="70" ht="15" customFormat="1" customHeight="1" s="7">
-      <c r="A70" s="36" t="inlineStr">
+    <row r="85">
+      <c r="A85" t="inlineStr">
         <is>
           <t xml:space="preserve">testing </t>
         </is>
       </c>
     </row>
-    <row r="71" ht="15" customFormat="1" customHeight="1" s="7">
-      <c r="A71" s="27" t="inlineStr">
+    <row r="86">
+      <c r="A86" t="inlineStr">
         <is>
           <t>test 1</t>
         </is>
       </c>
     </row>
-    <row r="72" ht="15" customHeight="1" s="72">
-      <c r="A72" s="26" t="inlineStr">
-        <is>
-          <t>Action Plans - Implementation Date: dd mm 2022</t>
-        </is>
-      </c>
-    </row>
-    <row r="73" ht="15" customHeight="1" s="72">
-      <c r="A73" s="36" t="inlineStr">
+    <row r="87">
+      <c r="A87" t="inlineStr">
         <is>
           <t xml:space="preserve">testing </t>
         </is>
       </c>
     </row>
-    <row r="74" ht="15" customHeight="1" s="72">
-      <c r="A74" s="27" t="inlineStr">
+    <row r="88">
+      <c r="A88" t="inlineStr">
         <is>
           <t>.</t>
         </is>
       </c>
     </row>
-    <row r="75" ht="14.45" customHeight="1" s="72">
-      <c r="A75" s="26" t="inlineStr">
-        <is>
-          <t>Conclusion</t>
-        </is>
-      </c>
-    </row>
-    <row r="76" ht="14.45" customHeight="1" s="72">
-      <c r="A76" s="37" t="inlineStr">
-        <is>
-          <t xml:space="preserve">comments </t>
-        </is>
-      </c>
-    </row>
-    <row r="77" ht="14.45" customHeight="1" s="72">
-      <c r="A77" s="28" t="inlineStr">
-        <is>
-          <t xml:space="preserve">comments </t>
-        </is>
-      </c>
-    </row>
-    <row r="78" ht="14.45" customHeight="1" s="72">
-      <c r="A78" s="38" t="inlineStr">
-        <is>
-          <t>AL's comments on CC's input - Date: dd mm 2022</t>
-        </is>
-      </c>
-    </row>
-    <row r="79" ht="14.45" customHeight="1" s="72">
-      <c r="A79" s="61" t="inlineStr">
-        <is>
-          <t xml:space="preserve">comments </t>
-        </is>
-      </c>
-    </row>
-    <row r="80" ht="14.45" customHeight="1" s="72">
-      <c r="A80" s="28" t="inlineStr">
-        <is>
-          <t>.</t>
-        </is>
-      </c>
-    </row>
-    <row r="81" ht="14.45" customHeight="1" s="72">
-      <c r="A81" s="38" t="inlineStr">
-        <is>
-          <t>Accreditation Chairman's comments - Date: dd mm 2022</t>
-        </is>
-      </c>
-    </row>
-    <row r="82" ht="14.45" customHeight="1" s="72">
-      <c r="A82" s="31" t="inlineStr">
-        <is>
-          <t>testing</t>
-        </is>
-      </c>
-    </row>
-    <row r="83" ht="14.45" customHeight="1" s="72">
-      <c r="A83" s="28" t="inlineStr">
-        <is>
-          <t>testing</t>
-        </is>
-      </c>
-    </row>
-    <row r="84" ht="14.45" customHeight="1" s="72">
-      <c r="A84" s="38" t="inlineStr">
-        <is>
-          <t>Accreditation Committee's Review - Date: dd mm 2022</t>
-        </is>
-      </c>
-    </row>
-    <row r="85" ht="14.45" customHeight="1" s="72">
-      <c r="A85" s="31" t="inlineStr">
-        <is>
-          <t>testing</t>
-        </is>
-      </c>
-    </row>
-    <row r="86">
-      <c r="A86" s="29" t="inlineStr">
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>nil</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>nil</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>nil</t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="inlineStr">
         <is>
           <t xml:space="preserve">testing </t>
         </is>
       </c>
     </row>
-    <row r="87" ht="14.45" customHeight="1" s="72">
-      <c r="A87" s="39" t="inlineStr">
-        <is>
-          <t>ACA's Approval</t>
-        </is>
-      </c>
-    </row>
-    <row r="88" ht="15.6" customHeight="1" s="72">
-      <c r="A88" s="40" t="inlineStr">
-        <is>
-          <t>Approved o  Approved with changes o  Disapproved o</t>
-        </is>
-      </c>
-    </row>
-    <row r="89" ht="17.45" customHeight="1" s="72">
-      <c r="A89" s="41" t="inlineStr">
-        <is>
-          <t>testing</t>
-        </is>
-      </c>
-    </row>
-    <row r="90" ht="14.45" customHeight="1" s="72">
-      <c r="A90" s="42" t="inlineStr">
-        <is>
-          <t>Comments, if any:</t>
-        </is>
-      </c>
-    </row>
-    <row r="91" ht="14.45" customHeight="1" s="72">
-      <c r="A91" s="42" t="inlineStr">
-        <is>
-          <t>testing 2:07pm</t>
-        </is>
-      </c>
-    </row>
-    <row r="92" ht="14.45" customHeight="1" s="72">
-      <c r="A92" s="42" t="inlineStr">
+    <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t xml:space="preserve">cljx laptop </t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="inlineStr">
         <is>
           <t xml:space="preserve">testing </t>
         </is>
       </c>
     </row>
-    <row r="93" ht="14.45" customHeight="1" s="72">
-      <c r="A93" s="42" t="inlineStr">
-        <is>
-          <t>Date:</t>
-        </is>
-      </c>
-    </row>
-    <row r="94" ht="14.45" customHeight="1" s="72">
-      <c r="A94" s="43" t="inlineStr">
-        <is>
-          <t xml:space="preserve">test </t>
-        </is>
-      </c>
-    </row>
     <row r="95">
-      <c r="A95" s="3" t="inlineStr">
-        <is>
-          <t>.</t>
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>test 1</t>
         </is>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>.</t>
+          <t xml:space="preserve">testing </t>
         </is>
       </c>
     </row>
@@ -8852,308 +7946,308 @@
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>.</t>
+          <t>nil</t>
         </is>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>.</t>
+          <t>nil</t>
         </is>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>.</t>
+          <t>nil</t>
         </is>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>nil</t>
+          <t xml:space="preserve">testing </t>
         </is>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>nil</t>
+          <t xml:space="preserve">cljx laptop </t>
         </is>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>nil</t>
+          <t xml:space="preserve">testing </t>
         </is>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t xml:space="preserve">testing </t>
+          <t>test 1</t>
         </is>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t xml:space="preserve">cljx laptop </t>
+          <t xml:space="preserve">testing </t>
         </is>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t xml:space="preserve">testing </t>
+          <t>.</t>
         </is>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>test 1</t>
+          <t>nil</t>
         </is>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t xml:space="preserve">testing </t>
+          <t>nil</t>
         </is>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>.</t>
+          <t>nil</t>
         </is>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t xml:space="preserve">comments </t>
+          <t xml:space="preserve">testing </t>
         </is>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t xml:space="preserve">comments </t>
+          <t xml:space="preserve">cljx laptop </t>
         </is>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t xml:space="preserve">comments </t>
+          <t xml:space="preserve">testing </t>
         </is>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>.</t>
+          <t>test 1</t>
         </is>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>testing</t>
+          <t xml:space="preserve">testing </t>
         </is>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>testing</t>
+          <t>.</t>
         </is>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>testing</t>
+          <t>nil</t>
         </is>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t xml:space="preserve">testing </t>
+          <t>nil</t>
         </is>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>testing</t>
+          <t>nil</t>
         </is>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>testing 2:07pm</t>
+          <t xml:space="preserve">testing </t>
         </is>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t xml:space="preserve">testing </t>
+          <t xml:space="preserve">cljx laptop </t>
         </is>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t xml:space="preserve">test </t>
+          <t xml:space="preserve">testing </t>
         </is>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>nil</t>
+          <t>test 1</t>
         </is>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>nil</t>
+          <t xml:space="preserve">testing </t>
         </is>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>nil</t>
+          <t>.</t>
         </is>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t xml:space="preserve">testing </t>
+          <t>nil</t>
         </is>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t xml:space="preserve">cljx laptop </t>
+          <t>nil</t>
         </is>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t xml:space="preserve">testing </t>
+          <t>nil</t>
         </is>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>test 1</t>
+          <t xml:space="preserve">testing </t>
         </is>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t xml:space="preserve">testing </t>
+          <t xml:space="preserve">cljx laptop </t>
         </is>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>.</t>
+          <t xml:space="preserve">testing </t>
         </is>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>nil</t>
+          <t>test 1</t>
         </is>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>nil</t>
+          <t xml:space="preserve">testing </t>
         </is>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>nil</t>
+          <t>.</t>
         </is>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t xml:space="preserve">testing </t>
+          <t>nil</t>
         </is>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t xml:space="preserve">cljx laptop </t>
+          <t>nil</t>
         </is>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t xml:space="preserve">testing </t>
+          <t>nil</t>
         </is>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>test 1</t>
+          <t xml:space="preserve">testing </t>
         </is>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t xml:space="preserve">testing </t>
+          <t xml:space="preserve">cljx laptop </t>
         </is>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>.</t>
+          <t xml:space="preserve">testing </t>
         </is>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>.</t>
+          <t>test 1</t>
         </is>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>.</t>
+          <t xml:space="preserve">testing </t>
         </is>
       </c>
     </row>
@@ -9167,1048 +8261,61 @@
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>.</t>
+          <t>nil</t>
         </is>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>.</t>
+          <t>nil</t>
         </is>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>.</t>
+          <t>nil</t>
         </is>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>nil</t>
+          <t xml:space="preserve">testing </t>
         </is>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>nil</t>
+          <t xml:space="preserve">cljx laptop </t>
         </is>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>nil</t>
+          <t xml:space="preserve">testing </t>
         </is>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t xml:space="preserve">testing </t>
+          <t>test 1</t>
         </is>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t xml:space="preserve">cljx laptop </t>
+          <t xml:space="preserve">testing </t>
         </is>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
-        <is>
-          <t xml:space="preserve">testing </t>
-        </is>
-      </c>
-    </row>
-    <row r="152">
-      <c r="A152" t="inlineStr">
-        <is>
-          <t>test 1</t>
-        </is>
-      </c>
-    </row>
-    <row r="153">
-      <c r="A153" t="inlineStr">
-        <is>
-          <t xml:space="preserve">testing </t>
-        </is>
-      </c>
-    </row>
-    <row r="154">
-      <c r="A154" t="inlineStr">
-        <is>
-          <t>.</t>
-        </is>
-      </c>
-    </row>
-    <row r="155">
-      <c r="A155" t="inlineStr">
-        <is>
-          <t xml:space="preserve">comments </t>
-        </is>
-      </c>
-    </row>
-    <row r="156">
-      <c r="A156" t="inlineStr">
-        <is>
-          <t xml:space="preserve">comments </t>
-        </is>
-      </c>
-    </row>
-    <row r="157">
-      <c r="A157" t="inlineStr">
-        <is>
-          <t xml:space="preserve">comments </t>
-        </is>
-      </c>
-    </row>
-    <row r="158">
-      <c r="A158" t="inlineStr">
-        <is>
-          <t>.</t>
-        </is>
-      </c>
-    </row>
-    <row r="159">
-      <c r="A159" t="inlineStr">
-        <is>
-          <t>testing</t>
-        </is>
-      </c>
-    </row>
-    <row r="160">
-      <c r="A160" t="inlineStr">
-        <is>
-          <t>testing</t>
-        </is>
-      </c>
-    </row>
-    <row r="161">
-      <c r="A161" t="inlineStr">
-        <is>
-          <t>testing</t>
-        </is>
-      </c>
-    </row>
-    <row r="162">
-      <c r="A162" t="inlineStr">
-        <is>
-          <t xml:space="preserve">testing </t>
-        </is>
-      </c>
-    </row>
-    <row r="163">
-      <c r="A163" t="inlineStr">
-        <is>
-          <t>testing</t>
-        </is>
-      </c>
-    </row>
-    <row r="164">
-      <c r="A164" t="inlineStr">
-        <is>
-          <t>testing 2:07pm</t>
-        </is>
-      </c>
-    </row>
-    <row r="165">
-      <c r="A165" t="inlineStr">
-        <is>
-          <t xml:space="preserve">testing </t>
-        </is>
-      </c>
-    </row>
-    <row r="166">
-      <c r="A166" t="inlineStr">
-        <is>
-          <t xml:space="preserve">test </t>
-        </is>
-      </c>
-    </row>
-    <row r="167">
-      <c r="A167" t="inlineStr">
-        <is>
-          <t>.</t>
-        </is>
-      </c>
-    </row>
-    <row r="168">
-      <c r="A168" t="inlineStr">
-        <is>
-          <t>.</t>
-        </is>
-      </c>
-    </row>
-    <row r="169">
-      <c r="A169" t="inlineStr">
-        <is>
-          <t>.</t>
-        </is>
-      </c>
-    </row>
-    <row r="170">
-      <c r="A170" t="inlineStr">
-        <is>
-          <t>.</t>
-        </is>
-      </c>
-    </row>
-    <row r="171">
-      <c r="A171" t="inlineStr">
-        <is>
-          <t>.</t>
-        </is>
-      </c>
-    </row>
-    <row r="172">
-      <c r="A172" t="inlineStr">
-        <is>
-          <t>.</t>
-        </is>
-      </c>
-    </row>
-    <row r="173">
-      <c r="A173" t="inlineStr">
-        <is>
-          <t>nil</t>
-        </is>
-      </c>
-    </row>
-    <row r="174">
-      <c r="A174" t="inlineStr">
-        <is>
-          <t>nil</t>
-        </is>
-      </c>
-    </row>
-    <row r="175">
-      <c r="A175" t="inlineStr">
-        <is>
-          <t>nil</t>
-        </is>
-      </c>
-    </row>
-    <row r="176">
-      <c r="A176" t="inlineStr">
-        <is>
-          <t xml:space="preserve">testing </t>
-        </is>
-      </c>
-    </row>
-    <row r="177">
-      <c r="A177" t="inlineStr">
-        <is>
-          <t xml:space="preserve">cljx laptop </t>
-        </is>
-      </c>
-    </row>
-    <row r="178">
-      <c r="A178" t="inlineStr">
-        <is>
-          <t xml:space="preserve">testing </t>
-        </is>
-      </c>
-    </row>
-    <row r="179">
-      <c r="A179" t="inlineStr">
-        <is>
-          <t>test 1</t>
-        </is>
-      </c>
-    </row>
-    <row r="180">
-      <c r="A180" t="inlineStr">
-        <is>
-          <t xml:space="preserve">testing </t>
-        </is>
-      </c>
-    </row>
-    <row r="181">
-      <c r="A181" t="inlineStr">
-        <is>
-          <t>.</t>
-        </is>
-      </c>
-    </row>
-    <row r="182">
-      <c r="A182" t="inlineStr">
-        <is>
-          <t xml:space="preserve">comments </t>
-        </is>
-      </c>
-    </row>
-    <row r="183">
-      <c r="A183" t="inlineStr">
-        <is>
-          <t xml:space="preserve">comments </t>
-        </is>
-      </c>
-    </row>
-    <row r="184">
-      <c r="A184" t="inlineStr">
-        <is>
-          <t xml:space="preserve">comments </t>
-        </is>
-      </c>
-    </row>
-    <row r="185">
-      <c r="A185" t="inlineStr">
-        <is>
-          <t>.</t>
-        </is>
-      </c>
-    </row>
-    <row r="186">
-      <c r="A186" t="inlineStr">
-        <is>
-          <t>testing</t>
-        </is>
-      </c>
-    </row>
-    <row r="187">
-      <c r="A187" t="inlineStr">
-        <is>
-          <t>testing</t>
-        </is>
-      </c>
-    </row>
-    <row r="188">
-      <c r="A188" t="inlineStr">
-        <is>
-          <t>testing</t>
-        </is>
-      </c>
-    </row>
-    <row r="189">
-      <c r="A189" t="inlineStr">
-        <is>
-          <t xml:space="preserve">testing </t>
-        </is>
-      </c>
-    </row>
-    <row r="190">
-      <c r="A190" t="inlineStr">
-        <is>
-          <t>testing</t>
-        </is>
-      </c>
-    </row>
-    <row r="191">
-      <c r="A191" t="inlineStr">
-        <is>
-          <t>testing 2:07pm</t>
-        </is>
-      </c>
-    </row>
-    <row r="192">
-      <c r="A192" t="inlineStr">
-        <is>
-          <t xml:space="preserve">testing </t>
-        </is>
-      </c>
-    </row>
-    <row r="193">
-      <c r="A193" t="inlineStr">
-        <is>
-          <t xml:space="preserve">test </t>
-        </is>
-      </c>
-    </row>
-    <row r="194">
-      <c r="A194" t="inlineStr">
-        <is>
-          <t>nil</t>
-        </is>
-      </c>
-    </row>
-    <row r="195">
-      <c r="A195" t="inlineStr">
-        <is>
-          <t>nil</t>
-        </is>
-      </c>
-    </row>
-    <row r="196">
-      <c r="A196" t="inlineStr">
-        <is>
-          <t>nil</t>
-        </is>
-      </c>
-    </row>
-    <row r="197">
-      <c r="A197" t="inlineStr">
-        <is>
-          <t xml:space="preserve">testing </t>
-        </is>
-      </c>
-    </row>
-    <row r="198">
-      <c r="A198" t="inlineStr">
-        <is>
-          <t xml:space="preserve">cljx laptop </t>
-        </is>
-      </c>
-    </row>
-    <row r="199">
-      <c r="A199" t="inlineStr">
-        <is>
-          <t xml:space="preserve">testing </t>
-        </is>
-      </c>
-    </row>
-    <row r="200">
-      <c r="A200" t="inlineStr">
-        <is>
-          <t>test 1</t>
-        </is>
-      </c>
-    </row>
-    <row r="201">
-      <c r="A201" t="inlineStr">
-        <is>
-          <t xml:space="preserve">testing </t>
-        </is>
-      </c>
-    </row>
-    <row r="202">
-      <c r="A202" t="inlineStr">
-        <is>
-          <t>.</t>
-        </is>
-      </c>
-    </row>
-    <row r="203">
-      <c r="A203" t="inlineStr">
-        <is>
-          <t>nil</t>
-        </is>
-      </c>
-    </row>
-    <row r="204">
-      <c r="A204" t="inlineStr">
-        <is>
-          <t>nil</t>
-        </is>
-      </c>
-    </row>
-    <row r="205">
-      <c r="A205" t="inlineStr">
-        <is>
-          <t>nil</t>
-        </is>
-      </c>
-    </row>
-    <row r="206">
-      <c r="A206" t="inlineStr">
-        <is>
-          <t xml:space="preserve">testing </t>
-        </is>
-      </c>
-    </row>
-    <row r="207">
-      <c r="A207" t="inlineStr">
-        <is>
-          <t xml:space="preserve">cljx laptop </t>
-        </is>
-      </c>
-    </row>
-    <row r="208">
-      <c r="A208" t="inlineStr">
-        <is>
-          <t xml:space="preserve">testing </t>
-        </is>
-      </c>
-    </row>
-    <row r="209">
-      <c r="A209" t="inlineStr">
-        <is>
-          <t>test 1</t>
-        </is>
-      </c>
-    </row>
-    <row r="210">
-      <c r="A210" t="inlineStr">
-        <is>
-          <t xml:space="preserve">testing </t>
-        </is>
-      </c>
-    </row>
-    <row r="211">
-      <c r="A211" t="inlineStr">
-        <is>
-          <t>.</t>
-        </is>
-      </c>
-    </row>
-    <row r="212">
-      <c r="A212" t="inlineStr">
-        <is>
-          <t>nil</t>
-        </is>
-      </c>
-    </row>
-    <row r="213">
-      <c r="A213" t="inlineStr">
-        <is>
-          <t>nil</t>
-        </is>
-      </c>
-    </row>
-    <row r="214">
-      <c r="A214" t="inlineStr">
-        <is>
-          <t>nil</t>
-        </is>
-      </c>
-    </row>
-    <row r="215">
-      <c r="A215" t="inlineStr">
-        <is>
-          <t xml:space="preserve">testing </t>
-        </is>
-      </c>
-    </row>
-    <row r="216">
-      <c r="A216" t="inlineStr">
-        <is>
-          <t xml:space="preserve">cljx laptop </t>
-        </is>
-      </c>
-    </row>
-    <row r="217">
-      <c r="A217" t="inlineStr">
-        <is>
-          <t xml:space="preserve">testing </t>
-        </is>
-      </c>
-    </row>
-    <row r="218">
-      <c r="A218" t="inlineStr">
-        <is>
-          <t>test 1</t>
-        </is>
-      </c>
-    </row>
-    <row r="219">
-      <c r="A219" t="inlineStr">
-        <is>
-          <t xml:space="preserve">testing </t>
-        </is>
-      </c>
-    </row>
-    <row r="220">
-      <c r="A220" t="inlineStr">
-        <is>
-          <t>.</t>
-        </is>
-      </c>
-    </row>
-    <row r="221">
-      <c r="A221" t="inlineStr">
-        <is>
-          <t>nil</t>
-        </is>
-      </c>
-    </row>
-    <row r="222">
-      <c r="A222" t="inlineStr">
-        <is>
-          <t>nil</t>
-        </is>
-      </c>
-    </row>
-    <row r="223">
-      <c r="A223" t="inlineStr">
-        <is>
-          <t>nil</t>
-        </is>
-      </c>
-    </row>
-    <row r="224">
-      <c r="A224" t="inlineStr">
-        <is>
-          <t xml:space="preserve">testing </t>
-        </is>
-      </c>
-    </row>
-    <row r="225">
-      <c r="A225" t="inlineStr">
-        <is>
-          <t xml:space="preserve">cljx laptop </t>
-        </is>
-      </c>
-    </row>
-    <row r="226">
-      <c r="A226" t="inlineStr">
-        <is>
-          <t xml:space="preserve">testing </t>
-        </is>
-      </c>
-    </row>
-    <row r="227">
-      <c r="A227" t="inlineStr">
-        <is>
-          <t>test 1</t>
-        </is>
-      </c>
-    </row>
-    <row r="228">
-      <c r="A228" t="inlineStr">
-        <is>
-          <t xml:space="preserve">testing </t>
-        </is>
-      </c>
-    </row>
-    <row r="229">
-      <c r="A229" t="inlineStr">
-        <is>
-          <t>.</t>
-        </is>
-      </c>
-    </row>
-    <row r="230">
-      <c r="A230" t="inlineStr">
-        <is>
-          <t>nil</t>
-        </is>
-      </c>
-    </row>
-    <row r="231">
-      <c r="A231" t="inlineStr">
-        <is>
-          <t>nil</t>
-        </is>
-      </c>
-    </row>
-    <row r="232">
-      <c r="A232" t="inlineStr">
-        <is>
-          <t>nil</t>
-        </is>
-      </c>
-    </row>
-    <row r="233">
-      <c r="A233" t="inlineStr">
-        <is>
-          <t xml:space="preserve">testing </t>
-        </is>
-      </c>
-    </row>
-    <row r="234">
-      <c r="A234" t="inlineStr">
-        <is>
-          <t xml:space="preserve">cljx laptop </t>
-        </is>
-      </c>
-    </row>
-    <row r="235">
-      <c r="A235" t="inlineStr">
-        <is>
-          <t xml:space="preserve">testing </t>
-        </is>
-      </c>
-    </row>
-    <row r="236">
-      <c r="A236" t="inlineStr">
-        <is>
-          <t>test 1</t>
-        </is>
-      </c>
-    </row>
-    <row r="237">
-      <c r="A237" t="inlineStr">
-        <is>
-          <t xml:space="preserve">testing </t>
-        </is>
-      </c>
-    </row>
-    <row r="238">
-      <c r="A238" t="inlineStr">
-        <is>
-          <t>.</t>
-        </is>
-      </c>
-    </row>
-    <row r="239">
-      <c r="A239" t="inlineStr">
-        <is>
-          <t>nil</t>
-        </is>
-      </c>
-    </row>
-    <row r="240">
-      <c r="A240" t="inlineStr">
-        <is>
-          <t>nil</t>
-        </is>
-      </c>
-    </row>
-    <row r="241">
-      <c r="A241" t="inlineStr">
-        <is>
-          <t>nil</t>
-        </is>
-      </c>
-    </row>
-    <row r="242">
-      <c r="A242" t="inlineStr">
-        <is>
-          <t xml:space="preserve">testing </t>
-        </is>
-      </c>
-    </row>
-    <row r="243">
-      <c r="A243" t="inlineStr">
-        <is>
-          <t xml:space="preserve">cljx laptop </t>
-        </is>
-      </c>
-    </row>
-    <row r="244">
-      <c r="A244" t="inlineStr">
-        <is>
-          <t xml:space="preserve">testing </t>
-        </is>
-      </c>
-    </row>
-    <row r="245">
-      <c r="A245" t="inlineStr">
-        <is>
-          <t>test 1</t>
-        </is>
-      </c>
-    </row>
-    <row r="246">
-      <c r="A246" t="inlineStr">
-        <is>
-          <t xml:space="preserve">testing </t>
-        </is>
-      </c>
-    </row>
-    <row r="247">
-      <c r="A247" t="inlineStr">
-        <is>
-          <t>.</t>
-        </is>
-      </c>
-    </row>
-    <row r="248">
-      <c r="A248" t="inlineStr">
-        <is>
-          <t>nil</t>
-        </is>
-      </c>
-    </row>
-    <row r="249">
-      <c r="A249" t="inlineStr">
-        <is>
-          <t>nil</t>
-        </is>
-      </c>
-    </row>
-    <row r="250">
-      <c r="A250" t="inlineStr">
-        <is>
-          <t>nil</t>
-        </is>
-      </c>
-    </row>
-    <row r="251">
-      <c r="A251" t="inlineStr">
-        <is>
-          <t xml:space="preserve">testing </t>
-        </is>
-      </c>
-    </row>
-    <row r="252">
-      <c r="A252" t="inlineStr">
-        <is>
-          <t xml:space="preserve">cljx laptop </t>
-        </is>
-      </c>
-    </row>
-    <row r="253">
-      <c r="A253" t="inlineStr">
-        <is>
-          <t xml:space="preserve">testing </t>
-        </is>
-      </c>
-    </row>
-    <row r="254">
-      <c r="A254" t="inlineStr">
-        <is>
-          <t>test 1</t>
-        </is>
-      </c>
-    </row>
-    <row r="255">
-      <c r="A255" t="inlineStr">
-        <is>
-          <t xml:space="preserve">testing </t>
-        </is>
-      </c>
-    </row>
-    <row r="256">
-      <c r="A256" t="inlineStr">
-        <is>
-          <t>.</t>
-        </is>
-      </c>
-    </row>
-    <row r="257">
-      <c r="A257" t="inlineStr">
-        <is>
-          <t>nil</t>
-        </is>
-      </c>
-    </row>
-    <row r="258">
-      <c r="A258" t="inlineStr">
-        <is>
-          <t>nil</t>
-        </is>
-      </c>
-    </row>
-    <row r="259">
-      <c r="A259" t="inlineStr">
-        <is>
-          <t>nil</t>
-        </is>
-      </c>
-    </row>
-    <row r="260">
-      <c r="A260" t="inlineStr">
-        <is>
-          <t xml:space="preserve">testing </t>
-        </is>
-      </c>
-    </row>
-    <row r="261">
-      <c r="A261" t="inlineStr">
-        <is>
-          <t xml:space="preserve">cljx laptop </t>
-        </is>
-      </c>
-    </row>
-    <row r="262">
-      <c r="A262" t="inlineStr">
-        <is>
-          <t xml:space="preserve">testing </t>
-        </is>
-      </c>
-    </row>
-    <row r="263">
-      <c r="A263" t="inlineStr">
-        <is>
-          <t>test 1</t>
-        </is>
-      </c>
-    </row>
-    <row r="264">
-      <c r="A264" t="inlineStr">
-        <is>
-          <t xml:space="preserve">testing </t>
-        </is>
-      </c>
-    </row>
-    <row r="265">
-      <c r="A265" t="inlineStr">
-        <is>
-          <t>.</t>
-        </is>
-      </c>
-    </row>
-    <row r="266">
-      <c r="A266" t="inlineStr">
-        <is>
-          <t>nil</t>
-        </is>
-      </c>
-    </row>
-    <row r="267">
-      <c r="A267" t="inlineStr">
-        <is>
-          <t>nil</t>
-        </is>
-      </c>
-    </row>
-    <row r="268">
-      <c r="A268" t="inlineStr">
-        <is>
-          <t>nil</t>
-        </is>
-      </c>
-    </row>
-    <row r="269">
-      <c r="A269" t="inlineStr">
-        <is>
-          <t xml:space="preserve">testing </t>
-        </is>
-      </c>
-    </row>
-    <row r="270">
-      <c r="A270" t="inlineStr">
-        <is>
-          <t xml:space="preserve">cljx laptop </t>
-        </is>
-      </c>
-    </row>
-    <row r="271">
-      <c r="A271" t="inlineStr">
-        <is>
-          <t xml:space="preserve">testing </t>
-        </is>
-      </c>
-    </row>
-    <row r="272">
-      <c r="A272" t="inlineStr">
-        <is>
-          <t>test 1</t>
-        </is>
-      </c>
-    </row>
-    <row r="273">
-      <c r="A273" t="inlineStr">
-        <is>
-          <t xml:space="preserve">testing </t>
-        </is>
-      </c>
-    </row>
-    <row r="274">
-      <c r="A274" t="inlineStr">
-        <is>
-          <t>.</t>
-        </is>
-      </c>
-    </row>
-    <row r="275">
-      <c r="A275" t="inlineStr">
-        <is>
-          <t>nil</t>
-        </is>
-      </c>
-    </row>
-    <row r="276">
-      <c r="A276" t="inlineStr">
-        <is>
-          <t>nil</t>
-        </is>
-      </c>
-    </row>
-    <row r="277">
-      <c r="A277" t="inlineStr">
-        <is>
-          <t>nil</t>
-        </is>
-      </c>
-    </row>
-    <row r="278">
-      <c r="A278" t="inlineStr">
-        <is>
-          <t xml:space="preserve">testing </t>
-        </is>
-      </c>
-    </row>
-    <row r="279">
-      <c r="A279" t="inlineStr">
-        <is>
-          <t xml:space="preserve">cljx laptop </t>
-        </is>
-      </c>
-    </row>
-    <row r="280">
-      <c r="A280" t="inlineStr">
-        <is>
-          <t xml:space="preserve">testing </t>
-        </is>
-      </c>
-    </row>
-    <row r="281">
-      <c r="A281" t="inlineStr">
-        <is>
-          <t>test 1</t>
-        </is>
-      </c>
-    </row>
-    <row r="282">
-      <c r="A282" t="inlineStr">
-        <is>
-          <t xml:space="preserve">testing </t>
-        </is>
-      </c>
-    </row>
-    <row r="283">
-      <c r="A283" t="inlineStr">
-        <is>
-          <t>.</t>
-        </is>
-      </c>
-    </row>
-    <row r="284">
-      <c r="A284" t="inlineStr">
-        <is>
-          <t>nil</t>
-        </is>
-      </c>
-    </row>
-    <row r="285">
-      <c r="A285" t="inlineStr">
-        <is>
-          <t>nil</t>
-        </is>
-      </c>
-    </row>
-    <row r="286">
-      <c r="A286" t="inlineStr">
-        <is>
-          <t>nil</t>
-        </is>
-      </c>
-    </row>
-    <row r="287">
-      <c r="A287" t="inlineStr">
-        <is>
-          <t xml:space="preserve">testing </t>
-        </is>
-      </c>
-    </row>
-    <row r="288">
-      <c r="A288" t="inlineStr">
-        <is>
-          <t xml:space="preserve">cljx laptop </t>
-        </is>
-      </c>
-    </row>
-    <row r="289">
-      <c r="A289" t="inlineStr">
-        <is>
-          <t xml:space="preserve">testing </t>
-        </is>
-      </c>
-    </row>
-    <row r="290">
-      <c r="A290" t="inlineStr">
-        <is>
-          <t>test 1</t>
-        </is>
-      </c>
-    </row>
-    <row r="291">
-      <c r="A291" t="inlineStr">
-        <is>
-          <t xml:space="preserve">testing </t>
-        </is>
-      </c>
-    </row>
-    <row r="292">
-      <c r="A292" t="inlineStr">
         <is>
           <t>.</t>
         </is>
@@ -10252,8 +8359,8 @@
     <col width="5" bestFit="1" customWidth="1" style="55" min="1" max="1"/>
     <col width="20" bestFit="1" customWidth="1" style="55" min="2" max="17"/>
     <col width="19.28515625" customWidth="1" style="55" min="18" max="18"/>
-    <col width="8.85546875" customWidth="1" style="55" min="19" max="23"/>
-    <col width="8.85546875" customWidth="1" style="55" min="24" max="16384"/>
+    <col width="8.85546875" customWidth="1" style="55" min="19" max="25"/>
+    <col width="8.85546875" customWidth="1" style="55" min="26" max="16384"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -16619,8 +14726,8 @@
     <col width="5" bestFit="1" customWidth="1" style="55" min="1" max="1"/>
     <col width="20" bestFit="1" customWidth="1" style="55" min="2" max="17"/>
     <col width="19.28515625" customWidth="1" style="55" min="18" max="18"/>
-    <col width="8.85546875" customWidth="1" style="55" min="19" max="23"/>
-    <col width="8.85546875" customWidth="1" style="55" min="24" max="16384"/>
+    <col width="8.85546875" customWidth="1" style="55" min="19" max="25"/>
+    <col width="8.85546875" customWidth="1" style="55" min="26" max="16384"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -21571,8 +19678,8 @@
     <col width="20" bestFit="1" customWidth="1" style="55" min="2" max="17"/>
     <col width="19.28515625" customWidth="1" style="55" min="18" max="18"/>
     <col width="183.28515625" bestFit="1" customWidth="1" style="55" min="19" max="19"/>
-    <col width="8.85546875" customWidth="1" style="55" min="20" max="24"/>
-    <col width="8.85546875" customWidth="1" style="55" min="25" max="16384"/>
+    <col width="8.85546875" customWidth="1" style="55" min="20" max="26"/>
+    <col width="8.85546875" customWidth="1" style="55" min="27" max="16384"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -21690,47 +19797,47 @@
           <t>Strongly Agree</t>
         </is>
       </c>
-      <c r="H2" s="64" t="inlineStr">
-        <is>
-          <t>Strongly Agree</t>
-        </is>
-      </c>
-      <c r="I2" s="64" t="inlineStr">
-        <is>
-          <t>Strongly Agree</t>
-        </is>
-      </c>
-      <c r="J2" s="64" t="inlineStr">
-        <is>
-          <t>Strongly Agree</t>
-        </is>
-      </c>
-      <c r="K2" s="64" t="inlineStr">
-        <is>
-          <t>Strongly Agree</t>
-        </is>
-      </c>
-      <c r="L2" s="64" t="inlineStr">
-        <is>
-          <t>Strongly Agree</t>
-        </is>
-      </c>
-      <c r="M2" s="64" t="inlineStr">
-        <is>
-          <t>Strongly Agree</t>
-        </is>
-      </c>
-      <c r="N2" s="64" t="inlineStr">
-        <is>
-          <t>Strongly Agree</t>
-        </is>
-      </c>
-      <c r="O2" s="64" t="inlineStr">
-        <is>
-          <t>Strongly Agree</t>
-        </is>
-      </c>
-      <c r="P2" s="64" t="inlineStr">
+      <c r="H2" s="63" t="inlineStr">
+        <is>
+          <t>Strongly Agree</t>
+        </is>
+      </c>
+      <c r="I2" s="63" t="inlineStr">
+        <is>
+          <t>Strongly Agree</t>
+        </is>
+      </c>
+      <c r="J2" s="63" t="inlineStr">
+        <is>
+          <t>Strongly Agree</t>
+        </is>
+      </c>
+      <c r="K2" s="63" t="inlineStr">
+        <is>
+          <t>Strongly Agree</t>
+        </is>
+      </c>
+      <c r="L2" s="63" t="inlineStr">
+        <is>
+          <t>Strongly Agree</t>
+        </is>
+      </c>
+      <c r="M2" s="63" t="inlineStr">
+        <is>
+          <t>Strongly Agree</t>
+        </is>
+      </c>
+      <c r="N2" s="63" t="inlineStr">
+        <is>
+          <t>Strongly Agree</t>
+        </is>
+      </c>
+      <c r="O2" s="63" t="inlineStr">
+        <is>
+          <t>Strongly Agree</t>
+        </is>
+      </c>
+      <c r="P2" s="63" t="inlineStr">
         <is>
           <t>Strongly Agree</t>
         </is>
@@ -21754,47 +19861,47 @@
           <t>Strongly Agree</t>
         </is>
       </c>
-      <c r="H3" s="64" t="inlineStr">
-        <is>
-          <t>Strongly Agree</t>
-        </is>
-      </c>
-      <c r="I3" s="64" t="inlineStr">
-        <is>
-          <t>Strongly Agree</t>
-        </is>
-      </c>
-      <c r="J3" s="64" t="inlineStr">
-        <is>
-          <t>Strongly Agree</t>
-        </is>
-      </c>
-      <c r="K3" s="64" t="inlineStr">
-        <is>
-          <t>Strongly Agree</t>
-        </is>
-      </c>
-      <c r="L3" s="64" t="inlineStr">
-        <is>
-          <t>Strongly Agree</t>
-        </is>
-      </c>
-      <c r="M3" s="64" t="inlineStr">
-        <is>
-          <t>Strongly Agree</t>
-        </is>
-      </c>
-      <c r="N3" s="64" t="inlineStr">
-        <is>
-          <t>Strongly Agree</t>
-        </is>
-      </c>
-      <c r="O3" s="64" t="inlineStr">
-        <is>
-          <t>Strongly Agree</t>
-        </is>
-      </c>
-      <c r="P3" s="64" t="inlineStr">
+      <c r="H3" s="63" t="inlineStr">
+        <is>
+          <t>Strongly Agree</t>
+        </is>
+      </c>
+      <c r="I3" s="63" t="inlineStr">
+        <is>
+          <t>Strongly Agree</t>
+        </is>
+      </c>
+      <c r="J3" s="63" t="inlineStr">
+        <is>
+          <t>Strongly Agree</t>
+        </is>
+      </c>
+      <c r="K3" s="63" t="inlineStr">
+        <is>
+          <t>Strongly Agree</t>
+        </is>
+      </c>
+      <c r="L3" s="63" t="inlineStr">
+        <is>
+          <t>Strongly Agree</t>
+        </is>
+      </c>
+      <c r="M3" s="63" t="inlineStr">
+        <is>
+          <t>Strongly Agree</t>
+        </is>
+      </c>
+      <c r="N3" s="63" t="inlineStr">
+        <is>
+          <t>Strongly Agree</t>
+        </is>
+      </c>
+      <c r="O3" s="63" t="inlineStr">
+        <is>
+          <t>Strongly Agree</t>
+        </is>
+      </c>
+      <c r="P3" s="63" t="inlineStr">
         <is>
           <t>Strongly Agree</t>
         </is>
@@ -21818,47 +19925,47 @@
           <t>Strongly Agree</t>
         </is>
       </c>
-      <c r="H4" s="64" t="inlineStr">
-        <is>
-          <t>Strongly Agree</t>
-        </is>
-      </c>
-      <c r="I4" s="64" t="inlineStr">
-        <is>
-          <t>Strongly Agree</t>
-        </is>
-      </c>
-      <c r="J4" s="64" t="inlineStr">
-        <is>
-          <t>Strongly Agree</t>
-        </is>
-      </c>
-      <c r="K4" s="64" t="inlineStr">
-        <is>
-          <t>Strongly Agree</t>
-        </is>
-      </c>
-      <c r="L4" s="64" t="inlineStr">
-        <is>
-          <t>Strongly Agree</t>
-        </is>
-      </c>
-      <c r="M4" s="64" t="inlineStr">
-        <is>
-          <t>Strongly Agree</t>
-        </is>
-      </c>
-      <c r="N4" s="64" t="inlineStr">
-        <is>
-          <t>Strongly Agree</t>
-        </is>
-      </c>
-      <c r="O4" s="64" t="inlineStr">
-        <is>
-          <t>Strongly Agree</t>
-        </is>
-      </c>
-      <c r="P4" s="64" t="inlineStr">
+      <c r="H4" s="63" t="inlineStr">
+        <is>
+          <t>Strongly Agree</t>
+        </is>
+      </c>
+      <c r="I4" s="63" t="inlineStr">
+        <is>
+          <t>Strongly Agree</t>
+        </is>
+      </c>
+      <c r="J4" s="63" t="inlineStr">
+        <is>
+          <t>Strongly Agree</t>
+        </is>
+      </c>
+      <c r="K4" s="63" t="inlineStr">
+        <is>
+          <t>Strongly Agree</t>
+        </is>
+      </c>
+      <c r="L4" s="63" t="inlineStr">
+        <is>
+          <t>Strongly Agree</t>
+        </is>
+      </c>
+      <c r="M4" s="63" t="inlineStr">
+        <is>
+          <t>Strongly Agree</t>
+        </is>
+      </c>
+      <c r="N4" s="63" t="inlineStr">
+        <is>
+          <t>Strongly Agree</t>
+        </is>
+      </c>
+      <c r="O4" s="63" t="inlineStr">
+        <is>
+          <t>Strongly Agree</t>
+        </is>
+      </c>
+      <c r="P4" s="63" t="inlineStr">
         <is>
           <t>Strongly Agree</t>
         </is>
@@ -21882,47 +19989,47 @@
           <t>Strongly Agree</t>
         </is>
       </c>
-      <c r="H5" s="64" t="inlineStr">
-        <is>
-          <t>Strongly Agree</t>
-        </is>
-      </c>
-      <c r="I5" s="64" t="inlineStr">
-        <is>
-          <t>Strongly Agree</t>
-        </is>
-      </c>
-      <c r="J5" s="64" t="inlineStr">
-        <is>
-          <t>Strongly Agree</t>
-        </is>
-      </c>
-      <c r="K5" s="64" t="inlineStr">
-        <is>
-          <t>Strongly Agree</t>
-        </is>
-      </c>
-      <c r="L5" s="64" t="inlineStr">
-        <is>
-          <t>Strongly Agree</t>
-        </is>
-      </c>
-      <c r="M5" s="64" t="inlineStr">
-        <is>
-          <t>Strongly Agree</t>
-        </is>
-      </c>
-      <c r="N5" s="64" t="inlineStr">
-        <is>
-          <t>Strongly Agree</t>
-        </is>
-      </c>
-      <c r="O5" s="64" t="inlineStr">
-        <is>
-          <t>Strongly Agree</t>
-        </is>
-      </c>
-      <c r="P5" s="64" t="inlineStr">
+      <c r="H5" s="63" t="inlineStr">
+        <is>
+          <t>Strongly Agree</t>
+        </is>
+      </c>
+      <c r="I5" s="63" t="inlineStr">
+        <is>
+          <t>Strongly Agree</t>
+        </is>
+      </c>
+      <c r="J5" s="63" t="inlineStr">
+        <is>
+          <t>Strongly Agree</t>
+        </is>
+      </c>
+      <c r="K5" s="63" t="inlineStr">
+        <is>
+          <t>Strongly Agree</t>
+        </is>
+      </c>
+      <c r="L5" s="63" t="inlineStr">
+        <is>
+          <t>Strongly Agree</t>
+        </is>
+      </c>
+      <c r="M5" s="63" t="inlineStr">
+        <is>
+          <t>Strongly Agree</t>
+        </is>
+      </c>
+      <c r="N5" s="63" t="inlineStr">
+        <is>
+          <t>Strongly Agree</t>
+        </is>
+      </c>
+      <c r="O5" s="63" t="inlineStr">
+        <is>
+          <t>Strongly Agree</t>
+        </is>
+      </c>
+      <c r="P5" s="63" t="inlineStr">
         <is>
           <t>Strongly Agree</t>
         </is>
@@ -21946,47 +20053,47 @@
           <t>Strongly Agree</t>
         </is>
       </c>
-      <c r="H6" s="64" t="inlineStr">
-        <is>
-          <t>Strongly Agree</t>
-        </is>
-      </c>
-      <c r="I6" s="64" t="inlineStr">
-        <is>
-          <t>Strongly Agree</t>
-        </is>
-      </c>
-      <c r="J6" s="64" t="inlineStr">
-        <is>
-          <t>Strongly Agree</t>
-        </is>
-      </c>
-      <c r="K6" s="64" t="inlineStr">
-        <is>
-          <t>Strongly Agree</t>
-        </is>
-      </c>
-      <c r="L6" s="64" t="inlineStr">
-        <is>
-          <t>Strongly Agree</t>
-        </is>
-      </c>
-      <c r="M6" s="64" t="inlineStr">
-        <is>
-          <t>Strongly Agree</t>
-        </is>
-      </c>
-      <c r="N6" s="64" t="inlineStr">
-        <is>
-          <t>Strongly Agree</t>
-        </is>
-      </c>
-      <c r="O6" s="65" t="inlineStr">
-        <is>
-          <t>Strongly Agree</t>
-        </is>
-      </c>
-      <c r="P6" s="65" t="inlineStr">
+      <c r="H6" s="63" t="inlineStr">
+        <is>
+          <t>Strongly Agree</t>
+        </is>
+      </c>
+      <c r="I6" s="63" t="inlineStr">
+        <is>
+          <t>Strongly Agree</t>
+        </is>
+      </c>
+      <c r="J6" s="63" t="inlineStr">
+        <is>
+          <t>Strongly Agree</t>
+        </is>
+      </c>
+      <c r="K6" s="63" t="inlineStr">
+        <is>
+          <t>Strongly Agree</t>
+        </is>
+      </c>
+      <c r="L6" s="63" t="inlineStr">
+        <is>
+          <t>Strongly Agree</t>
+        </is>
+      </c>
+      <c r="M6" s="63" t="inlineStr">
+        <is>
+          <t>Strongly Agree</t>
+        </is>
+      </c>
+      <c r="N6" s="63" t="inlineStr">
+        <is>
+          <t>Strongly Agree</t>
+        </is>
+      </c>
+      <c r="O6" s="64" t="inlineStr">
+        <is>
+          <t>Strongly Agree</t>
+        </is>
+      </c>
+      <c r="P6" s="64" t="inlineStr">
         <is>
           <t>Strongly Agree</t>
         </is>
@@ -22011,47 +20118,47 @@
           <t>Strongly Agree</t>
         </is>
       </c>
-      <c r="H7" s="64" t="inlineStr">
-        <is>
-          <t>Strongly Agree</t>
-        </is>
-      </c>
-      <c r="I7" s="64" t="inlineStr">
-        <is>
-          <t>Strongly Agree</t>
-        </is>
-      </c>
-      <c r="J7" s="64" t="inlineStr">
-        <is>
-          <t>Agree</t>
-        </is>
-      </c>
-      <c r="K7" s="64" t="inlineStr">
-        <is>
-          <t>Strongly Agree</t>
-        </is>
-      </c>
-      <c r="L7" s="64" t="inlineStr">
-        <is>
-          <t>Strongly Agree</t>
-        </is>
-      </c>
-      <c r="M7" s="64" t="inlineStr">
-        <is>
-          <t>Agree</t>
-        </is>
-      </c>
-      <c r="N7" s="64" t="inlineStr">
-        <is>
-          <t>Strongly Agree</t>
-        </is>
-      </c>
-      <c r="O7" s="65" t="inlineStr">
-        <is>
-          <t>Strongly Agree</t>
-        </is>
-      </c>
-      <c r="P7" s="64" t="inlineStr">
+      <c r="H7" s="63" t="inlineStr">
+        <is>
+          <t>Strongly Agree</t>
+        </is>
+      </c>
+      <c r="I7" s="63" t="inlineStr">
+        <is>
+          <t>Strongly Agree</t>
+        </is>
+      </c>
+      <c r="J7" s="63" t="inlineStr">
+        <is>
+          <t>Agree</t>
+        </is>
+      </c>
+      <c r="K7" s="63" t="inlineStr">
+        <is>
+          <t>Strongly Agree</t>
+        </is>
+      </c>
+      <c r="L7" s="63" t="inlineStr">
+        <is>
+          <t>Strongly Agree</t>
+        </is>
+      </c>
+      <c r="M7" s="63" t="inlineStr">
+        <is>
+          <t>Agree</t>
+        </is>
+      </c>
+      <c r="N7" s="63" t="inlineStr">
+        <is>
+          <t>Strongly Agree</t>
+        </is>
+      </c>
+      <c r="O7" s="64" t="inlineStr">
+        <is>
+          <t>Strongly Agree</t>
+        </is>
+      </c>
+      <c r="P7" s="63" t="inlineStr">
         <is>
           <t>Strongly Agree</t>
         </is>
@@ -22075,47 +20182,47 @@
           <t>Agree</t>
         </is>
       </c>
-      <c r="H8" s="64" t="inlineStr">
-        <is>
-          <t>Agree</t>
-        </is>
-      </c>
-      <c r="I8" s="64" t="inlineStr">
-        <is>
-          <t>Agree</t>
-        </is>
-      </c>
-      <c r="J8" s="64" t="inlineStr">
-        <is>
-          <t>Agree</t>
-        </is>
-      </c>
-      <c r="K8" s="64" t="inlineStr">
-        <is>
-          <t>Agree</t>
-        </is>
-      </c>
-      <c r="L8" s="64" t="inlineStr">
-        <is>
-          <t>Agree</t>
-        </is>
-      </c>
-      <c r="M8" s="64" t="inlineStr">
-        <is>
-          <t>Agree</t>
-        </is>
-      </c>
-      <c r="N8" s="64" t="inlineStr">
-        <is>
-          <t>Agree</t>
-        </is>
-      </c>
-      <c r="O8" s="64" t="inlineStr">
-        <is>
-          <t>Agree</t>
-        </is>
-      </c>
-      <c r="P8" s="65" t="inlineStr">
+      <c r="H8" s="63" t="inlineStr">
+        <is>
+          <t>Agree</t>
+        </is>
+      </c>
+      <c r="I8" s="63" t="inlineStr">
+        <is>
+          <t>Agree</t>
+        </is>
+      </c>
+      <c r="J8" s="63" t="inlineStr">
+        <is>
+          <t>Agree</t>
+        </is>
+      </c>
+      <c r="K8" s="63" t="inlineStr">
+        <is>
+          <t>Agree</t>
+        </is>
+      </c>
+      <c r="L8" s="63" t="inlineStr">
+        <is>
+          <t>Agree</t>
+        </is>
+      </c>
+      <c r="M8" s="63" t="inlineStr">
+        <is>
+          <t>Agree</t>
+        </is>
+      </c>
+      <c r="N8" s="63" t="inlineStr">
+        <is>
+          <t>Agree</t>
+        </is>
+      </c>
+      <c r="O8" s="63" t="inlineStr">
+        <is>
+          <t>Agree</t>
+        </is>
+      </c>
+      <c r="P8" s="64" t="inlineStr">
         <is>
           <t>Agree</t>
         </is>
@@ -22140,47 +20247,47 @@
           <t>Agree</t>
         </is>
       </c>
-      <c r="H9" s="64" t="inlineStr">
-        <is>
-          <t>Agree</t>
-        </is>
-      </c>
-      <c r="I9" s="64" t="inlineStr">
-        <is>
-          <t>Agree</t>
-        </is>
-      </c>
-      <c r="J9" s="64" t="inlineStr">
-        <is>
-          <t>Agree</t>
-        </is>
-      </c>
-      <c r="K9" s="64" t="inlineStr">
-        <is>
-          <t>Agree</t>
-        </is>
-      </c>
-      <c r="L9" s="64" t="inlineStr">
-        <is>
-          <t>Agree</t>
-        </is>
-      </c>
-      <c r="M9" s="64" t="inlineStr">
-        <is>
-          <t>Agree</t>
-        </is>
-      </c>
-      <c r="N9" s="64" t="inlineStr">
-        <is>
-          <t>Agree</t>
-        </is>
-      </c>
-      <c r="O9" s="64" t="inlineStr">
-        <is>
-          <t>Agree</t>
-        </is>
-      </c>
-      <c r="P9" s="64" t="inlineStr">
+      <c r="H9" s="63" t="inlineStr">
+        <is>
+          <t>Agree</t>
+        </is>
+      </c>
+      <c r="I9" s="63" t="inlineStr">
+        <is>
+          <t>Agree</t>
+        </is>
+      </c>
+      <c r="J9" s="63" t="inlineStr">
+        <is>
+          <t>Agree</t>
+        </is>
+      </c>
+      <c r="K9" s="63" t="inlineStr">
+        <is>
+          <t>Agree</t>
+        </is>
+      </c>
+      <c r="L9" s="63" t="inlineStr">
+        <is>
+          <t>Agree</t>
+        </is>
+      </c>
+      <c r="M9" s="63" t="inlineStr">
+        <is>
+          <t>Agree</t>
+        </is>
+      </c>
+      <c r="N9" s="63" t="inlineStr">
+        <is>
+          <t>Agree</t>
+        </is>
+      </c>
+      <c r="O9" s="63" t="inlineStr">
+        <is>
+          <t>Agree</t>
+        </is>
+      </c>
+      <c r="P9" s="63" t="inlineStr">
         <is>
           <t>Agree</t>
         </is>
@@ -22204,47 +20311,47 @@
           <t>Agree</t>
         </is>
       </c>
-      <c r="H10" s="64" t="inlineStr">
-        <is>
-          <t>Agree</t>
-        </is>
-      </c>
-      <c r="I10" s="64" t="inlineStr">
-        <is>
-          <t>Strongly Agree</t>
-        </is>
-      </c>
-      <c r="J10" s="64" t="inlineStr">
-        <is>
-          <t>Strongly Agree</t>
-        </is>
-      </c>
-      <c r="K10" s="64" t="inlineStr">
-        <is>
-          <t>Strongly Agree</t>
-        </is>
-      </c>
-      <c r="L10" s="64" t="inlineStr">
-        <is>
-          <t>Strongly Agree</t>
-        </is>
-      </c>
-      <c r="M10" s="64" t="inlineStr">
-        <is>
-          <t>Strongly Agree</t>
-        </is>
-      </c>
-      <c r="N10" s="64" t="inlineStr">
-        <is>
-          <t>Strongly Agree</t>
-        </is>
-      </c>
-      <c r="O10" s="64" t="inlineStr">
-        <is>
-          <t>Strongly Agree</t>
-        </is>
-      </c>
-      <c r="P10" s="64" t="inlineStr">
+      <c r="H10" s="63" t="inlineStr">
+        <is>
+          <t>Agree</t>
+        </is>
+      </c>
+      <c r="I10" s="63" t="inlineStr">
+        <is>
+          <t>Strongly Agree</t>
+        </is>
+      </c>
+      <c r="J10" s="63" t="inlineStr">
+        <is>
+          <t>Strongly Agree</t>
+        </is>
+      </c>
+      <c r="K10" s="63" t="inlineStr">
+        <is>
+          <t>Strongly Agree</t>
+        </is>
+      </c>
+      <c r="L10" s="63" t="inlineStr">
+        <is>
+          <t>Strongly Agree</t>
+        </is>
+      </c>
+      <c r="M10" s="63" t="inlineStr">
+        <is>
+          <t>Strongly Agree</t>
+        </is>
+      </c>
+      <c r="N10" s="63" t="inlineStr">
+        <is>
+          <t>Strongly Agree</t>
+        </is>
+      </c>
+      <c r="O10" s="63" t="inlineStr">
+        <is>
+          <t>Strongly Agree</t>
+        </is>
+      </c>
+      <c r="P10" s="63" t="inlineStr">
         <is>
           <t>Strongly Agree</t>
         </is>
@@ -22268,47 +20375,47 @@
           <t>Agree</t>
         </is>
       </c>
-      <c r="H11" s="64" t="inlineStr">
-        <is>
-          <t>Strongly Agree</t>
-        </is>
-      </c>
-      <c r="I11" s="64" t="inlineStr">
-        <is>
-          <t>Agree</t>
-        </is>
-      </c>
-      <c r="J11" s="64" t="inlineStr">
-        <is>
-          <t>Strongly Agree</t>
-        </is>
-      </c>
-      <c r="K11" s="64" t="inlineStr">
-        <is>
-          <t>Agree</t>
-        </is>
-      </c>
-      <c r="L11" s="64" t="inlineStr">
-        <is>
-          <t>Agree</t>
-        </is>
-      </c>
-      <c r="M11" s="64" t="inlineStr">
-        <is>
-          <t>Agree</t>
-        </is>
-      </c>
-      <c r="N11" s="64" t="inlineStr">
-        <is>
-          <t>Strongly Agree</t>
-        </is>
-      </c>
-      <c r="O11" s="65" t="inlineStr">
-        <is>
-          <t>Strongly Agree</t>
-        </is>
-      </c>
-      <c r="P11" s="65" t="inlineStr">
+      <c r="H11" s="63" t="inlineStr">
+        <is>
+          <t>Strongly Agree</t>
+        </is>
+      </c>
+      <c r="I11" s="63" t="inlineStr">
+        <is>
+          <t>Agree</t>
+        </is>
+      </c>
+      <c r="J11" s="63" t="inlineStr">
+        <is>
+          <t>Strongly Agree</t>
+        </is>
+      </c>
+      <c r="K11" s="63" t="inlineStr">
+        <is>
+          <t>Agree</t>
+        </is>
+      </c>
+      <c r="L11" s="63" t="inlineStr">
+        <is>
+          <t>Agree</t>
+        </is>
+      </c>
+      <c r="M11" s="63" t="inlineStr">
+        <is>
+          <t>Agree</t>
+        </is>
+      </c>
+      <c r="N11" s="63" t="inlineStr">
+        <is>
+          <t>Strongly Agree</t>
+        </is>
+      </c>
+      <c r="O11" s="64" t="inlineStr">
+        <is>
+          <t>Strongly Agree</t>
+        </is>
+      </c>
+      <c r="P11" s="64" t="inlineStr">
         <is>
           <t>Agree</t>
         </is>
@@ -22333,47 +20440,47 @@
           <t>Agree</t>
         </is>
       </c>
-      <c r="H12" s="64" t="inlineStr">
-        <is>
-          <t>Agree</t>
-        </is>
-      </c>
-      <c r="I12" s="64" t="inlineStr">
-        <is>
-          <t>Agree</t>
-        </is>
-      </c>
-      <c r="J12" s="64" t="inlineStr">
-        <is>
-          <t>Agree</t>
-        </is>
-      </c>
-      <c r="K12" s="64" t="inlineStr">
-        <is>
-          <t>Agree</t>
-        </is>
-      </c>
-      <c r="L12" s="64" t="inlineStr">
-        <is>
-          <t>Agree</t>
-        </is>
-      </c>
-      <c r="M12" s="64" t="inlineStr">
-        <is>
-          <t>Agree</t>
-        </is>
-      </c>
-      <c r="N12" s="64" t="inlineStr">
-        <is>
-          <t>Agree</t>
-        </is>
-      </c>
-      <c r="O12" s="64" t="inlineStr">
-        <is>
-          <t>Agree</t>
-        </is>
-      </c>
-      <c r="P12" s="64" t="inlineStr">
+      <c r="H12" s="63" t="inlineStr">
+        <is>
+          <t>Agree</t>
+        </is>
+      </c>
+      <c r="I12" s="63" t="inlineStr">
+        <is>
+          <t>Agree</t>
+        </is>
+      </c>
+      <c r="J12" s="63" t="inlineStr">
+        <is>
+          <t>Agree</t>
+        </is>
+      </c>
+      <c r="K12" s="63" t="inlineStr">
+        <is>
+          <t>Agree</t>
+        </is>
+      </c>
+      <c r="L12" s="63" t="inlineStr">
+        <is>
+          <t>Agree</t>
+        </is>
+      </c>
+      <c r="M12" s="63" t="inlineStr">
+        <is>
+          <t>Agree</t>
+        </is>
+      </c>
+      <c r="N12" s="63" t="inlineStr">
+        <is>
+          <t>Agree</t>
+        </is>
+      </c>
+      <c r="O12" s="63" t="inlineStr">
+        <is>
+          <t>Agree</t>
+        </is>
+      </c>
+      <c r="P12" s="63" t="inlineStr">
         <is>
           <t>Agree</t>
         </is>
@@ -22397,47 +20504,47 @@
           <t>Agree</t>
         </is>
       </c>
-      <c r="H13" s="64" t="inlineStr">
-        <is>
-          <t>Agree</t>
-        </is>
-      </c>
-      <c r="I13" s="64" t="inlineStr">
-        <is>
-          <t>Agree</t>
-        </is>
-      </c>
-      <c r="J13" s="64" t="inlineStr">
-        <is>
-          <t>Agree</t>
-        </is>
-      </c>
-      <c r="K13" s="64" t="inlineStr">
-        <is>
-          <t>Agree</t>
-        </is>
-      </c>
-      <c r="L13" s="64" t="inlineStr">
-        <is>
-          <t>Agree</t>
-        </is>
-      </c>
-      <c r="M13" s="64" t="inlineStr">
-        <is>
-          <t>Agree</t>
-        </is>
-      </c>
-      <c r="N13" s="64" t="inlineStr">
-        <is>
-          <t>Agree</t>
-        </is>
-      </c>
-      <c r="O13" s="64" t="inlineStr">
-        <is>
-          <t>Agree</t>
-        </is>
-      </c>
-      <c r="P13" s="64" t="inlineStr">
+      <c r="H13" s="63" t="inlineStr">
+        <is>
+          <t>Agree</t>
+        </is>
+      </c>
+      <c r="I13" s="63" t="inlineStr">
+        <is>
+          <t>Agree</t>
+        </is>
+      </c>
+      <c r="J13" s="63" t="inlineStr">
+        <is>
+          <t>Agree</t>
+        </is>
+      </c>
+      <c r="K13" s="63" t="inlineStr">
+        <is>
+          <t>Agree</t>
+        </is>
+      </c>
+      <c r="L13" s="63" t="inlineStr">
+        <is>
+          <t>Agree</t>
+        </is>
+      </c>
+      <c r="M13" s="63" t="inlineStr">
+        <is>
+          <t>Agree</t>
+        </is>
+      </c>
+      <c r="N13" s="63" t="inlineStr">
+        <is>
+          <t>Agree</t>
+        </is>
+      </c>
+      <c r="O13" s="63" t="inlineStr">
+        <is>
+          <t>Agree</t>
+        </is>
+      </c>
+      <c r="P13" s="63" t="inlineStr">
         <is>
           <t>Agree</t>
         </is>
@@ -22461,47 +20568,47 @@
           <t>Strongly Agree</t>
         </is>
       </c>
-      <c r="H14" s="64" t="inlineStr">
-        <is>
-          <t>Strongly Agree</t>
-        </is>
-      </c>
-      <c r="I14" s="64" t="inlineStr">
-        <is>
-          <t>Agree</t>
-        </is>
-      </c>
-      <c r="J14" s="64" t="inlineStr">
-        <is>
-          <t>Agree</t>
-        </is>
-      </c>
-      <c r="K14" s="64" t="inlineStr">
-        <is>
-          <t>Agree</t>
-        </is>
-      </c>
-      <c r="L14" s="64" t="inlineStr">
-        <is>
-          <t>Strongly Agree</t>
-        </is>
-      </c>
-      <c r="M14" s="64" t="inlineStr">
-        <is>
-          <t>Agree</t>
-        </is>
-      </c>
-      <c r="N14" s="64" t="inlineStr">
-        <is>
-          <t>Strongly Agree</t>
-        </is>
-      </c>
-      <c r="O14" s="64" t="inlineStr">
-        <is>
-          <t>Strongly Agree</t>
-        </is>
-      </c>
-      <c r="P14" s="64" t="inlineStr">
+      <c r="H14" s="63" t="inlineStr">
+        <is>
+          <t>Strongly Agree</t>
+        </is>
+      </c>
+      <c r="I14" s="63" t="inlineStr">
+        <is>
+          <t>Agree</t>
+        </is>
+      </c>
+      <c r="J14" s="63" t="inlineStr">
+        <is>
+          <t>Agree</t>
+        </is>
+      </c>
+      <c r="K14" s="63" t="inlineStr">
+        <is>
+          <t>Agree</t>
+        </is>
+      </c>
+      <c r="L14" s="63" t="inlineStr">
+        <is>
+          <t>Strongly Agree</t>
+        </is>
+      </c>
+      <c r="M14" s="63" t="inlineStr">
+        <is>
+          <t>Agree</t>
+        </is>
+      </c>
+      <c r="N14" s="63" t="inlineStr">
+        <is>
+          <t>Strongly Agree</t>
+        </is>
+      </c>
+      <c r="O14" s="63" t="inlineStr">
+        <is>
+          <t>Strongly Agree</t>
+        </is>
+      </c>
+      <c r="P14" s="63" t="inlineStr">
         <is>
           <t>Strongly Agree</t>
         </is>
@@ -22525,47 +20632,47 @@
           <t>Strongly Agree</t>
         </is>
       </c>
-      <c r="H15" s="64" t="inlineStr">
-        <is>
-          <t>Strongly Agree</t>
-        </is>
-      </c>
-      <c r="I15" s="64" t="inlineStr">
-        <is>
-          <t>Strongly Agree</t>
-        </is>
-      </c>
-      <c r="J15" s="64" t="inlineStr">
-        <is>
-          <t>Strongly Agree</t>
-        </is>
-      </c>
-      <c r="K15" s="64" t="inlineStr">
-        <is>
-          <t>Strongly Agree</t>
-        </is>
-      </c>
-      <c r="L15" s="64" t="inlineStr">
-        <is>
-          <t>Strongly Agree</t>
-        </is>
-      </c>
-      <c r="M15" s="64" t="inlineStr">
-        <is>
-          <t>Strongly Agree</t>
-        </is>
-      </c>
-      <c r="N15" s="64" t="inlineStr">
-        <is>
-          <t>Strongly Agree</t>
-        </is>
-      </c>
-      <c r="O15" s="65" t="inlineStr">
-        <is>
-          <t>Strongly Agree</t>
-        </is>
-      </c>
-      <c r="P15" s="65" t="inlineStr">
+      <c r="H15" s="63" t="inlineStr">
+        <is>
+          <t>Strongly Agree</t>
+        </is>
+      </c>
+      <c r="I15" s="63" t="inlineStr">
+        <is>
+          <t>Strongly Agree</t>
+        </is>
+      </c>
+      <c r="J15" s="63" t="inlineStr">
+        <is>
+          <t>Strongly Agree</t>
+        </is>
+      </c>
+      <c r="K15" s="63" t="inlineStr">
+        <is>
+          <t>Strongly Agree</t>
+        </is>
+      </c>
+      <c r="L15" s="63" t="inlineStr">
+        <is>
+          <t>Strongly Agree</t>
+        </is>
+      </c>
+      <c r="M15" s="63" t="inlineStr">
+        <is>
+          <t>Strongly Agree</t>
+        </is>
+      </c>
+      <c r="N15" s="63" t="inlineStr">
+        <is>
+          <t>Strongly Agree</t>
+        </is>
+      </c>
+      <c r="O15" s="64" t="inlineStr">
+        <is>
+          <t>Strongly Agree</t>
+        </is>
+      </c>
+      <c r="P15" s="64" t="inlineStr">
         <is>
           <t>Strongly Agree</t>
         </is>
@@ -22590,47 +20697,47 @@
           <t>Strongly Agree</t>
         </is>
       </c>
-      <c r="H16" s="64" t="inlineStr">
-        <is>
-          <t>Strongly Agree</t>
-        </is>
-      </c>
-      <c r="I16" s="64" t="inlineStr">
-        <is>
-          <t>Strongly Agree</t>
-        </is>
-      </c>
-      <c r="J16" s="64" t="inlineStr">
-        <is>
-          <t>Strongly Agree</t>
-        </is>
-      </c>
-      <c r="K16" s="64" t="inlineStr">
-        <is>
-          <t>Strongly Agree</t>
-        </is>
-      </c>
-      <c r="L16" s="64" t="inlineStr">
-        <is>
-          <t>Agree</t>
-        </is>
-      </c>
-      <c r="M16" s="64" t="inlineStr">
-        <is>
-          <t>Strongly Agree</t>
-        </is>
-      </c>
-      <c r="N16" s="64" t="inlineStr">
-        <is>
-          <t>Strongly Agree</t>
-        </is>
-      </c>
-      <c r="O16" s="64" t="inlineStr">
-        <is>
-          <t>Strongly Agree</t>
-        </is>
-      </c>
-      <c r="P16" s="64" t="inlineStr">
+      <c r="H16" s="63" t="inlineStr">
+        <is>
+          <t>Strongly Agree</t>
+        </is>
+      </c>
+      <c r="I16" s="63" t="inlineStr">
+        <is>
+          <t>Strongly Agree</t>
+        </is>
+      </c>
+      <c r="J16" s="63" t="inlineStr">
+        <is>
+          <t>Strongly Agree</t>
+        </is>
+      </c>
+      <c r="K16" s="63" t="inlineStr">
+        <is>
+          <t>Strongly Agree</t>
+        </is>
+      </c>
+      <c r="L16" s="63" t="inlineStr">
+        <is>
+          <t>Agree</t>
+        </is>
+      </c>
+      <c r="M16" s="63" t="inlineStr">
+        <is>
+          <t>Strongly Agree</t>
+        </is>
+      </c>
+      <c r="N16" s="63" t="inlineStr">
+        <is>
+          <t>Strongly Agree</t>
+        </is>
+      </c>
+      <c r="O16" s="63" t="inlineStr">
+        <is>
+          <t>Strongly Agree</t>
+        </is>
+      </c>
+      <c r="P16" s="63" t="inlineStr">
         <is>
           <t>Strongly Agree</t>
         </is>
@@ -22654,47 +20761,47 @@
           <t>Strongly Agree</t>
         </is>
       </c>
-      <c r="H17" s="64" t="inlineStr">
-        <is>
-          <t>Strongly Agree</t>
-        </is>
-      </c>
-      <c r="I17" s="64" t="inlineStr">
-        <is>
-          <t>Strongly Agree</t>
-        </is>
-      </c>
-      <c r="J17" s="64" t="inlineStr">
-        <is>
-          <t>Strongly Agree</t>
-        </is>
-      </c>
-      <c r="K17" s="64" t="inlineStr">
-        <is>
-          <t>Strongly Agree</t>
-        </is>
-      </c>
-      <c r="L17" s="64" t="inlineStr">
-        <is>
-          <t>Strongly Agree</t>
-        </is>
-      </c>
-      <c r="M17" s="64" t="inlineStr">
-        <is>
-          <t>Strongly Agree</t>
-        </is>
-      </c>
-      <c r="N17" s="64" t="inlineStr">
-        <is>
-          <t>Strongly Agree</t>
-        </is>
-      </c>
-      <c r="O17" s="65" t="inlineStr">
-        <is>
-          <t>Strongly Agree</t>
-        </is>
-      </c>
-      <c r="P17" s="65" t="inlineStr">
+      <c r="H17" s="63" t="inlineStr">
+        <is>
+          <t>Strongly Agree</t>
+        </is>
+      </c>
+      <c r="I17" s="63" t="inlineStr">
+        <is>
+          <t>Strongly Agree</t>
+        </is>
+      </c>
+      <c r="J17" s="63" t="inlineStr">
+        <is>
+          <t>Strongly Agree</t>
+        </is>
+      </c>
+      <c r="K17" s="63" t="inlineStr">
+        <is>
+          <t>Strongly Agree</t>
+        </is>
+      </c>
+      <c r="L17" s="63" t="inlineStr">
+        <is>
+          <t>Strongly Agree</t>
+        </is>
+      </c>
+      <c r="M17" s="63" t="inlineStr">
+        <is>
+          <t>Strongly Agree</t>
+        </is>
+      </c>
+      <c r="N17" s="63" t="inlineStr">
+        <is>
+          <t>Strongly Agree</t>
+        </is>
+      </c>
+      <c r="O17" s="64" t="inlineStr">
+        <is>
+          <t>Strongly Agree</t>
+        </is>
+      </c>
+      <c r="P17" s="64" t="inlineStr">
         <is>
           <t>Strongly Agree</t>
         </is>
@@ -22719,47 +20826,47 @@
           <t>Strongly Agree</t>
         </is>
       </c>
-      <c r="H18" s="64" t="inlineStr">
-        <is>
-          <t>Strongly Agree</t>
-        </is>
-      </c>
-      <c r="I18" s="64" t="inlineStr">
-        <is>
-          <t>Strongly Agree</t>
-        </is>
-      </c>
-      <c r="J18" s="64" t="inlineStr">
-        <is>
-          <t>Strongly Agree</t>
-        </is>
-      </c>
-      <c r="K18" s="64" t="inlineStr">
-        <is>
-          <t>Strongly Agree</t>
-        </is>
-      </c>
-      <c r="L18" s="64" t="inlineStr">
-        <is>
-          <t>Strongly Agree</t>
-        </is>
-      </c>
-      <c r="M18" s="64" t="inlineStr">
-        <is>
-          <t>Strongly Agree</t>
-        </is>
-      </c>
-      <c r="N18" s="64" t="inlineStr">
-        <is>
-          <t>Strongly Agree</t>
-        </is>
-      </c>
-      <c r="O18" s="65" t="inlineStr">
-        <is>
-          <t>Strongly Agree</t>
-        </is>
-      </c>
-      <c r="P18" s="65" t="inlineStr">
+      <c r="H18" s="63" t="inlineStr">
+        <is>
+          <t>Strongly Agree</t>
+        </is>
+      </c>
+      <c r="I18" s="63" t="inlineStr">
+        <is>
+          <t>Strongly Agree</t>
+        </is>
+      </c>
+      <c r="J18" s="63" t="inlineStr">
+        <is>
+          <t>Strongly Agree</t>
+        </is>
+      </c>
+      <c r="K18" s="63" t="inlineStr">
+        <is>
+          <t>Strongly Agree</t>
+        </is>
+      </c>
+      <c r="L18" s="63" t="inlineStr">
+        <is>
+          <t>Strongly Agree</t>
+        </is>
+      </c>
+      <c r="M18" s="63" t="inlineStr">
+        <is>
+          <t>Strongly Agree</t>
+        </is>
+      </c>
+      <c r="N18" s="63" t="inlineStr">
+        <is>
+          <t>Strongly Agree</t>
+        </is>
+      </c>
+      <c r="O18" s="64" t="inlineStr">
+        <is>
+          <t>Strongly Agree</t>
+        </is>
+      </c>
+      <c r="P18" s="64" t="inlineStr">
         <is>
           <t>Strongly Agree</t>
         </is>
@@ -22784,47 +20891,47 @@
           <t>Strongly Agree</t>
         </is>
       </c>
-      <c r="H19" s="64" t="inlineStr">
-        <is>
-          <t>Strongly Agree</t>
-        </is>
-      </c>
-      <c r="I19" s="64" t="inlineStr">
-        <is>
-          <t>Strongly Agree</t>
-        </is>
-      </c>
-      <c r="J19" s="64" t="inlineStr">
-        <is>
-          <t>Strongly Agree</t>
-        </is>
-      </c>
-      <c r="K19" s="64" t="inlineStr">
-        <is>
-          <t>Strongly Agree</t>
-        </is>
-      </c>
-      <c r="L19" s="64" t="inlineStr">
-        <is>
-          <t>Strongly Agree</t>
-        </is>
-      </c>
-      <c r="M19" s="64" t="inlineStr">
-        <is>
-          <t>Strongly Agree</t>
-        </is>
-      </c>
-      <c r="N19" s="64" t="inlineStr">
-        <is>
-          <t>Strongly Agree</t>
-        </is>
-      </c>
-      <c r="O19" s="64" t="inlineStr">
-        <is>
-          <t>Strongly Agree</t>
-        </is>
-      </c>
-      <c r="P19" s="64" t="inlineStr">
+      <c r="H19" s="63" t="inlineStr">
+        <is>
+          <t>Strongly Agree</t>
+        </is>
+      </c>
+      <c r="I19" s="63" t="inlineStr">
+        <is>
+          <t>Strongly Agree</t>
+        </is>
+      </c>
+      <c r="J19" s="63" t="inlineStr">
+        <is>
+          <t>Strongly Agree</t>
+        </is>
+      </c>
+      <c r="K19" s="63" t="inlineStr">
+        <is>
+          <t>Strongly Agree</t>
+        </is>
+      </c>
+      <c r="L19" s="63" t="inlineStr">
+        <is>
+          <t>Strongly Agree</t>
+        </is>
+      </c>
+      <c r="M19" s="63" t="inlineStr">
+        <is>
+          <t>Strongly Agree</t>
+        </is>
+      </c>
+      <c r="N19" s="63" t="inlineStr">
+        <is>
+          <t>Strongly Agree</t>
+        </is>
+      </c>
+      <c r="O19" s="63" t="inlineStr">
+        <is>
+          <t>Strongly Agree</t>
+        </is>
+      </c>
+      <c r="P19" s="63" t="inlineStr">
         <is>
           <t>Strongly Agree</t>
         </is>
@@ -22848,47 +20955,47 @@
           <t>Strongly Agree</t>
         </is>
       </c>
-      <c r="H20" s="64" t="inlineStr">
-        <is>
-          <t>Strongly Agree</t>
-        </is>
-      </c>
-      <c r="I20" s="64" t="inlineStr">
-        <is>
-          <t>Strongly Agree</t>
-        </is>
-      </c>
-      <c r="J20" s="64" t="inlineStr">
-        <is>
-          <t>Strongly Agree</t>
-        </is>
-      </c>
-      <c r="K20" s="64" t="inlineStr">
-        <is>
-          <t>Strongly Agree</t>
-        </is>
-      </c>
-      <c r="L20" s="64" t="inlineStr">
-        <is>
-          <t>Strongly Agree</t>
-        </is>
-      </c>
-      <c r="M20" s="64" t="inlineStr">
-        <is>
-          <t>Strongly Agree</t>
-        </is>
-      </c>
-      <c r="N20" s="64" t="inlineStr">
-        <is>
-          <t>Strongly Agree</t>
-        </is>
-      </c>
-      <c r="O20" s="64" t="inlineStr">
-        <is>
-          <t>Strongly Agree</t>
-        </is>
-      </c>
-      <c r="P20" s="65" t="inlineStr">
+      <c r="H20" s="63" t="inlineStr">
+        <is>
+          <t>Strongly Agree</t>
+        </is>
+      </c>
+      <c r="I20" s="63" t="inlineStr">
+        <is>
+          <t>Strongly Agree</t>
+        </is>
+      </c>
+      <c r="J20" s="63" t="inlineStr">
+        <is>
+          <t>Strongly Agree</t>
+        </is>
+      </c>
+      <c r="K20" s="63" t="inlineStr">
+        <is>
+          <t>Strongly Agree</t>
+        </is>
+      </c>
+      <c r="L20" s="63" t="inlineStr">
+        <is>
+          <t>Strongly Agree</t>
+        </is>
+      </c>
+      <c r="M20" s="63" t="inlineStr">
+        <is>
+          <t>Strongly Agree</t>
+        </is>
+      </c>
+      <c r="N20" s="63" t="inlineStr">
+        <is>
+          <t>Strongly Agree</t>
+        </is>
+      </c>
+      <c r="O20" s="63" t="inlineStr">
+        <is>
+          <t>Strongly Agree</t>
+        </is>
+      </c>
+      <c r="P20" s="64" t="inlineStr">
         <is>
           <t>Strongly Agree</t>
         </is>
@@ -22913,47 +21020,47 @@
           <t>Strongly Agree</t>
         </is>
       </c>
-      <c r="H21" s="64" t="inlineStr">
-        <is>
-          <t>Strongly Agree</t>
-        </is>
-      </c>
-      <c r="I21" s="64" t="inlineStr">
-        <is>
-          <t>Strongly Agree</t>
-        </is>
-      </c>
-      <c r="J21" s="64" t="inlineStr">
-        <is>
-          <t>Strongly Agree</t>
-        </is>
-      </c>
-      <c r="K21" s="64" t="inlineStr">
-        <is>
-          <t>Strongly Agree</t>
-        </is>
-      </c>
-      <c r="L21" s="64" t="inlineStr">
-        <is>
-          <t>Strongly Agree</t>
-        </is>
-      </c>
-      <c r="M21" s="64" t="inlineStr">
-        <is>
-          <t>Strongly Agree</t>
-        </is>
-      </c>
-      <c r="N21" s="64" t="inlineStr">
-        <is>
-          <t>Strongly Agree</t>
-        </is>
-      </c>
-      <c r="O21" s="65" t="inlineStr">
-        <is>
-          <t>Strongly Agree</t>
-        </is>
-      </c>
-      <c r="P21" s="65" t="inlineStr">
+      <c r="H21" s="63" t="inlineStr">
+        <is>
+          <t>Strongly Agree</t>
+        </is>
+      </c>
+      <c r="I21" s="63" t="inlineStr">
+        <is>
+          <t>Strongly Agree</t>
+        </is>
+      </c>
+      <c r="J21" s="63" t="inlineStr">
+        <is>
+          <t>Strongly Agree</t>
+        </is>
+      </c>
+      <c r="K21" s="63" t="inlineStr">
+        <is>
+          <t>Strongly Agree</t>
+        </is>
+      </c>
+      <c r="L21" s="63" t="inlineStr">
+        <is>
+          <t>Strongly Agree</t>
+        </is>
+      </c>
+      <c r="M21" s="63" t="inlineStr">
+        <is>
+          <t>Strongly Agree</t>
+        </is>
+      </c>
+      <c r="N21" s="63" t="inlineStr">
+        <is>
+          <t>Strongly Agree</t>
+        </is>
+      </c>
+      <c r="O21" s="64" t="inlineStr">
+        <is>
+          <t>Strongly Agree</t>
+        </is>
+      </c>
+      <c r="P21" s="64" t="inlineStr">
         <is>
           <t>Strongly Agree</t>
         </is>
@@ -22978,47 +21085,47 @@
           <t>Strongly Agree</t>
         </is>
       </c>
-      <c r="H22" s="64" t="inlineStr">
-        <is>
-          <t>Strongly Agree</t>
-        </is>
-      </c>
-      <c r="I22" s="64" t="inlineStr">
-        <is>
-          <t>Strongly Agree</t>
-        </is>
-      </c>
-      <c r="J22" s="64" t="inlineStr">
-        <is>
-          <t>Strongly Agree</t>
-        </is>
-      </c>
-      <c r="K22" s="64" t="inlineStr">
-        <is>
-          <t>Strongly Agree</t>
-        </is>
-      </c>
-      <c r="L22" s="64" t="inlineStr">
-        <is>
-          <t>Agree</t>
-        </is>
-      </c>
-      <c r="M22" s="64" t="inlineStr">
-        <is>
-          <t>Strongly Agree</t>
-        </is>
-      </c>
-      <c r="N22" s="64" t="inlineStr">
-        <is>
-          <t>Strongly Agree</t>
-        </is>
-      </c>
-      <c r="O22" s="64" t="inlineStr">
-        <is>
-          <t>Strongly Agree</t>
-        </is>
-      </c>
-      <c r="P22" s="64" t="inlineStr">
+      <c r="H22" s="63" t="inlineStr">
+        <is>
+          <t>Strongly Agree</t>
+        </is>
+      </c>
+      <c r="I22" s="63" t="inlineStr">
+        <is>
+          <t>Strongly Agree</t>
+        </is>
+      </c>
+      <c r="J22" s="63" t="inlineStr">
+        <is>
+          <t>Strongly Agree</t>
+        </is>
+      </c>
+      <c r="K22" s="63" t="inlineStr">
+        <is>
+          <t>Strongly Agree</t>
+        </is>
+      </c>
+      <c r="L22" s="63" t="inlineStr">
+        <is>
+          <t>Agree</t>
+        </is>
+      </c>
+      <c r="M22" s="63" t="inlineStr">
+        <is>
+          <t>Strongly Agree</t>
+        </is>
+      </c>
+      <c r="N22" s="63" t="inlineStr">
+        <is>
+          <t>Strongly Agree</t>
+        </is>
+      </c>
+      <c r="O22" s="63" t="inlineStr">
+        <is>
+          <t>Strongly Agree</t>
+        </is>
+      </c>
+      <c r="P22" s="63" t="inlineStr">
         <is>
           <t>Strongly Agree</t>
         </is>
@@ -23042,47 +21149,47 @@
           <t>Strongly Agree</t>
         </is>
       </c>
-      <c r="H23" s="64" t="inlineStr">
-        <is>
-          <t>Strongly Agree</t>
-        </is>
-      </c>
-      <c r="I23" s="64" t="inlineStr">
-        <is>
-          <t>Strongly Agree</t>
-        </is>
-      </c>
-      <c r="J23" s="64" t="inlineStr">
-        <is>
-          <t>Strongly Agree</t>
-        </is>
-      </c>
-      <c r="K23" s="64" t="inlineStr">
-        <is>
-          <t>Strongly Agree</t>
-        </is>
-      </c>
-      <c r="L23" s="64" t="inlineStr">
-        <is>
-          <t>Strongly Agree</t>
-        </is>
-      </c>
-      <c r="M23" s="64" t="inlineStr">
-        <is>
-          <t>Strongly Agree</t>
-        </is>
-      </c>
-      <c r="N23" s="64" t="inlineStr">
-        <is>
-          <t>Strongly Agree</t>
-        </is>
-      </c>
-      <c r="O23" s="64" t="inlineStr">
-        <is>
-          <t>Strongly Agree</t>
-        </is>
-      </c>
-      <c r="P23" s="64" t="inlineStr">
+      <c r="H23" s="63" t="inlineStr">
+        <is>
+          <t>Strongly Agree</t>
+        </is>
+      </c>
+      <c r="I23" s="63" t="inlineStr">
+        <is>
+          <t>Strongly Agree</t>
+        </is>
+      </c>
+      <c r="J23" s="63" t="inlineStr">
+        <is>
+          <t>Strongly Agree</t>
+        </is>
+      </c>
+      <c r="K23" s="63" t="inlineStr">
+        <is>
+          <t>Strongly Agree</t>
+        </is>
+      </c>
+      <c r="L23" s="63" t="inlineStr">
+        <is>
+          <t>Strongly Agree</t>
+        </is>
+      </c>
+      <c r="M23" s="63" t="inlineStr">
+        <is>
+          <t>Strongly Agree</t>
+        </is>
+      </c>
+      <c r="N23" s="63" t="inlineStr">
+        <is>
+          <t>Strongly Agree</t>
+        </is>
+      </c>
+      <c r="O23" s="63" t="inlineStr">
+        <is>
+          <t>Strongly Agree</t>
+        </is>
+      </c>
+      <c r="P23" s="63" t="inlineStr">
         <is>
           <t>Strongly Agree</t>
         </is>

--- a/21S2AccrSurvey_EEXXXX-Results (ready).xlsx
+++ b/21S2AccrSurvey_EEXXXX-Results (ready).xlsx
@@ -4848,7 +4848,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N161"/>
+  <dimension ref="A1:N179"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="N19" sqref="N19"/>
@@ -6619,6 +6619,132 @@
     </row>
     <row r="161">
       <c r="A161" t="inlineStr">
+        <is>
+          <t xml:space="preserve">test </t>
+        </is>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" t="inlineStr">
+        <is>
+          <t xml:space="preserve">comments </t>
+        </is>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" t="inlineStr">
+        <is>
+          <t xml:space="preserve">comments </t>
+        </is>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" t="inlineStr">
+        <is>
+          <t xml:space="preserve">comments </t>
+        </is>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" t="inlineStr">
+        <is>
+          <t>testing</t>
+        </is>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" t="inlineStr">
+        <is>
+          <t>testing</t>
+        </is>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" t="inlineStr">
+        <is>
+          <t>testing</t>
+        </is>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" t="inlineStr">
+        <is>
+          <t xml:space="preserve">testing </t>
+        </is>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" t="inlineStr">
+        <is>
+          <t>testing</t>
+        </is>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" t="inlineStr">
+        <is>
+          <t>testing 2:07pm</t>
+        </is>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" t="inlineStr">
+        <is>
+          <t xml:space="preserve">testing </t>
+        </is>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" t="inlineStr">
         <is>
           <t xml:space="preserve">test </t>
         </is>
@@ -6650,7 +6776,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N151"/>
+  <dimension ref="A1:N160"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A16" zoomScale="99" workbookViewId="0">
       <selection activeCell="D16" sqref="D16"/>
@@ -8316,6 +8442,69 @@
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="inlineStr">
+        <is>
+          <t>nil</t>
+        </is>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" t="inlineStr">
+        <is>
+          <t>nil</t>
+        </is>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" t="inlineStr">
+        <is>
+          <t>nil</t>
+        </is>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" t="inlineStr">
+        <is>
+          <t xml:space="preserve">testing </t>
+        </is>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" t="inlineStr">
+        <is>
+          <t xml:space="preserve">cljx laptop </t>
+        </is>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" t="inlineStr">
+        <is>
+          <t xml:space="preserve">testing </t>
+        </is>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" t="inlineStr">
+        <is>
+          <t>test 1</t>
+        </is>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" t="inlineStr">
+        <is>
+          <t xml:space="preserve">testing </t>
+        </is>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" t="inlineStr">
         <is>
           <t>.</t>
         </is>
